--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4F7B1E-B8B1-44D9-9385-8F33F0C74820}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0711787-1243-4CD9-8351-EC73F7E2B08A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="89">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1018,6 +1018,25 @@
   </si>
   <si>
     <t>読込、タイトル、プレイ、エンドシーンの基礎部分作成。</t>
+  </si>
+  <si>
+    <t>読み込み処理作成。タイトル描画。</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2234,8 +2253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2986,8 +3005,12 @@
       <c r="D60" s="18"/>
       <c r="E60" s="19"/>
       <c r="F60" s="12"/>
-      <c r="H60" s="56"/>
-      <c r="I60" s="62"/>
+      <c r="H60" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="I60" s="62">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="40">

--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0711787-1243-4CD9-8351-EC73F7E2B08A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54BD057-1ED9-46FB-A25A-9FEDBCF2824D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="107">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1035,6 +1035,339 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度選択シーン作成</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ選択シーン作成</t>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度選択処理作成。</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ選択処理作成。</t>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア表示処理作成。</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア表示シーン作成。</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度追加。（引き算ステージ）</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ザン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度追加。（掛け算ステージ）</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ザン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度追加。（割り算ステージ）</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ザン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度追加。（足し算、引き算ステージ）</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ザン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度追加。（掛け算、割り算ステージ）</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ザン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度追加。（足し算、掛け算ステージ）</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ザン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度追加。（足し算、割り算ステージ）</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ザン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度追加。（引き算、掛け算ステージ）</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ザン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度追加。（足し算、引き算、掛け算ステージ）</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ザン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度追加。（足し算、引き算、割り算ステージ）</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ザン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度追加。（四則混合ステージ）</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>シソクコンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業が遅れた場合の保険期間、時間が余れば機能追加。</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホケン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アマ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1143,7 +1476,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1585,19 +1918,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
     <border diagonalDown="1">
       <left style="medium">
         <color indexed="64"/>
@@ -1744,7 +2064,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1856,39 +2176,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1901,7 +2218,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1910,8 +2227,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1922,15 +2242,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1969,6 +2286,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2253,8 +2576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2271,38 +2594,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="16"/>
@@ -2313,32 +2636,32 @@
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="70"/>
+      <c r="F5" s="69"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="72"/>
+      <c r="F6" s="71"/>
     </row>
     <row r="8" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
@@ -2349,7 +2672,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="38"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="33" t="s">
         <v>8</v>
       </c>
@@ -2365,15 +2688,15 @@
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="60" t="s">
+      <c r="I9" s="59" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="39">
+      <c r="A10" s="38">
         <v>43922</v>
       </c>
       <c r="B10" s="6"/>
@@ -2381,11 +2704,11 @@
       <c r="D10" s="26"/>
       <c r="E10" s="27"/>
       <c r="F10" s="6"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="61"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="60"/>
     </row>
     <row r="11" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="40">
+      <c r="A11" s="39">
         <v>43923</v>
       </c>
       <c r="B11" s="4"/>
@@ -2393,11 +2716,11 @@
       <c r="D11" s="18"/>
       <c r="E11" s="19"/>
       <c r="F11" s="4"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="61"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="60"/>
     </row>
     <row r="12" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="40">
+      <c r="A12" s="39">
         <v>43924</v>
       </c>
       <c r="B12" s="4"/>
@@ -2405,11 +2728,11 @@
       <c r="D12" s="18"/>
       <c r="E12" s="19"/>
       <c r="F12" s="4"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="61"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="60"/>
     </row>
     <row r="13" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="40">
+      <c r="A13" s="39">
         <v>43925</v>
       </c>
       <c r="B13" s="4"/>
@@ -2417,11 +2740,11 @@
       <c r="D13" s="18"/>
       <c r="E13" s="19"/>
       <c r="F13" s="4"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="61"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="60"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="40">
+      <c r="A14" s="39">
         <v>43926</v>
       </c>
       <c r="B14" s="4"/>
@@ -2429,11 +2752,11 @@
       <c r="D14" s="18"/>
       <c r="E14" s="19"/>
       <c r="F14" s="4"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="61"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="60"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="40">
+      <c r="A15" s="39">
         <v>43927</v>
       </c>
       <c r="B15" s="4"/>
@@ -2441,11 +2764,11 @@
       <c r="D15" s="18"/>
       <c r="E15" s="19"/>
       <c r="F15" s="4"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="61"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="60"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="40">
+      <c r="A16" s="39">
         <v>43928</v>
       </c>
       <c r="B16" s="4"/>
@@ -2453,11 +2776,11 @@
       <c r="D16" s="18"/>
       <c r="E16" s="19"/>
       <c r="F16" s="4"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="61"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="60"/>
     </row>
     <row r="17" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="40">
+      <c r="A17" s="39">
         <v>43929</v>
       </c>
       <c r="B17" s="4"/>
@@ -2465,11 +2788,11 @@
       <c r="D17" s="18"/>
       <c r="E17" s="19"/>
       <c r="F17" s="4"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="61"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="60"/>
     </row>
     <row r="18" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="40">
+      <c r="A18" s="39">
         <v>43930</v>
       </c>
       <c r="B18" s="4"/>
@@ -2477,11 +2800,11 @@
       <c r="D18" s="18"/>
       <c r="E18" s="19"/>
       <c r="F18" s="4"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="61"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="60"/>
     </row>
     <row r="19" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="40">
+      <c r="A19" s="39">
         <v>43931</v>
       </c>
       <c r="B19" s="4"/>
@@ -2489,11 +2812,11 @@
       <c r="D19" s="18"/>
       <c r="E19" s="19"/>
       <c r="F19" s="4"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="61"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="60"/>
     </row>
     <row r="20" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="40">
+      <c r="A20" s="39">
         <v>43932</v>
       </c>
       <c r="B20" s="2"/>
@@ -2501,11 +2824,11 @@
       <c r="D20" s="18"/>
       <c r="E20" s="19"/>
       <c r="F20" s="4"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="61"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="60"/>
     </row>
     <row r="21" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="40">
+      <c r="A21" s="39">
         <v>43933</v>
       </c>
       <c r="B21" s="4"/>
@@ -2513,11 +2836,11 @@
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="4"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="61"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="60"/>
     </row>
     <row r="22" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="40">
+      <c r="A22" s="39">
         <v>43934</v>
       </c>
       <c r="B22" s="4"/>
@@ -2525,11 +2848,11 @@
       <c r="D22" s="18"/>
       <c r="E22" s="19"/>
       <c r="F22" s="4"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="61"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="60"/>
     </row>
     <row r="23" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="40">
+      <c r="A23" s="39">
         <v>43935</v>
       </c>
       <c r="B23" s="4"/>
@@ -2537,11 +2860,11 @@
       <c r="D23" s="18"/>
       <c r="E23" s="19"/>
       <c r="F23" s="4"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="61"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="60"/>
     </row>
     <row r="24" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="40">
+      <c r="A24" s="39">
         <v>43936</v>
       </c>
       <c r="B24" s="4"/>
@@ -2549,11 +2872,11 @@
       <c r="D24" s="18"/>
       <c r="E24" s="19"/>
       <c r="F24" s="4"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="61"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="60"/>
     </row>
     <row r="25" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="40">
+      <c r="A25" s="39">
         <v>43937</v>
       </c>
       <c r="B25" s="4"/>
@@ -2561,11 +2884,11 @@
       <c r="D25" s="18"/>
       <c r="E25" s="19"/>
       <c r="F25" s="4"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="61"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="60"/>
     </row>
     <row r="26" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="40">
+      <c r="A26" s="39">
         <v>43938</v>
       </c>
       <c r="B26" s="4"/>
@@ -2573,11 +2896,11 @@
       <c r="D26" s="18"/>
       <c r="E26" s="19"/>
       <c r="F26" s="4"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="61"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="60"/>
     </row>
     <row r="27" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="40">
+      <c r="A27" s="39">
         <v>43939</v>
       </c>
       <c r="B27" s="4"/>
@@ -2585,11 +2908,11 @@
       <c r="D27" s="18"/>
       <c r="E27" s="19"/>
       <c r="F27" s="4"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="61"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="60"/>
     </row>
     <row r="28" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="40">
+      <c r="A28" s="39">
         <v>43940</v>
       </c>
       <c r="B28" s="4"/>
@@ -2597,11 +2920,11 @@
       <c r="D28" s="18"/>
       <c r="E28" s="19"/>
       <c r="F28" s="4"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="61"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="60"/>
     </row>
     <row r="29" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="40">
+      <c r="A29" s="39">
         <v>43941</v>
       </c>
       <c r="B29" s="34"/>
@@ -2609,11 +2932,11 @@
       <c r="D29" s="18"/>
       <c r="E29" s="19"/>
       <c r="F29" s="4"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="61"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="60"/>
     </row>
     <row r="30" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="40">
+      <c r="A30" s="39">
         <v>43942</v>
       </c>
       <c r="B30" s="34"/>
@@ -2621,11 +2944,11 @@
       <c r="D30" s="18"/>
       <c r="E30" s="19"/>
       <c r="F30" s="4"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="61"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="60"/>
     </row>
     <row r="31" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="40">
+      <c r="A31" s="39">
         <v>43943</v>
       </c>
       <c r="B31" s="34"/>
@@ -2633,11 +2956,11 @@
       <c r="D31" s="18"/>
       <c r="E31" s="19"/>
       <c r="F31" s="4"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="61"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="60"/>
     </row>
     <row r="32" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="40">
+      <c r="A32" s="39">
         <v>43944</v>
       </c>
       <c r="B32" s="34"/>
@@ -2645,11 +2968,11 @@
       <c r="D32" s="18"/>
       <c r="E32" s="19"/>
       <c r="F32" s="4"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="61"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="60"/>
     </row>
     <row r="33" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="40">
+      <c r="A33" s="39">
         <v>43945</v>
       </c>
       <c r="B33" s="34"/>
@@ -2657,11 +2980,11 @@
       <c r="D33" s="18"/>
       <c r="E33" s="19"/>
       <c r="F33" s="4"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="61"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="60"/>
     </row>
     <row r="34" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="40">
+      <c r="A34" s="39">
         <v>43946</v>
       </c>
       <c r="B34" s="34"/>
@@ -2669,11 +2992,11 @@
       <c r="D34" s="18"/>
       <c r="E34" s="19"/>
       <c r="F34" s="4"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="61"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="60"/>
     </row>
     <row r="35" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="40">
+      <c r="A35" s="39">
         <v>43947</v>
       </c>
       <c r="B35" s="34"/>
@@ -2681,11 +3004,11 @@
       <c r="D35" s="18"/>
       <c r="E35" s="19"/>
       <c r="F35" s="4"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="61"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="60"/>
     </row>
     <row r="36" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="40">
+      <c r="A36" s="39">
         <v>43948</v>
       </c>
       <c r="B36" s="34"/>
@@ -2693,11 +3016,11 @@
       <c r="D36" s="18"/>
       <c r="E36" s="19"/>
       <c r="F36" s="4"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="61"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="60"/>
     </row>
     <row r="37" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="40">
+      <c r="A37" s="39">
         <v>43949</v>
       </c>
       <c r="B37" s="34"/>
@@ -2705,11 +3028,11 @@
       <c r="D37" s="18"/>
       <c r="E37" s="19"/>
       <c r="F37" s="4"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="61"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="60"/>
     </row>
     <row r="38" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="40">
+      <c r="A38" s="39">
         <v>43950</v>
       </c>
       <c r="B38" s="34"/>
@@ -2717,35 +3040,35 @@
       <c r="D38" s="18"/>
       <c r="E38" s="19"/>
       <c r="F38" s="4"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="61"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="60"/>
     </row>
     <row r="39" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="41">
+      <c r="A39" s="40">
         <v>43951</v>
       </c>
       <c r="B39" s="35"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="45"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="44"/>
       <c r="F39" s="9"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="61"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="60"/>
     </row>
     <row r="40" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="42">
+      <c r="A40" s="41">
         <v>43952</v>
       </c>
       <c r="B40" s="36"/>
       <c r="C40" s="10"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="49"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="48"/>
       <c r="F40" s="11"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="62"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="61"/>
     </row>
     <row r="41" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="40">
+      <c r="A41" s="39">
         <v>43953</v>
       </c>
       <c r="B41" s="34"/>
@@ -2753,11 +3076,11 @@
       <c r="D41" s="18"/>
       <c r="E41" s="19"/>
       <c r="F41" s="12"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="62"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="61"/>
     </row>
     <row r="42" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="40">
+      <c r="A42" s="39">
         <v>43954</v>
       </c>
       <c r="B42" s="34"/>
@@ -2765,11 +3088,11 @@
       <c r="D42" s="18"/>
       <c r="E42" s="19"/>
       <c r="F42" s="12"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="62"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="61"/>
     </row>
     <row r="43" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="40">
+      <c r="A43" s="39">
         <v>43955</v>
       </c>
       <c r="B43" s="34"/>
@@ -2777,11 +3100,11 @@
       <c r="D43" s="18"/>
       <c r="E43" s="19"/>
       <c r="F43" s="12"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="62"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="61"/>
     </row>
     <row r="44" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="40">
+      <c r="A44" s="39">
         <v>43956</v>
       </c>
       <c r="B44" s="34"/>
@@ -2789,11 +3112,11 @@
       <c r="D44" s="18"/>
       <c r="E44" s="19"/>
       <c r="F44" s="12"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="62"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="61"/>
     </row>
     <row r="45" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="40">
+      <c r="A45" s="39">
         <v>43957</v>
       </c>
       <c r="B45" s="34"/>
@@ -2801,11 +3124,11 @@
       <c r="D45" s="18"/>
       <c r="E45" s="19"/>
       <c r="F45" s="12"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="62"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="61"/>
     </row>
     <row r="46" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="40">
+      <c r="A46" s="39">
         <v>43958</v>
       </c>
       <c r="B46" s="34"/>
@@ -2813,11 +3136,11 @@
       <c r="D46" s="18"/>
       <c r="E46" s="19"/>
       <c r="F46" s="12"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="62"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="61"/>
     </row>
     <row r="47" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="40">
+      <c r="A47" s="39">
         <v>43959</v>
       </c>
       <c r="B47" s="34"/>
@@ -2825,11 +3148,11 @@
       <c r="D47" s="18"/>
       <c r="E47" s="19"/>
       <c r="F47" s="12"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="62"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="61"/>
     </row>
     <row r="48" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="40">
+      <c r="A48" s="39">
         <v>43960</v>
       </c>
       <c r="B48" s="34"/>
@@ -2837,11 +3160,11 @@
       <c r="D48" s="18"/>
       <c r="E48" s="19"/>
       <c r="F48" s="12"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="62"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="61"/>
     </row>
     <row r="49" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="40">
+      <c r="A49" s="39">
         <v>43961</v>
       </c>
       <c r="B49" s="34"/>
@@ -2849,11 +3172,11 @@
       <c r="D49" s="18"/>
       <c r="E49" s="19"/>
       <c r="F49" s="12"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="62"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="61"/>
     </row>
     <row r="50" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="40">
+      <c r="A50" s="39">
         <v>43962</v>
       </c>
       <c r="B50" s="34"/>
@@ -2861,11 +3184,11 @@
       <c r="D50" s="18"/>
       <c r="E50" s="19"/>
       <c r="F50" s="12"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="62"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="61"/>
     </row>
     <row r="51" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="40">
+      <c r="A51" s="39">
         <v>43963</v>
       </c>
       <c r="B51" s="34"/>
@@ -2873,11 +3196,11 @@
       <c r="D51" s="18"/>
       <c r="E51" s="19"/>
       <c r="F51" s="12"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="62"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="61"/>
     </row>
     <row r="52" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="40">
+      <c r="A52" s="39">
         <v>43964</v>
       </c>
       <c r="B52" s="34"/>
@@ -2885,11 +3208,11 @@
       <c r="D52" s="18"/>
       <c r="E52" s="19"/>
       <c r="F52" s="12"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="62"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="61"/>
     </row>
     <row r="53" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="40">
+      <c r="A53" s="39">
         <v>43965</v>
       </c>
       <c r="B53" s="34"/>
@@ -2897,11 +3220,11 @@
       <c r="D53" s="18"/>
       <c r="E53" s="19"/>
       <c r="F53" s="12"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="62"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="61"/>
     </row>
     <row r="54" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="40">
+      <c r="A54" s="39">
         <v>43966</v>
       </c>
       <c r="B54" s="34"/>
@@ -2909,11 +3232,11 @@
       <c r="D54" s="18"/>
       <c r="E54" s="19"/>
       <c r="F54" s="12"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="62"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="61"/>
     </row>
     <row r="55" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="40">
+      <c r="A55" s="39">
         <v>43967</v>
       </c>
       <c r="B55" s="34"/>
@@ -2921,11 +3244,11 @@
       <c r="D55" s="18"/>
       <c r="E55" s="19"/>
       <c r="F55" s="12"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="62"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="61"/>
     </row>
     <row r="56" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="40">
+      <c r="A56" s="39">
         <v>43968</v>
       </c>
       <c r="B56" s="34"/>
@@ -2933,11 +3256,11 @@
       <c r="D56" s="18"/>
       <c r="E56" s="19"/>
       <c r="F56" s="12"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="62"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="61"/>
     </row>
     <row r="57" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="40">
+      <c r="A57" s="39">
         <v>43969</v>
       </c>
       <c r="B57" s="34"/>
@@ -2945,11 +3268,11 @@
       <c r="D57" s="18"/>
       <c r="E57" s="19"/>
       <c r="F57" s="12"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="62"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="61"/>
     </row>
     <row r="58" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="40">
+      <c r="A58" s="39">
         <v>43970</v>
       </c>
       <c r="B58" s="34" t="s">
@@ -2965,15 +3288,15 @@
         <v>16</v>
       </c>
       <c r="F58" s="12"/>
-      <c r="H58" s="56" t="s">
+      <c r="H58" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="I58" s="62">
+      <c r="I58" s="61">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="40">
+      <c r="A59" s="39">
         <v>43971</v>
       </c>
       <c r="B59" s="34" t="s">
@@ -2985,15 +3308,15 @@
       <c r="D59" s="18"/>
       <c r="E59" s="19"/>
       <c r="F59" s="12"/>
-      <c r="H59" s="56" t="s">
+      <c r="H59" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="I59" s="62">
+      <c r="I59" s="61">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="40">
+      <c r="A60" s="39">
         <v>43972</v>
       </c>
       <c r="B60" s="34" t="s">
@@ -3005,15 +3328,15 @@
       <c r="D60" s="18"/>
       <c r="E60" s="19"/>
       <c r="F60" s="12"/>
-      <c r="H60" s="56" t="s">
+      <c r="H60" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="I60" s="62">
+      <c r="I60" s="61">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="40">
+      <c r="A61" s="39">
         <v>43973</v>
       </c>
       <c r="B61" s="34" t="s">
@@ -3025,11 +3348,11 @@
       <c r="D61" s="18"/>
       <c r="E61" s="19"/>
       <c r="F61" s="12"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="62"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="61"/>
     </row>
     <row r="62" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="40">
+      <c r="A62" s="39">
         <v>43974</v>
       </c>
       <c r="B62" s="34" t="s">
@@ -3041,382 +3364,382 @@
       <c r="D62" s="18"/>
       <c r="E62" s="19"/>
       <c r="F62" s="12"/>
-      <c r="H62" s="56"/>
-      <c r="I62" s="62"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="61"/>
     </row>
     <row r="63" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="40">
+      <c r="A63" s="39">
         <v>43975</v>
       </c>
-      <c r="B63" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>51</v>
+      <c r="B63" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="74" t="s">
+        <v>91</v>
       </c>
       <c r="D63" s="18"/>
       <c r="E63" s="19"/>
       <c r="F63" s="12"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="62"/>
+      <c r="H63" s="55"/>
+      <c r="I63" s="61"/>
     </row>
     <row r="64" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="40">
+      <c r="A64" s="39">
         <v>43976</v>
       </c>
-      <c r="B64" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>52</v>
+      <c r="B64" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="74" t="s">
+        <v>91</v>
       </c>
       <c r="D64" s="18"/>
       <c r="E64" s="19"/>
       <c r="F64" s="12"/>
-      <c r="H64" s="56"/>
-      <c r="I64" s="62"/>
+      <c r="H64" s="55"/>
+      <c r="I64" s="61"/>
     </row>
     <row r="65" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="40">
+      <c r="A65" s="39">
         <v>43977</v>
       </c>
-      <c r="B65" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>52</v>
+      <c r="B65" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" s="74" t="s">
+        <v>92</v>
       </c>
       <c r="D65" s="20"/>
       <c r="E65" s="21"/>
       <c r="F65" s="12"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="62"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="61"/>
     </row>
     <row r="66" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="40">
+      <c r="A66" s="39">
         <v>43978</v>
       </c>
-      <c r="B66" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>55</v>
+      <c r="B66" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" s="74" t="s">
+        <v>92</v>
       </c>
       <c r="D66" s="22"/>
       <c r="E66" s="23"/>
       <c r="F66" s="12"/>
-      <c r="H66" s="56"/>
-      <c r="I66" s="62"/>
+      <c r="H66" s="55"/>
+      <c r="I66" s="61"/>
     </row>
     <row r="67" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="40">
+      <c r="A67" s="39">
         <v>43979</v>
       </c>
-      <c r="B67" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>65</v>
+      <c r="B67" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" s="74" t="s">
+        <v>92</v>
       </c>
       <c r="D67" s="22"/>
       <c r="E67" s="23"/>
       <c r="F67" s="12"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="62"/>
+      <c r="H67" s="55"/>
+      <c r="I67" s="61"/>
     </row>
     <row r="68" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="40">
+      <c r="A68" s="39">
         <v>43980</v>
       </c>
       <c r="B68" s="34" t="s">
         <v>50</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>17</v>
       </c>
       <c r="E68" s="23"/>
       <c r="F68" s="12"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="62"/>
+      <c r="H68" s="55"/>
+      <c r="I68" s="61"/>
     </row>
     <row r="69" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="40">
+      <c r="A69" s="39">
         <v>43981</v>
       </c>
       <c r="B69" s="34" t="s">
         <v>50</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D69" s="18"/>
       <c r="E69" s="19"/>
       <c r="F69" s="12"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="62"/>
+      <c r="H69" s="55"/>
+      <c r="I69" s="61"/>
     </row>
     <row r="70" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="43">
+      <c r="A70" s="42">
         <v>43982</v>
       </c>
       <c r="B70" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D70" s="50"/>
-      <c r="E70" s="51"/>
+      <c r="C70" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70" s="49"/>
+      <c r="E70" s="50"/>
       <c r="F70" s="14"/>
-      <c r="H70" s="57"/>
-      <c r="I70" s="63"/>
+      <c r="H70" s="56"/>
+      <c r="I70" s="62"/>
     </row>
     <row r="71" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="42">
+      <c r="A71" s="41">
         <v>43983</v>
       </c>
       <c r="B71" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C71" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D71" s="48"/>
-      <c r="E71" s="53" t="s">
+      <c r="C71" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" s="47"/>
+      <c r="E71" s="52" t="s">
         <v>18</v>
       </c>
       <c r="F71" s="11"/>
-      <c r="H71" s="58"/>
-      <c r="I71" s="64"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="63"/>
     </row>
     <row r="72" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="40">
+      <c r="A72" s="39">
         <v>43984</v>
       </c>
       <c r="B72" s="34" t="s">
         <v>50</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D72" s="18"/>
       <c r="E72" s="23" t="s">
         <v>18</v>
       </c>
       <c r="F72" s="12"/>
-      <c r="H72" s="56"/>
-      <c r="I72" s="62"/>
+      <c r="H72" s="55"/>
+      <c r="I72" s="61"/>
     </row>
     <row r="73" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="40">
+      <c r="A73" s="39">
         <v>43985</v>
       </c>
       <c r="B73" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C73" s="66" t="s">
-        <v>68</v>
+      <c r="C73" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D73" s="18"/>
       <c r="E73" s="23" t="s">
         <v>18</v>
       </c>
       <c r="F73" s="12"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="62"/>
+      <c r="H73" s="55"/>
+      <c r="I73" s="61"/>
     </row>
     <row r="74" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="40">
+      <c r="A74" s="39">
         <v>43986</v>
       </c>
       <c r="B74" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C74" s="66" t="s">
-        <v>69</v>
+      <c r="C74" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="D74" s="18"/>
       <c r="E74" s="23" t="s">
         <v>18</v>
       </c>
       <c r="F74" s="12"/>
-      <c r="H74" s="56"/>
-      <c r="I74" s="62"/>
-    </row>
-    <row r="75" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="40">
+      <c r="H74" s="55"/>
+      <c r="I74" s="61"/>
+    </row>
+    <row r="75" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="39">
         <v>43987</v>
       </c>
       <c r="B75" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C75" s="67" t="s">
-        <v>70</v>
+      <c r="C75" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="D75" s="18"/>
       <c r="E75" s="23" t="s">
         <v>18</v>
       </c>
       <c r="F75" s="12"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="62"/>
+      <c r="H75" s="55"/>
+      <c r="I75" s="61"/>
     </row>
     <row r="76" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="40">
+      <c r="A76" s="39">
         <v>43988</v>
       </c>
       <c r="B76" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C76" s="66" t="s">
-        <v>71</v>
+      <c r="C76" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="D76" s="18"/>
       <c r="E76" s="19"/>
       <c r="F76" s="12"/>
-      <c r="H76" s="56"/>
-      <c r="I76" s="62"/>
+      <c r="H76" s="55"/>
+      <c r="I76" s="61"/>
     </row>
     <row r="77" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="40">
+      <c r="A77" s="39">
         <v>43989</v>
       </c>
       <c r="B77" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C77" s="67" t="s">
-        <v>72</v>
+      <c r="C77" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="D77" s="18"/>
       <c r="E77" s="19"/>
       <c r="F77" s="12"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="62"/>
+      <c r="H77" s="55"/>
+      <c r="I77" s="61"/>
     </row>
     <row r="78" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="40">
+      <c r="A78" s="39">
         <v>43990</v>
       </c>
       <c r="B78" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C78" s="66" t="s">
-        <v>73</v>
+      <c r="C78" s="65" t="s">
+        <v>68</v>
       </c>
       <c r="D78" s="18"/>
       <c r="E78" s="19"/>
       <c r="F78" s="12"/>
-      <c r="H78" s="56"/>
-      <c r="I78" s="62"/>
+      <c r="H78" s="55"/>
+      <c r="I78" s="61"/>
     </row>
     <row r="79" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="40">
+      <c r="A79" s="39">
         <v>43991</v>
       </c>
       <c r="B79" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>59</v>
+      <c r="C79" s="65" t="s">
+        <v>69</v>
       </c>
       <c r="D79" s="18"/>
       <c r="E79" s="19"/>
       <c r="F79" s="12"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="62"/>
+      <c r="H79" s="55"/>
+      <c r="I79" s="61"/>
     </row>
     <row r="80" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="40">
+      <c r="A80" s="39">
         <v>43992</v>
       </c>
       <c r="B80" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>59</v>
+      <c r="C80" s="66" t="s">
+        <v>70</v>
       </c>
       <c r="D80" s="18"/>
       <c r="E80" s="19"/>
       <c r="F80" s="12"/>
-      <c r="H80" s="56"/>
-      <c r="I80" s="62"/>
+      <c r="H80" s="55"/>
+      <c r="I80" s="61"/>
     </row>
     <row r="81" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="40">
+      <c r="A81" s="39">
         <v>43993</v>
       </c>
       <c r="B81" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>60</v>
+      <c r="C81" s="65" t="s">
+        <v>71</v>
       </c>
       <c r="D81" s="18"/>
       <c r="E81" s="19"/>
       <c r="F81" s="12"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="62"/>
+      <c r="H81" s="55"/>
+      <c r="I81" s="61"/>
     </row>
     <row r="82" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="40">
+      <c r="A82" s="39">
         <v>43994</v>
       </c>
       <c r="B82" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>61</v>
+      <c r="C82" s="66" t="s">
+        <v>72</v>
       </c>
       <c r="D82" s="18"/>
       <c r="E82" s="19"/>
       <c r="F82" s="12"/>
-      <c r="H82" s="56"/>
-      <c r="I82" s="62"/>
+      <c r="H82" s="55"/>
+      <c r="I82" s="61"/>
     </row>
     <row r="83" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="40">
+      <c r="A83" s="39">
         <v>43995</v>
       </c>
       <c r="B83" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>62</v>
+      <c r="C83" s="65" t="s">
+        <v>73</v>
       </c>
       <c r="D83" s="18"/>
       <c r="E83" s="19"/>
       <c r="F83" s="12"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="62"/>
+      <c r="H83" s="55"/>
+      <c r="I83" s="61"/>
     </row>
     <row r="84" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="40">
+      <c r="A84" s="39">
         <v>43996</v>
       </c>
       <c r="B84" s="34" t="s">
         <v>50</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D84" s="18"/>
       <c r="E84" s="19"/>
       <c r="F84" s="12"/>
-      <c r="H84" s="56"/>
-      <c r="I84" s="62"/>
+      <c r="H84" s="55"/>
+      <c r="I84" s="61"/>
     </row>
     <row r="85" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="40">
+      <c r="A85" s="39">
         <v>43997</v>
       </c>
       <c r="B85" s="34" t="s">
         <v>50</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D85" s="20" t="s">
         <v>19</v>
@@ -3425,494 +3748,494 @@
         <v>20</v>
       </c>
       <c r="F85" s="12"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="62"/>
+      <c r="H85" s="55"/>
+      <c r="I85" s="61"/>
     </row>
     <row r="86" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="40">
+      <c r="A86" s="39">
         <v>43998</v>
       </c>
       <c r="B86" s="34" t="s">
         <v>50</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D86" s="18"/>
       <c r="E86" s="23" t="s">
         <v>20</v>
       </c>
       <c r="F86" s="12"/>
-      <c r="H86" s="56"/>
-      <c r="I86" s="62"/>
+      <c r="H86" s="55"/>
+      <c r="I86" s="61"/>
     </row>
     <row r="87" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="40">
+      <c r="A87" s="39">
         <v>43999</v>
       </c>
       <c r="B87" s="34" t="s">
         <v>50</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D87" s="18"/>
       <c r="E87" s="23" t="s">
         <v>20</v>
       </c>
       <c r="F87" s="12"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="62"/>
+      <c r="H87" s="55"/>
+      <c r="I87" s="61"/>
     </row>
     <row r="88" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="40">
+      <c r="A88" s="39">
         <v>44000</v>
       </c>
       <c r="B88" s="34" t="s">
         <v>50</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D88" s="18"/>
       <c r="E88" s="19"/>
       <c r="F88" s="12"/>
-      <c r="H88" s="56"/>
-      <c r="I88" s="62"/>
+      <c r="H88" s="55"/>
+      <c r="I88" s="61"/>
     </row>
     <row r="89" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="40">
+      <c r="A89" s="39">
         <v>44001</v>
       </c>
       <c r="B89" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C89" s="66" t="s">
-        <v>72</v>
+      <c r="C89" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="D89" s="18"/>
       <c r="E89" s="19"/>
       <c r="F89" s="12"/>
-      <c r="H89" s="56"/>
-      <c r="I89" s="62"/>
+      <c r="H89" s="55"/>
+      <c r="I89" s="61"/>
     </row>
     <row r="90" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="40">
+      <c r="A90" s="39">
         <v>44002</v>
       </c>
-      <c r="B90" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>76</v>
+      <c r="B90" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" s="65" t="s">
+        <v>93</v>
       </c>
       <c r="D90" s="18"/>
       <c r="E90" s="19"/>
       <c r="F90" s="12"/>
-      <c r="H90" s="56"/>
-      <c r="I90" s="62"/>
+      <c r="H90" s="55"/>
+      <c r="I90" s="61"/>
     </row>
     <row r="91" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="40">
+      <c r="A91" s="39">
         <v>44003</v>
       </c>
-      <c r="B91" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>66</v>
+      <c r="B91" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91" s="65" t="s">
+        <v>93</v>
       </c>
       <c r="D91" s="18"/>
       <c r="E91" s="19"/>
       <c r="F91" s="12"/>
-      <c r="H91" s="56"/>
-      <c r="I91" s="62"/>
+      <c r="H91" s="55"/>
+      <c r="I91" s="61"/>
     </row>
     <row r="92" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="40">
+      <c r="A92" s="39">
         <v>44004</v>
       </c>
       <c r="B92" s="34" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D92" s="18"/>
       <c r="E92" s="19"/>
       <c r="F92" s="12"/>
-      <c r="H92" s="56"/>
-      <c r="I92" s="62"/>
+      <c r="H92" s="55"/>
+      <c r="I92" s="61"/>
     </row>
     <row r="93" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="40">
+      <c r="A93" s="39">
         <v>44005</v>
       </c>
       <c r="B93" s="34" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D93" s="18"/>
       <c r="E93" s="19"/>
       <c r="F93" s="12"/>
-      <c r="H93" s="56"/>
-      <c r="I93" s="62"/>
+      <c r="H93" s="55"/>
+      <c r="I93" s="61"/>
     </row>
     <row r="94" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="40">
+      <c r="A94" s="39">
         <v>44006</v>
       </c>
       <c r="B94" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C94" s="66" t="s">
-        <v>72</v>
+        <v>95</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D94" s="18"/>
       <c r="E94" s="19"/>
       <c r="F94" s="12"/>
-      <c r="H94" s="56"/>
-      <c r="I94" s="62"/>
+      <c r="H94" s="55"/>
+      <c r="I94" s="61"/>
     </row>
     <row r="95" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="40">
+      <c r="A95" s="39">
         <v>44007</v>
       </c>
       <c r="B95" s="34" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D95" s="18"/>
       <c r="E95" s="19"/>
       <c r="F95" s="12"/>
-      <c r="H95" s="56"/>
-      <c r="I95" s="62"/>
+      <c r="H95" s="55"/>
+      <c r="I95" s="61"/>
     </row>
     <row r="96" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="40">
+      <c r="A96" s="39">
         <v>44008</v>
       </c>
       <c r="B96" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>66</v>
+        <v>95</v>
+      </c>
+      <c r="C96" s="65" t="s">
+        <v>72</v>
       </c>
       <c r="D96" s="18"/>
       <c r="E96" s="19"/>
       <c r="F96" s="12"/>
-      <c r="H96" s="56"/>
-      <c r="I96" s="62"/>
+      <c r="H96" s="55"/>
+      <c r="I96" s="61"/>
     </row>
     <row r="97" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="40">
+      <c r="A97" s="39">
         <v>44009</v>
       </c>
       <c r="B97" s="34" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="D97" s="18"/>
       <c r="E97" s="19"/>
       <c r="F97" s="12"/>
-      <c r="H97" s="56"/>
-      <c r="I97" s="62"/>
+      <c r="H97" s="55"/>
+      <c r="I97" s="61"/>
     </row>
     <row r="98" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="40">
+      <c r="A98" s="39">
         <v>44010</v>
       </c>
       <c r="B98" s="34" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D98" s="18"/>
       <c r="E98" s="19"/>
       <c r="F98" s="12"/>
-      <c r="H98" s="56"/>
-      <c r="I98" s="62"/>
+      <c r="H98" s="55"/>
+      <c r="I98" s="61"/>
     </row>
     <row r="99" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="40">
+      <c r="A99" s="39">
         <v>44011</v>
       </c>
       <c r="B99" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C99" s="66" t="s">
-        <v>72</v>
+        <v>96</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D99" s="18"/>
       <c r="E99" s="19"/>
       <c r="F99" s="12"/>
-      <c r="H99" s="56"/>
-      <c r="I99" s="62"/>
+      <c r="H99" s="55"/>
+      <c r="I99" s="61"/>
     </row>
     <row r="100" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A100" s="43">
+      <c r="A100" s="42">
         <v>44012</v>
       </c>
       <c r="B100" s="34" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D100" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E100" s="54" t="s">
+      <c r="E100" s="53" t="s">
         <v>22</v>
       </c>
       <c r="F100" s="14"/>
-      <c r="H100" s="57"/>
-      <c r="I100" s="63"/>
+      <c r="H100" s="56"/>
+      <c r="I100" s="62"/>
     </row>
     <row r="101" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="42">
+      <c r="A101" s="41">
         <v>44013</v>
       </c>
       <c r="B101" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D101" s="48"/>
-      <c r="E101" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C101" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="D101" s="47"/>
+      <c r="E101" s="52" t="s">
         <v>22</v>
       </c>
       <c r="F101" s="11"/>
-      <c r="H101" s="58"/>
-      <c r="I101" s="64"/>
+      <c r="H101" s="57"/>
+      <c r="I101" s="63"/>
     </row>
     <row r="102" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="40">
+      <c r="A102" s="39">
         <v>44014</v>
       </c>
       <c r="B102" s="34" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="D102" s="18"/>
       <c r="E102" s="23" t="s">
         <v>22</v>
       </c>
       <c r="F102" s="12"/>
-      <c r="H102" s="56"/>
-      <c r="I102" s="62"/>
+      <c r="H102" s="55"/>
+      <c r="I102" s="61"/>
     </row>
     <row r="103" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="40">
+      <c r="A103" s="39">
         <v>44015</v>
       </c>
       <c r="B103" s="34" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D103" s="18"/>
       <c r="E103" s="19"/>
       <c r="F103" s="12"/>
-      <c r="H103" s="56"/>
-      <c r="I103" s="62"/>
+      <c r="H103" s="55"/>
+      <c r="I103" s="61"/>
     </row>
     <row r="104" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="40">
+      <c r="A104" s="39">
         <v>44016</v>
       </c>
       <c r="B104" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C104" s="66" t="s">
-        <v>72</v>
+        <v>97</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D104" s="18"/>
       <c r="E104" s="19"/>
       <c r="F104" s="12"/>
-      <c r="H104" s="56"/>
-      <c r="I104" s="62"/>
+      <c r="H104" s="55"/>
+      <c r="I104" s="61"/>
     </row>
     <row r="105" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="40">
+      <c r="A105" s="39">
         <v>44017</v>
       </c>
       <c r="B105" s="34" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D105" s="18"/>
       <c r="E105" s="19"/>
       <c r="F105" s="12"/>
-      <c r="H105" s="56"/>
-      <c r="I105" s="62"/>
+      <c r="H105" s="55"/>
+      <c r="I105" s="61"/>
     </row>
     <row r="106" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="40">
+      <c r="A106" s="39">
         <v>44018</v>
       </c>
       <c r="B106" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>66</v>
+        <v>97</v>
+      </c>
+      <c r="C106" s="65" t="s">
+        <v>72</v>
       </c>
       <c r="D106" s="18"/>
       <c r="E106" s="19"/>
       <c r="F106" s="12"/>
-      <c r="H106" s="56"/>
-      <c r="I106" s="62"/>
+      <c r="H106" s="55"/>
+      <c r="I106" s="61"/>
     </row>
     <row r="107" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="40">
+      <c r="A107" s="39">
         <v>44019</v>
       </c>
       <c r="B107" s="34" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D107" s="18"/>
       <c r="E107" s="19"/>
       <c r="F107" s="12"/>
-      <c r="H107" s="56"/>
-      <c r="I107" s="62"/>
+      <c r="H107" s="55"/>
+      <c r="I107" s="61"/>
     </row>
     <row r="108" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="40">
+      <c r="A108" s="39">
         <v>44020</v>
       </c>
       <c r="B108" s="34" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D108" s="18"/>
       <c r="E108" s="19"/>
       <c r="F108" s="12"/>
-      <c r="H108" s="56"/>
-      <c r="I108" s="62"/>
+      <c r="H108" s="55"/>
+      <c r="I108" s="61"/>
     </row>
     <row r="109" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="40">
+      <c r="A109" s="39">
         <v>44021</v>
       </c>
       <c r="B109" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C109" s="66" t="s">
-        <v>72</v>
+        <v>98</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D109" s="18"/>
       <c r="E109" s="19"/>
       <c r="F109" s="12"/>
-      <c r="H109" s="56"/>
-      <c r="I109" s="62"/>
+      <c r="H109" s="55"/>
+      <c r="I109" s="61"/>
     </row>
     <row r="110" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="40">
+      <c r="A110" s="39">
         <v>44022</v>
       </c>
       <c r="B110" s="34" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D110" s="18"/>
       <c r="E110" s="19"/>
       <c r="F110" s="12"/>
-      <c r="H110" s="56"/>
-      <c r="I110" s="62"/>
+      <c r="H110" s="55"/>
+      <c r="I110" s="61"/>
     </row>
     <row r="111" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="40">
+      <c r="A111" s="39">
         <v>44023</v>
       </c>
       <c r="B111" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>66</v>
+        <v>98</v>
+      </c>
+      <c r="C111" s="65" t="s">
+        <v>72</v>
       </c>
       <c r="D111" s="18"/>
       <c r="E111" s="19"/>
       <c r="F111" s="12"/>
-      <c r="H111" s="56"/>
-      <c r="I111" s="62"/>
+      <c r="H111" s="55"/>
+      <c r="I111" s="61"/>
     </row>
     <row r="112" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="40">
+      <c r="A112" s="39">
         <v>44024</v>
       </c>
       <c r="B112" s="34" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="D112" s="18"/>
       <c r="E112" s="19"/>
       <c r="F112" s="12"/>
-      <c r="H112" s="56"/>
-      <c r="I112" s="62"/>
+      <c r="H112" s="55"/>
+      <c r="I112" s="61"/>
     </row>
     <row r="113" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="40">
+      <c r="A113" s="39">
         <v>44025</v>
       </c>
       <c r="B113" s="34" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D113" s="18"/>
       <c r="E113" s="19"/>
       <c r="F113" s="12"/>
-      <c r="H113" s="56"/>
-      <c r="I113" s="62"/>
+      <c r="H113" s="55"/>
+      <c r="I113" s="61"/>
     </row>
     <row r="114" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="40">
+      <c r="A114" s="39">
         <v>44026</v>
       </c>
       <c r="B114" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C114" s="66" t="s">
-        <v>72</v>
+        <v>99</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D114" s="18"/>
       <c r="E114" s="19"/>
       <c r="F114" s="12"/>
-      <c r="H114" s="56"/>
-      <c r="I114" s="62"/>
+      <c r="H114" s="55"/>
+      <c r="I114" s="61"/>
     </row>
     <row r="115" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="40">
+      <c r="A115" s="39">
         <v>44027</v>
       </c>
       <c r="B115" s="34" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D115" s="20" t="s">
         <v>23</v>
@@ -3921,519 +4244,519 @@
         <v>24</v>
       </c>
       <c r="F115" s="12"/>
-      <c r="H115" s="56"/>
-      <c r="I115" s="62"/>
+      <c r="H115" s="55"/>
+      <c r="I115" s="61"/>
     </row>
     <row r="116" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="40">
+      <c r="A116" s="39">
         <v>44028</v>
       </c>
       <c r="B116" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>66</v>
+        <v>99</v>
+      </c>
+      <c r="C116" s="65" t="s">
+        <v>72</v>
       </c>
       <c r="D116" s="18"/>
       <c r="E116" s="23" t="s">
         <v>24</v>
       </c>
       <c r="F116" s="12"/>
-      <c r="H116" s="56"/>
-      <c r="I116" s="62"/>
+      <c r="H116" s="55"/>
+      <c r="I116" s="61"/>
     </row>
     <row r="117" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="40">
+      <c r="A117" s="39">
         <v>44029</v>
       </c>
       <c r="B117" s="34" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="D117" s="18"/>
       <c r="E117" s="23" t="s">
         <v>24</v>
       </c>
       <c r="F117" s="12"/>
-      <c r="H117" s="56"/>
-      <c r="I117" s="62"/>
+      <c r="H117" s="55"/>
+      <c r="I117" s="61"/>
     </row>
     <row r="118" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="40">
+      <c r="A118" s="39">
         <v>44030</v>
       </c>
       <c r="B118" s="34" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D118" s="18"/>
       <c r="E118" s="19"/>
       <c r="F118" s="12"/>
-      <c r="H118" s="56"/>
-      <c r="I118" s="62"/>
+      <c r="H118" s="55"/>
+      <c r="I118" s="61"/>
     </row>
     <row r="119" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="40">
+      <c r="A119" s="39">
         <v>44031</v>
       </c>
       <c r="B119" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C119" s="66" t="s">
-        <v>72</v>
+        <v>100</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D119" s="18"/>
       <c r="E119" s="19"/>
       <c r="F119" s="12"/>
-      <c r="H119" s="56"/>
-      <c r="I119" s="62"/>
+      <c r="H119" s="55"/>
+      <c r="I119" s="61"/>
     </row>
     <row r="120" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="40">
+      <c r="A120" s="39">
         <v>44032</v>
       </c>
       <c r="B120" s="34" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D120" s="18"/>
       <c r="E120" s="19"/>
       <c r="F120" s="12"/>
-      <c r="H120" s="56"/>
-      <c r="I120" s="62"/>
+      <c r="H120" s="55"/>
+      <c r="I120" s="61"/>
     </row>
     <row r="121" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="40">
+      <c r="A121" s="39">
         <v>44033</v>
       </c>
       <c r="B121" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>66</v>
+        <v>100</v>
+      </c>
+      <c r="C121" s="65" t="s">
+        <v>72</v>
       </c>
       <c r="D121" s="18"/>
       <c r="E121" s="19"/>
       <c r="F121" s="12"/>
-      <c r="H121" s="56"/>
-      <c r="I121" s="62"/>
+      <c r="H121" s="55"/>
+      <c r="I121" s="61"/>
     </row>
     <row r="122" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="40">
+      <c r="A122" s="39">
         <v>44034</v>
       </c>
       <c r="B122" s="34" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="D122" s="18"/>
       <c r="E122" s="19"/>
       <c r="F122" s="12"/>
-      <c r="H122" s="56"/>
-      <c r="I122" s="62"/>
+      <c r="H122" s="55"/>
+      <c r="I122" s="61"/>
     </row>
     <row r="123" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="40">
+      <c r="A123" s="39">
         <v>44035</v>
       </c>
       <c r="B123" s="34" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D123" s="18"/>
       <c r="E123" s="19"/>
       <c r="F123" s="12"/>
-      <c r="H123" s="56"/>
-      <c r="I123" s="62"/>
+      <c r="H123" s="55"/>
+      <c r="I123" s="61"/>
     </row>
     <row r="124" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="40">
+      <c r="A124" s="39">
         <v>44036</v>
       </c>
       <c r="B124" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C124" s="66" t="s">
-        <v>72</v>
+        <v>101</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D124" s="18"/>
       <c r="E124" s="19"/>
       <c r="F124" s="12"/>
-      <c r="H124" s="56"/>
-      <c r="I124" s="62"/>
+      <c r="H124" s="55"/>
+      <c r="I124" s="61"/>
     </row>
     <row r="125" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="40">
+      <c r="A125" s="39">
         <v>44037</v>
       </c>
       <c r="B125" s="34" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D125" s="18"/>
       <c r="E125" s="19"/>
       <c r="F125" s="12"/>
-      <c r="H125" s="56"/>
-      <c r="I125" s="62"/>
+      <c r="H125" s="55"/>
+      <c r="I125" s="61"/>
     </row>
     <row r="126" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="40">
+      <c r="A126" s="39">
         <v>44038</v>
       </c>
       <c r="B126" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>66</v>
+        <v>101</v>
+      </c>
+      <c r="C126" s="65" t="s">
+        <v>72</v>
       </c>
       <c r="D126" s="18"/>
       <c r="E126" s="19"/>
       <c r="F126" s="12"/>
-      <c r="H126" s="56"/>
-      <c r="I126" s="62"/>
+      <c r="H126" s="55"/>
+      <c r="I126" s="61"/>
     </row>
     <row r="127" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="40">
+      <c r="A127" s="39">
         <v>44039</v>
       </c>
       <c r="B127" s="34" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="D127" s="18"/>
       <c r="E127" s="19"/>
       <c r="F127" s="12"/>
-      <c r="H127" s="56"/>
-      <c r="I127" s="62"/>
+      <c r="H127" s="55"/>
+      <c r="I127" s="61"/>
     </row>
     <row r="128" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="40">
+      <c r="A128" s="39">
         <v>44040</v>
       </c>
       <c r="B128" s="34" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D128" s="18"/>
       <c r="E128" s="19"/>
       <c r="F128" s="12"/>
-      <c r="H128" s="56"/>
-      <c r="I128" s="62"/>
+      <c r="H128" s="55"/>
+      <c r="I128" s="61"/>
     </row>
     <row r="129" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A129" s="40">
+      <c r="A129" s="39">
         <v>44041</v>
       </c>
       <c r="B129" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C129" s="66" t="s">
-        <v>72</v>
+        <v>102</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D129" s="18"/>
       <c r="E129" s="19"/>
       <c r="F129" s="12"/>
-      <c r="H129" s="56"/>
-      <c r="I129" s="62"/>
+      <c r="H129" s="55"/>
+      <c r="I129" s="61"/>
     </row>
     <row r="130" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="40">
+      <c r="A130" s="39">
         <v>44042</v>
       </c>
       <c r="B130" s="34" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D130" s="18"/>
       <c r="E130" s="19"/>
       <c r="F130" s="12"/>
-      <c r="H130" s="56"/>
-      <c r="I130" s="62"/>
+      <c r="H130" s="55"/>
+      <c r="I130" s="61"/>
     </row>
     <row r="131" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A131" s="43">
+      <c r="A131" s="42">
         <v>44043</v>
       </c>
       <c r="B131" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>66</v>
+        <v>102</v>
+      </c>
+      <c r="C131" s="65" t="s">
+        <v>72</v>
       </c>
       <c r="D131" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E131" s="54" t="s">
+      <c r="E131" s="53" t="s">
         <v>26</v>
       </c>
       <c r="F131" s="14"/>
-      <c r="H131" s="57"/>
-      <c r="I131" s="63"/>
+      <c r="H131" s="56"/>
+      <c r="I131" s="62"/>
     </row>
     <row r="132" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="42">
+      <c r="A132" s="41">
         <v>44044</v>
       </c>
       <c r="B132" s="34" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D132" s="48"/>
-      <c r="E132" s="49"/>
+        <v>83</v>
+      </c>
+      <c r="D132" s="47"/>
+      <c r="E132" s="48"/>
       <c r="F132" s="11"/>
-      <c r="H132" s="58"/>
-      <c r="I132" s="64"/>
+      <c r="H132" s="57"/>
+      <c r="I132" s="63"/>
     </row>
     <row r="133" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="40">
+      <c r="A133" s="39">
         <v>44045</v>
       </c>
       <c r="B133" s="34" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D133" s="18"/>
       <c r="E133" s="19"/>
       <c r="F133" s="12"/>
-      <c r="H133" s="56"/>
-      <c r="I133" s="62"/>
+      <c r="H133" s="55"/>
+      <c r="I133" s="61"/>
     </row>
     <row r="134" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="40">
+      <c r="A134" s="39">
         <v>44046</v>
       </c>
       <c r="B134" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C134" s="66" t="s">
-        <v>72</v>
+        <v>103</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D134" s="18"/>
       <c r="E134" s="23" t="s">
         <v>26</v>
       </c>
       <c r="F134" s="12"/>
-      <c r="H134" s="56"/>
-      <c r="I134" s="62"/>
+      <c r="H134" s="55"/>
+      <c r="I134" s="61"/>
     </row>
     <row r="135" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A135" s="40">
+      <c r="A135" s="39">
         <v>44047</v>
       </c>
       <c r="B135" s="34" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D135" s="18"/>
       <c r="E135" s="23" t="s">
         <v>26</v>
       </c>
       <c r="F135" s="12"/>
-      <c r="H135" s="56"/>
-      <c r="I135" s="62"/>
+      <c r="H135" s="55"/>
+      <c r="I135" s="61"/>
     </row>
     <row r="136" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A136" s="40">
+      <c r="A136" s="39">
         <v>44048</v>
       </c>
       <c r="B136" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>66</v>
+        <v>103</v>
+      </c>
+      <c r="C136" s="65" t="s">
+        <v>72</v>
       </c>
       <c r="D136" s="18"/>
       <c r="E136" s="19"/>
       <c r="F136" s="12"/>
-      <c r="H136" s="56"/>
-      <c r="I136" s="62"/>
+      <c r="H136" s="55"/>
+      <c r="I136" s="61"/>
     </row>
     <row r="137" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="40">
+      <c r="A137" s="39">
         <v>44049</v>
       </c>
       <c r="B137" s="34" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="D137" s="18"/>
       <c r="E137" s="19"/>
       <c r="F137" s="12"/>
-      <c r="H137" s="56"/>
-      <c r="I137" s="62"/>
+      <c r="H137" s="55"/>
+      <c r="I137" s="61"/>
     </row>
     <row r="138" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="40">
+      <c r="A138" s="39">
         <v>44050</v>
       </c>
       <c r="B138" s="34" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D138" s="18"/>
       <c r="E138" s="19"/>
       <c r="F138" s="12"/>
-      <c r="H138" s="56"/>
-      <c r="I138" s="62"/>
+      <c r="H138" s="55"/>
+      <c r="I138" s="61"/>
     </row>
     <row r="139" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="40">
+      <c r="A139" s="39">
         <v>44051</v>
       </c>
       <c r="B139" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C139" s="66" t="s">
-        <v>72</v>
+        <v>104</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D139" s="18"/>
       <c r="E139" s="19"/>
       <c r="F139" s="12"/>
-      <c r="H139" s="56"/>
-      <c r="I139" s="62"/>
+      <c r="H139" s="55"/>
+      <c r="I139" s="61"/>
     </row>
     <row r="140" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="40">
+      <c r="A140" s="39">
         <v>44052</v>
       </c>
       <c r="B140" s="34" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D140" s="18"/>
       <c r="E140" s="19"/>
       <c r="F140" s="12"/>
-      <c r="H140" s="56"/>
-      <c r="I140" s="62"/>
+      <c r="H140" s="55"/>
+      <c r="I140" s="61"/>
     </row>
     <row r="141" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="40">
+      <c r="A141" s="39">
         <v>44053</v>
       </c>
       <c r="B141" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>75</v>
+        <v>104</v>
+      </c>
+      <c r="C141" s="65" t="s">
+        <v>72</v>
       </c>
       <c r="D141" s="18"/>
       <c r="E141" s="19"/>
       <c r="F141" s="12"/>
-      <c r="H141" s="56"/>
-      <c r="I141" s="62"/>
+      <c r="H141" s="55"/>
+      <c r="I141" s="61"/>
     </row>
     <row r="142" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A142" s="40">
+      <c r="A142" s="39">
         <v>44054</v>
       </c>
       <c r="B142" s="34" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D142" s="18"/>
       <c r="E142" s="19"/>
       <c r="F142" s="12"/>
-      <c r="H142" s="56"/>
-      <c r="I142" s="62"/>
+      <c r="H142" s="55"/>
+      <c r="I142" s="61"/>
     </row>
     <row r="143" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A143" s="40">
+      <c r="A143" s="39">
         <v>44055</v>
       </c>
       <c r="B143" s="34" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D143" s="18"/>
       <c r="E143" s="19"/>
       <c r="F143" s="12"/>
-      <c r="H143" s="56"/>
-      <c r="I143" s="62"/>
+      <c r="H143" s="55"/>
+      <c r="I143" s="61"/>
     </row>
     <row r="144" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A144" s="40">
+      <c r="A144" s="39">
         <v>44056</v>
       </c>
       <c r="B144" s="34" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="D144" s="18"/>
       <c r="E144" s="19"/>
       <c r="F144" s="12"/>
-      <c r="H144" s="56"/>
-      <c r="I144" s="62"/>
+      <c r="H144" s="55"/>
+      <c r="I144" s="61"/>
     </row>
     <row r="145" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A145" s="40">
+      <c r="A145" s="39">
         <v>44057</v>
       </c>
       <c r="B145" s="34" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D145" s="18"/>
       <c r="E145" s="19"/>
       <c r="F145" s="12"/>
-      <c r="H145" s="56"/>
-      <c r="I145" s="62"/>
+      <c r="H145" s="55"/>
+      <c r="I145" s="61"/>
     </row>
     <row r="146" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A146" s="40">
+      <c r="A146" s="39">
         <v>44058</v>
       </c>
       <c r="B146" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>75</v>
+        <v>105</v>
+      </c>
+      <c r="C146" s="65" t="s">
+        <v>72</v>
       </c>
       <c r="D146" s="18"/>
       <c r="E146" s="19"/>
       <c r="F146" s="12"/>
-      <c r="H146" s="56"/>
-      <c r="I146" s="62"/>
+      <c r="H146" s="55"/>
+      <c r="I146" s="61"/>
     </row>
     <row r="147" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A147" s="40">
+      <c r="A147" s="39">
         <v>44059</v>
       </c>
       <c r="B147" s="34" t="s">
@@ -4445,11 +4768,11 @@
       <c r="D147" s="18"/>
       <c r="E147" s="19"/>
       <c r="F147" s="12"/>
-      <c r="H147" s="56"/>
-      <c r="I147" s="62"/>
+      <c r="H147" s="55"/>
+      <c r="I147" s="61"/>
     </row>
     <row r="148" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A148" s="40">
+      <c r="A148" s="39">
         <v>44060</v>
       </c>
       <c r="B148" s="34" t="s">
@@ -4465,11 +4788,11 @@
         <v>28</v>
       </c>
       <c r="F148" s="12"/>
-      <c r="H148" s="56"/>
-      <c r="I148" s="62"/>
+      <c r="H148" s="55"/>
+      <c r="I148" s="61"/>
     </row>
     <row r="149" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A149" s="40">
+      <c r="A149" s="39">
         <v>44061</v>
       </c>
       <c r="B149" s="34" t="s">
@@ -4483,11 +4806,11 @@
         <v>28</v>
       </c>
       <c r="F149" s="12"/>
-      <c r="H149" s="56"/>
-      <c r="I149" s="62"/>
+      <c r="H149" s="55"/>
+      <c r="I149" s="61"/>
     </row>
     <row r="150" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A150" s="40">
+      <c r="A150" s="39">
         <v>44062</v>
       </c>
       <c r="B150" s="34" t="s">
@@ -4501,11 +4824,11 @@
         <v>28</v>
       </c>
       <c r="F150" s="12"/>
-      <c r="H150" s="56"/>
-      <c r="I150" s="62"/>
+      <c r="H150" s="55"/>
+      <c r="I150" s="61"/>
     </row>
     <row r="151" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A151" s="40">
+      <c r="A151" s="39">
         <v>44063</v>
       </c>
       <c r="B151" s="34" t="s">
@@ -4517,11 +4840,11 @@
       <c r="D151" s="18"/>
       <c r="E151" s="19"/>
       <c r="F151" s="12"/>
-      <c r="H151" s="56"/>
-      <c r="I151" s="62"/>
+      <c r="H151" s="55"/>
+      <c r="I151" s="61"/>
     </row>
     <row r="152" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A152" s="40">
+      <c r="A152" s="39">
         <v>44064</v>
       </c>
       <c r="B152" s="34" t="s">
@@ -4533,11 +4856,11 @@
       <c r="D152" s="18"/>
       <c r="E152" s="19"/>
       <c r="F152" s="12"/>
-      <c r="H152" s="56"/>
-      <c r="I152" s="62"/>
+      <c r="H152" s="55"/>
+      <c r="I152" s="61"/>
     </row>
     <row r="153" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A153" s="40">
+      <c r="A153" s="39">
         <v>44065</v>
       </c>
       <c r="B153" s="34" t="s">
@@ -4549,11 +4872,11 @@
       <c r="D153" s="18"/>
       <c r="E153" s="19"/>
       <c r="F153" s="12"/>
-      <c r="H153" s="56"/>
-      <c r="I153" s="62"/>
+      <c r="H153" s="55"/>
+      <c r="I153" s="61"/>
     </row>
     <row r="154" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A154" s="40">
+      <c r="A154" s="39">
         <v>44066</v>
       </c>
       <c r="B154" s="34" t="s">
@@ -4565,11 +4888,11 @@
       <c r="D154" s="18"/>
       <c r="E154" s="19"/>
       <c r="F154" s="12"/>
-      <c r="H154" s="56"/>
-      <c r="I154" s="62"/>
+      <c r="H154" s="55"/>
+      <c r="I154" s="61"/>
     </row>
     <row r="155" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A155" s="40">
+      <c r="A155" s="39">
         <v>44067</v>
       </c>
       <c r="B155" s="34" t="s">
@@ -4581,11 +4904,11 @@
       <c r="D155" s="18"/>
       <c r="E155" s="19"/>
       <c r="F155" s="12"/>
-      <c r="H155" s="56"/>
-      <c r="I155" s="62"/>
+      <c r="H155" s="55"/>
+      <c r="I155" s="61"/>
     </row>
     <row r="156" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A156" s="40">
+      <c r="A156" s="39">
         <v>44068</v>
       </c>
       <c r="B156" s="34" t="s">
@@ -4597,11 +4920,11 @@
       <c r="D156" s="18"/>
       <c r="E156" s="19"/>
       <c r="F156" s="12"/>
-      <c r="H156" s="56"/>
-      <c r="I156" s="62"/>
+      <c r="H156" s="55"/>
+      <c r="I156" s="61"/>
     </row>
     <row r="157" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A157" s="40">
+      <c r="A157" s="39">
         <v>44069</v>
       </c>
       <c r="B157" s="34" t="s">
@@ -4613,11 +4936,11 @@
       <c r="D157" s="18"/>
       <c r="E157" s="19"/>
       <c r="F157" s="12"/>
-      <c r="H157" s="56"/>
-      <c r="I157" s="62"/>
+      <c r="H157" s="55"/>
+      <c r="I157" s="61"/>
     </row>
     <row r="158" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A158" s="40">
+      <c r="A158" s="39">
         <v>44070</v>
       </c>
       <c r="B158" s="34" t="s">
@@ -4629,11 +4952,11 @@
       <c r="D158" s="18"/>
       <c r="E158" s="19"/>
       <c r="F158" s="12"/>
-      <c r="H158" s="56"/>
-      <c r="I158" s="62"/>
+      <c r="H158" s="55"/>
+      <c r="I158" s="61"/>
     </row>
     <row r="159" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A159" s="40">
+      <c r="A159" s="39">
         <v>44071</v>
       </c>
       <c r="B159" s="34" t="s">
@@ -4645,11 +4968,11 @@
       <c r="D159" s="18"/>
       <c r="E159" s="19"/>
       <c r="F159" s="12"/>
-      <c r="H159" s="56"/>
-      <c r="I159" s="62"/>
+      <c r="H159" s="55"/>
+      <c r="I159" s="61"/>
     </row>
     <row r="160" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A160" s="40">
+      <c r="A160" s="39">
         <v>44072</v>
       </c>
       <c r="B160" s="34" t="s">
@@ -4661,11 +4984,11 @@
       <c r="D160" s="18"/>
       <c r="E160" s="19"/>
       <c r="F160" s="12"/>
-      <c r="H160" s="56"/>
-      <c r="I160" s="62"/>
+      <c r="H160" s="55"/>
+      <c r="I160" s="61"/>
     </row>
     <row r="161" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A161" s="40">
+      <c r="A161" s="39">
         <v>44073</v>
       </c>
       <c r="B161" s="34" t="s">
@@ -4677,11 +5000,11 @@
       <c r="D161" s="18"/>
       <c r="E161" s="19"/>
       <c r="F161" s="12"/>
-      <c r="H161" s="56"/>
-      <c r="I161" s="62"/>
+      <c r="H161" s="55"/>
+      <c r="I161" s="61"/>
     </row>
     <row r="162" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A162" s="43">
+      <c r="A162" s="42">
         <v>44074</v>
       </c>
       <c r="B162" s="34" t="s">
@@ -4693,15 +5016,15 @@
       <c r="D162" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E162" s="54" t="s">
+      <c r="E162" s="53" t="s">
         <v>30</v>
       </c>
       <c r="F162" s="14"/>
-      <c r="H162" s="57"/>
-      <c r="I162" s="63"/>
+      <c r="H162" s="56"/>
+      <c r="I162" s="62"/>
     </row>
     <row r="163" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A163" s="39">
+      <c r="A163" s="38">
         <v>44075</v>
       </c>
       <c r="B163" s="34" t="s">
@@ -4711,15 +5034,15 @@
         <v>75</v>
       </c>
       <c r="D163" s="26"/>
-      <c r="E163" s="46" t="s">
+      <c r="E163" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="F163" s="47"/>
-      <c r="H163" s="59"/>
-      <c r="I163" s="65"/>
+      <c r="F163" s="46"/>
+      <c r="H163" s="58"/>
+      <c r="I163" s="64"/>
     </row>
     <row r="164" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A164" s="40">
+      <c r="A164" s="39">
         <v>44076</v>
       </c>
       <c r="B164" s="34" t="s">
@@ -4733,11 +5056,11 @@
         <v>30</v>
       </c>
       <c r="F164" s="12"/>
-      <c r="H164" s="56"/>
-      <c r="I164" s="62"/>
+      <c r="H164" s="55"/>
+      <c r="I164" s="61"/>
     </row>
     <row r="165" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A165" s="40">
+      <c r="A165" s="39">
         <v>44077</v>
       </c>
       <c r="B165" s="34" t="s">
@@ -4749,11 +5072,11 @@
       <c r="D165" s="18"/>
       <c r="E165" s="19"/>
       <c r="F165" s="12"/>
-      <c r="H165" s="56"/>
-      <c r="I165" s="62"/>
+      <c r="H165" s="55"/>
+      <c r="I165" s="61"/>
     </row>
     <row r="166" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A166" s="40">
+      <c r="A166" s="39">
         <v>44078</v>
       </c>
       <c r="B166" s="34" t="s">
@@ -4765,11 +5088,11 @@
       <c r="D166" s="18"/>
       <c r="E166" s="19"/>
       <c r="F166" s="12"/>
-      <c r="H166" s="56"/>
-      <c r="I166" s="62"/>
+      <c r="H166" s="55"/>
+      <c r="I166" s="61"/>
     </row>
     <row r="167" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A167" s="40">
+      <c r="A167" s="39">
         <v>44079</v>
       </c>
       <c r="B167" s="34" t="s">
@@ -4781,11 +5104,11 @@
       <c r="D167" s="18"/>
       <c r="E167" s="19"/>
       <c r="F167" s="12"/>
-      <c r="H167" s="56"/>
-      <c r="I167" s="62"/>
+      <c r="H167" s="55"/>
+      <c r="I167" s="61"/>
     </row>
     <row r="168" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A168" s="40">
+      <c r="A168" s="39">
         <v>44080</v>
       </c>
       <c r="B168" s="34" t="s">
@@ -4797,11 +5120,11 @@
       <c r="D168" s="18"/>
       <c r="E168" s="19"/>
       <c r="F168" s="12"/>
-      <c r="H168" s="56"/>
-      <c r="I168" s="62"/>
+      <c r="H168" s="55"/>
+      <c r="I168" s="61"/>
     </row>
     <row r="169" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A169" s="40">
+      <c r="A169" s="39">
         <v>44081</v>
       </c>
       <c r="B169" s="34" t="s">
@@ -4813,11 +5136,11 @@
       <c r="D169" s="18"/>
       <c r="E169" s="19"/>
       <c r="F169" s="12"/>
-      <c r="H169" s="56"/>
-      <c r="I169" s="62"/>
+      <c r="H169" s="55"/>
+      <c r="I169" s="61"/>
     </row>
     <row r="170" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A170" s="40">
+      <c r="A170" s="39">
         <v>44082</v>
       </c>
       <c r="B170" s="34" t="s">
@@ -4829,11 +5152,11 @@
       <c r="D170" s="18"/>
       <c r="E170" s="19"/>
       <c r="F170" s="12"/>
-      <c r="H170" s="56"/>
-      <c r="I170" s="62"/>
+      <c r="H170" s="55"/>
+      <c r="I170" s="61"/>
     </row>
     <row r="171" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A171" s="40">
+      <c r="A171" s="39">
         <v>44083</v>
       </c>
       <c r="B171" s="34" t="s">
@@ -4845,11 +5168,11 @@
       <c r="D171" s="18"/>
       <c r="E171" s="19"/>
       <c r="F171" s="12"/>
-      <c r="H171" s="56"/>
-      <c r="I171" s="62"/>
+      <c r="H171" s="55"/>
+      <c r="I171" s="61"/>
     </row>
     <row r="172" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A172" s="40">
+      <c r="A172" s="39">
         <v>44084</v>
       </c>
       <c r="B172" s="34" t="s">
@@ -4861,11 +5184,11 @@
       <c r="D172" s="18"/>
       <c r="E172" s="19"/>
       <c r="F172" s="12"/>
-      <c r="H172" s="56"/>
-      <c r="I172" s="62"/>
+      <c r="H172" s="55"/>
+      <c r="I172" s="61"/>
     </row>
     <row r="173" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A173" s="40">
+      <c r="A173" s="39">
         <v>44085</v>
       </c>
       <c r="B173" s="34" t="s">
@@ -4877,11 +5200,11 @@
       <c r="D173" s="18"/>
       <c r="E173" s="19"/>
       <c r="F173" s="12"/>
-      <c r="H173" s="56"/>
-      <c r="I173" s="62"/>
+      <c r="H173" s="55"/>
+      <c r="I173" s="61"/>
     </row>
     <row r="174" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A174" s="40">
+      <c r="A174" s="39">
         <v>44086</v>
       </c>
       <c r="B174" s="34" t="s">
@@ -4893,11 +5216,11 @@
       <c r="D174" s="18"/>
       <c r="E174" s="19"/>
       <c r="F174" s="12"/>
-      <c r="H174" s="56"/>
-      <c r="I174" s="62"/>
+      <c r="H174" s="55"/>
+      <c r="I174" s="61"/>
     </row>
     <row r="175" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A175" s="40">
+      <c r="A175" s="39">
         <v>44087</v>
       </c>
       <c r="B175" s="34" t="s">
@@ -4909,15 +5232,19 @@
       <c r="D175" s="18"/>
       <c r="E175" s="19"/>
       <c r="F175" s="12"/>
-      <c r="H175" s="56"/>
-      <c r="I175" s="62"/>
+      <c r="H175" s="55"/>
+      <c r="I175" s="61"/>
     </row>
     <row r="176" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A176" s="40">
+      <c r="A176" s="39">
         <v>44088</v>
       </c>
-      <c r="B176" s="34"/>
-      <c r="C176" s="3"/>
+      <c r="B176" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C176" s="34" t="s">
+        <v>106</v>
+      </c>
       <c r="D176" s="20" t="s">
         <v>31</v>
       </c>
@@ -4927,15 +5254,19 @@
       <c r="F176" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H176" s="56"/>
-      <c r="I176" s="62"/>
+      <c r="H176" s="55"/>
+      <c r="I176" s="61"/>
     </row>
     <row r="177" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A177" s="40">
+      <c r="A177" s="39">
         <v>44089</v>
       </c>
-      <c r="B177" s="34"/>
-      <c r="C177" s="3"/>
+      <c r="B177" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C177" s="34" t="s">
+        <v>106</v>
+      </c>
       <c r="D177" s="18"/>
       <c r="E177" s="23" t="s">
         <v>32</v>
@@ -4943,15 +5274,19 @@
       <c r="F177" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H177" s="56"/>
-      <c r="I177" s="62"/>
+      <c r="H177" s="55"/>
+      <c r="I177" s="61"/>
     </row>
     <row r="178" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A178" s="40">
+      <c r="A178" s="39">
         <v>44090</v>
       </c>
-      <c r="B178" s="34"/>
-      <c r="C178" s="3"/>
+      <c r="B178" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C178" s="34" t="s">
+        <v>106</v>
+      </c>
       <c r="D178" s="18"/>
       <c r="E178" s="23" t="s">
         <v>32</v>
@@ -4959,71 +5294,91 @@
       <c r="F178" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H178" s="56"/>
-      <c r="I178" s="62"/>
+      <c r="H178" s="55"/>
+      <c r="I178" s="61"/>
     </row>
     <row r="179" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A179" s="40">
+      <c r="A179" s="39">
         <v>44091</v>
       </c>
-      <c r="B179" s="34"/>
-      <c r="C179" s="3"/>
+      <c r="B179" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C179" s="34" t="s">
+        <v>106</v>
+      </c>
       <c r="D179" s="18"/>
       <c r="E179" s="19"/>
       <c r="F179" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H179" s="56"/>
-      <c r="I179" s="62"/>
+      <c r="H179" s="55"/>
+      <c r="I179" s="61"/>
     </row>
     <row r="180" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A180" s="40">
+      <c r="A180" s="39">
         <v>44092</v>
       </c>
-      <c r="B180" s="34"/>
-      <c r="C180" s="3"/>
+      <c r="B180" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C180" s="34" t="s">
+        <v>106</v>
+      </c>
       <c r="D180" s="18"/>
       <c r="E180" s="19"/>
       <c r="F180" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H180" s="56"/>
-      <c r="I180" s="62"/>
+      <c r="H180" s="55"/>
+      <c r="I180" s="61"/>
     </row>
     <row r="181" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A181" s="40">
+      <c r="A181" s="39">
         <v>44093</v>
       </c>
-      <c r="B181" s="34"/>
-      <c r="C181" s="3"/>
+      <c r="B181" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C181" s="34" t="s">
+        <v>106</v>
+      </c>
       <c r="D181" s="18"/>
       <c r="E181" s="19"/>
       <c r="F181" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H181" s="56"/>
-      <c r="I181" s="62"/>
+      <c r="H181" s="55"/>
+      <c r="I181" s="61"/>
     </row>
     <row r="182" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A182" s="40">
+      <c r="A182" s="39">
         <v>44094</v>
       </c>
-      <c r="B182" s="34"/>
-      <c r="C182" s="3"/>
+      <c r="B182" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C182" s="34" t="s">
+        <v>106</v>
+      </c>
       <c r="D182" s="18"/>
       <c r="E182" s="19"/>
       <c r="F182" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H182" s="56"/>
-      <c r="I182" s="62"/>
+      <c r="H182" s="55"/>
+      <c r="I182" s="61"/>
     </row>
     <row r="183" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A183" s="40">
+      <c r="A183" s="39">
         <v>44095</v>
       </c>
-      <c r="B183" s="34"/>
-      <c r="C183" s="3"/>
+      <c r="B183" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C183" s="34" t="s">
+        <v>106</v>
+      </c>
       <c r="D183" s="22" t="s">
         <v>34</v>
       </c>
@@ -5031,15 +5386,19 @@
       <c r="F183" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H183" s="56"/>
-      <c r="I183" s="62"/>
+      <c r="H183" s="55"/>
+      <c r="I183" s="61"/>
     </row>
     <row r="184" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A184" s="40">
+      <c r="A184" s="39">
         <v>44096</v>
       </c>
-      <c r="B184" s="34"/>
-      <c r="C184" s="3"/>
+      <c r="B184" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C184" s="34" t="s">
+        <v>106</v>
+      </c>
       <c r="D184" s="22" t="s">
         <v>34</v>
       </c>
@@ -5047,15 +5406,19 @@
       <c r="F184" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H184" s="56"/>
-      <c r="I184" s="62"/>
+      <c r="H184" s="55"/>
+      <c r="I184" s="61"/>
     </row>
     <row r="185" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A185" s="40">
+      <c r="A185" s="39">
         <v>44097</v>
       </c>
-      <c r="B185" s="34"/>
-      <c r="C185" s="3"/>
+      <c r="B185" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C185" s="34" t="s">
+        <v>106</v>
+      </c>
       <c r="D185" s="22" t="s">
         <v>34</v>
       </c>
@@ -5063,15 +5426,19 @@
       <c r="F185" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H185" s="56"/>
-      <c r="I185" s="62"/>
+      <c r="H185" s="55"/>
+      <c r="I185" s="61"/>
     </row>
     <row r="186" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A186" s="40">
+      <c r="A186" s="39">
         <v>44098</v>
       </c>
-      <c r="B186" s="34"/>
-      <c r="C186" s="3"/>
+      <c r="B186" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C186" s="34" t="s">
+        <v>106</v>
+      </c>
       <c r="D186" s="22" t="s">
         <v>34</v>
       </c>
@@ -5079,15 +5446,19 @@
       <c r="F186" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H186" s="56"/>
-      <c r="I186" s="62"/>
+      <c r="H186" s="55"/>
+      <c r="I186" s="61"/>
     </row>
     <row r="187" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A187" s="43">
+      <c r="A187" s="42">
         <v>44099</v>
       </c>
-      <c r="B187" s="37"/>
-      <c r="C187" s="13"/>
+      <c r="B187" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C187" s="34" t="s">
+        <v>106</v>
+      </c>
       <c r="D187" s="24" t="s">
         <v>35</v>
       </c>
@@ -5095,8 +5466,8 @@
       <c r="F187" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="H187" s="57"/>
-      <c r="I187" s="63"/>
+      <c r="H187" s="56"/>
+      <c r="I187" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54BD057-1ED9-46FB-A25A-9FEDBCF2824D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96E53CC-0D10-4BA7-A723-34A637520BDA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="108">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1368,6 +1368,19 @@
     </rPh>
     <rPh sb="22" eb="24">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択肢クラス作成開始。</t>
+    <rPh sb="0" eb="3">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2266,6 +2279,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2286,12 +2305,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2576,8 +2589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2594,38 +2607,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="16"/>
@@ -2636,32 +2649,32 @@
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
       <c r="D5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="69"/>
+      <c r="F5" s="71"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
       <c r="D6" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="71"/>
+      <c r="F6" s="73"/>
     </row>
     <row r="8" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
@@ -3348,8 +3361,12 @@
       <c r="D61" s="18"/>
       <c r="E61" s="19"/>
       <c r="F61" s="12"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="61"/>
+      <c r="H61" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="I61" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="39">
@@ -3371,10 +3388,10 @@
       <c r="A63" s="39">
         <v>43975</v>
       </c>
-      <c r="B63" s="75" t="s">
+      <c r="B63" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="C63" s="74" t="s">
+      <c r="C63" s="67" t="s">
         <v>91</v>
       </c>
       <c r="D63" s="18"/>
@@ -3387,10 +3404,10 @@
       <c r="A64" s="39">
         <v>43976</v>
       </c>
-      <c r="B64" s="75" t="s">
+      <c r="B64" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="74" t="s">
+      <c r="C64" s="67" t="s">
         <v>91</v>
       </c>
       <c r="D64" s="18"/>
@@ -3403,10 +3420,10 @@
       <c r="A65" s="39">
         <v>43977</v>
       </c>
-      <c r="B65" s="75" t="s">
+      <c r="B65" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="C65" s="74" t="s">
+      <c r="C65" s="67" t="s">
         <v>92</v>
       </c>
       <c r="D65" s="20"/>
@@ -3419,10 +3436,10 @@
       <c r="A66" s="39">
         <v>43978</v>
       </c>
-      <c r="B66" s="75" t="s">
+      <c r="B66" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="C66" s="74" t="s">
+      <c r="C66" s="67" t="s">
         <v>92</v>
       </c>
       <c r="D66" s="22"/>
@@ -3435,10 +3452,10 @@
       <c r="A67" s="39">
         <v>43979</v>
       </c>
-      <c r="B67" s="75" t="s">
+      <c r="B67" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="C67" s="74" t="s">
+      <c r="C67" s="67" t="s">
         <v>92</v>
       </c>
       <c r="D67" s="22"/>
@@ -3823,7 +3840,7 @@
       <c r="A90" s="39">
         <v>44002</v>
       </c>
-      <c r="B90" s="75" t="s">
+      <c r="B90" s="68" t="s">
         <v>94</v>
       </c>
       <c r="C90" s="65" t="s">
@@ -3839,7 +3856,7 @@
       <c r="A91" s="39">
         <v>44003</v>
       </c>
-      <c r="B91" s="75" t="s">
+      <c r="B91" s="68" t="s">
         <v>94</v>
       </c>
       <c r="C91" s="65" t="s">
@@ -5495,23 +5512,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -5637,10 +5637,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5656,19 +5683,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96E53CC-0D10-4BA7-A723-34A637520BDA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBA1562-9CC6-41EB-81B5-1C5931ACEC2B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="111">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1381,6 +1381,54 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダミー背景追加、描画。</t>
+    <rPh sb="3" eb="5">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度選択用SELECTクラス作成開始。</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度選択用SELECTクラス作成。</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2589,8 +2637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3381,8 +3429,12 @@
       <c r="D62" s="18"/>
       <c r="E62" s="19"/>
       <c r="F62" s="12"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="61"/>
+      <c r="H62" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="I62" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="39">
@@ -3397,8 +3449,12 @@
       <c r="D63" s="18"/>
       <c r="E63" s="19"/>
       <c r="F63" s="12"/>
-      <c r="H63" s="55"/>
-      <c r="I63" s="61"/>
+      <c r="H63" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="I63" s="61">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="64" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="39">
@@ -3413,8 +3469,12 @@
       <c r="D64" s="18"/>
       <c r="E64" s="19"/>
       <c r="F64" s="12"/>
-      <c r="H64" s="55"/>
-      <c r="I64" s="61"/>
+      <c r="H64" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="I64" s="61">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="65" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="39">
@@ -3429,8 +3489,12 @@
       <c r="D65" s="20"/>
       <c r="E65" s="21"/>
       <c r="F65" s="12"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="61"/>
+      <c r="H65" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="I65" s="61">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="66" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="39">
@@ -5512,6 +5576,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -5637,24 +5718,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5670,22 +5752,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBA1562-9CC6-41EB-81B5-1C5931ACEC2B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB60A5B-31CF-4761-B98D-8A19A751DC8F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="112">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1428,6 +1428,31 @@
       <t>ヨウ</t>
     </rPh>
     <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度選択用SELECTクラス作成。ステージ選択処理作成。</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
       <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2637,8 +2662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3509,8 +3534,12 @@
       <c r="D66" s="22"/>
       <c r="E66" s="23"/>
       <c r="F66" s="12"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="61"/>
+      <c r="H66" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="I66" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="39">
@@ -5576,23 +5605,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -5718,10 +5730,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5737,19 +5776,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB60A5B-31CF-4761-B98D-8A19A751DC8F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240C4DDC-0461-44F2-B1BB-77FDDDED7E67}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="112">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -2663,7 +2663,7 @@
   <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3554,8 +3554,12 @@
       <c r="D67" s="22"/>
       <c r="E67" s="23"/>
       <c r="F67" s="12"/>
-      <c r="H67" s="55"/>
-      <c r="I67" s="61"/>
+      <c r="H67" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="I67" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="39">
@@ -5605,6 +5609,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -5730,24 +5751,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5763,22 +5785,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240C4DDC-0461-44F2-B1BB-77FDDDED7E67}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EFE251-D12A-4DAB-9BD6-8659B2A30C58}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="113">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1453,6 +1453,19 @@
       <t>ショリ</t>
     </rPh>
     <rPh sb="26" eb="28">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景描画、キャラクター、プレイヤークラス作成。</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
       <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2663,7 +2676,7 @@
   <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3576,8 +3589,12 @@
       </c>
       <c r="E68" s="23"/>
       <c r="F68" s="12"/>
-      <c r="H68" s="55"/>
-      <c r="I68" s="61"/>
+      <c r="H68" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="I68" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="39">
@@ -5609,23 +5626,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -5751,10 +5751,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5770,19 +5797,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EFE251-D12A-4DAB-9BD6-8659B2A30C58}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF55317-0862-44BD-9D1B-2A4F61EF30EE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="113">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -2676,7 +2676,7 @@
   <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3609,8 +3609,12 @@
       <c r="D69" s="18"/>
       <c r="E69" s="19"/>
       <c r="F69" s="12"/>
-      <c r="H69" s="55"/>
-      <c r="I69" s="61"/>
+      <c r="H69" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="I69" s="61">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="70" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="42">
@@ -3625,8 +3629,12 @@
       <c r="D70" s="49"/>
       <c r="E70" s="50"/>
       <c r="F70" s="14"/>
-      <c r="H70" s="56"/>
-      <c r="I70" s="62"/>
+      <c r="H70" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="I70" s="62">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="41">
@@ -3643,8 +3651,12 @@
         <v>18</v>
       </c>
       <c r="F71" s="11"/>
-      <c r="H71" s="57"/>
-      <c r="I71" s="63"/>
+      <c r="H71" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="I71" s="63">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="39">
@@ -5626,6 +5638,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -5751,24 +5780,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5784,22 +5814,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF55317-0862-44BD-9D1B-2A4F61EF30EE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9108C24-7BDE-470D-98F6-3EE55099A998}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="114">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1466,6 +1466,22 @@
       <t>ビョウガ</t>
     </rPh>
     <rPh sb="20" eb="22">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題関係の基となるクラスの作成。</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
       <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2676,7 +2692,7 @@
   <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3673,8 +3689,12 @@
         <v>18</v>
       </c>
       <c r="F72" s="12"/>
-      <c r="H72" s="55"/>
-      <c r="I72" s="61"/>
+      <c r="H72" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="I72" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="39">
@@ -5638,23 +5658,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -5780,10 +5783,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5799,19 +5829,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9108C24-7BDE-470D-98F6-3EE55099A998}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3255FC3E-69CF-4F6D-A4E6-15365DAC23CD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="115">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1483,6 +1483,19 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キー入力処理追加。</t>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2692,7 +2705,7 @@
   <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3711,8 +3724,12 @@
         <v>18</v>
       </c>
       <c r="F73" s="12"/>
-      <c r="H73" s="55"/>
-      <c r="I73" s="61"/>
+      <c r="H73" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="I73" s="61">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="74" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="39">
@@ -5658,6 +5675,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -5783,24 +5817,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5816,22 +5851,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3255FC3E-69CF-4F6D-A4E6-15365DAC23CD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A838744-676B-41E6-99AB-51EA8901ABD9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="115">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -2705,7 +2705,7 @@
   <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3746,8 +3746,12 @@
         <v>18</v>
       </c>
       <c r="F74" s="12"/>
-      <c r="H74" s="55"/>
-      <c r="I74" s="61"/>
+      <c r="H74" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="I74" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="39">
@@ -5675,23 +5679,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -5817,10 +5804,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5836,19 +5850,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A838744-676B-41E6-99AB-51EA8901ABD9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF93E07-B1DB-4A8C-B53E-5CAC90E001FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="116">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1496,6 +1496,25 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォント追加、問題描画処理修正。</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2705,7 +2724,7 @@
   <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3768,8 +3787,12 @@
         <v>18</v>
       </c>
       <c r="F75" s="12"/>
-      <c r="H75" s="55"/>
-      <c r="I75" s="61"/>
+      <c r="H75" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="I75" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="39">
@@ -5679,6 +5702,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -5804,24 +5844,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5837,22 +5878,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF93E07-B1DB-4A8C-B53E-5CAC90E001FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877D527D-4869-48CB-A09B-8008548A9C80}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="117">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1515,6 +1515,25 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制限時間処理作成、描画。</t>
+    <rPh sb="0" eb="2">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ビョウガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2723,8 +2742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3807,8 +3826,12 @@
       <c r="D76" s="18"/>
       <c r="E76" s="19"/>
       <c r="F76" s="12"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="61"/>
+      <c r="H76" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="I76" s="61">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="77" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="39">
@@ -3823,8 +3846,12 @@
       <c r="D77" s="18"/>
       <c r="E77" s="19"/>
       <c r="F77" s="12"/>
-      <c r="H77" s="55"/>
-      <c r="I77" s="61"/>
+      <c r="H77" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="I77" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="39">
@@ -5702,23 +5729,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -5844,10 +5854,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5863,19 +5900,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877D527D-4869-48CB-A09B-8008548A9C80}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328C4B40-C462-4F56-90B5-6806C5B78CA6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="117">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -2743,7 +2743,7 @@
   <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3866,8 +3866,12 @@
       <c r="D78" s="18"/>
       <c r="E78" s="19"/>
       <c r="F78" s="12"/>
-      <c r="H78" s="55"/>
-      <c r="I78" s="61"/>
+      <c r="H78" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="I78" s="61">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="79" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="39">
@@ -5729,6 +5733,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -5854,24 +5875,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5887,22 +5909,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328C4B40-C462-4F56-90B5-6806C5B78CA6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBB35FF-9DF7-43FF-A250-8384B8455E2A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="118">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1534,6 +1534,25 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃エフェクト追加、問題クラス修正、キャラクラス修正。</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2742,8 +2761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3886,8 +3905,12 @@
       <c r="D79" s="18"/>
       <c r="E79" s="19"/>
       <c r="F79" s="12"/>
-      <c r="H79" s="55"/>
-      <c r="I79" s="61"/>
+      <c r="H79" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="I79" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="39">
@@ -5733,23 +5756,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -5875,10 +5881,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5894,19 +5927,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBB35FF-9DF7-43FF-A250-8384B8455E2A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20422645-E5F4-47B0-B474-8869D318F6BC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="119">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1553,6 +1553,19 @@
     </rPh>
     <rPh sb="24" eb="26">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音楽クラス作成、BGM、SE追加。</t>
+    <rPh sb="0" eb="2">
+      <t>オンガク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2762,7 +2775,7 @@
   <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3925,8 +3938,12 @@
       <c r="D80" s="18"/>
       <c r="E80" s="19"/>
       <c r="F80" s="12"/>
-      <c r="H80" s="55"/>
-      <c r="I80" s="61"/>
+      <c r="H80" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="I80" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="39">
@@ -5756,6 +5773,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -5881,24 +5915,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5914,22 +5949,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20422645-E5F4-47B0-B474-8869D318F6BC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7F5A01-E8F9-47B7-A333-0F9085796EF9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="120">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1566,6 +1566,25 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵キャラ追加、キャラクラス修正、HP描画修正。</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2775,7 +2794,7 @@
   <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81"/>
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3958,8 +3977,12 @@
       <c r="D81" s="18"/>
       <c r="E81" s="19"/>
       <c r="F81" s="12"/>
-      <c r="H81" s="55"/>
-      <c r="I81" s="61"/>
+      <c r="H81" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="I81" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="82" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="39">
@@ -5773,23 +5796,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -5915,10 +5921,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5934,19 +5967,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7F5A01-E8F9-47B7-A333-0F9085796EF9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942670D8-7DA2-4D6C-9AD3-E5312447E1D7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="121">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1585,6 +1585,25 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア保存、ファイル読み書き、ソート、ランキング処理作成。</t>
+    <rPh sb="3" eb="5">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2794,7 +2813,7 @@
   <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3997,8 +4016,12 @@
       <c r="D82" s="18"/>
       <c r="E82" s="19"/>
       <c r="F82" s="12"/>
-      <c r="H82" s="55"/>
-      <c r="I82" s="61"/>
+      <c r="H82" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="I82" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="39">
@@ -5796,6 +5819,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -5921,24 +5961,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5954,22 +5995,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942670D8-7DA2-4D6C-9AD3-E5312447E1D7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1971AEB-07BF-4211-BD44-37EB8742D65F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="122">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1604,6 +1604,13 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休み。</t>
+    <rPh sb="0" eb="1">
+      <t>ヤス</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2813,7 +2820,7 @@
   <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H83" sqref="H83"/>
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4036,8 +4043,12 @@
       <c r="D83" s="18"/>
       <c r="E83" s="19"/>
       <c r="F83" s="12"/>
-      <c r="H83" s="55"/>
-      <c r="I83" s="61"/>
+      <c r="H83" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="I83" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="39">
@@ -4052,8 +4063,12 @@
       <c r="D84" s="18"/>
       <c r="E84" s="19"/>
       <c r="F84" s="12"/>
-      <c r="H84" s="55"/>
-      <c r="I84" s="61"/>
+      <c r="H84" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="I84" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="39">
@@ -4072,8 +4087,12 @@
         <v>20</v>
       </c>
       <c r="F85" s="12"/>
-      <c r="H85" s="55"/>
-      <c r="I85" s="61"/>
+      <c r="H85" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="I85" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="39">

--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1971AEB-07BF-4211-BD44-37EB8742D65F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FCCC5E-5A81-450F-9790-617A87945725}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="123">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1611,6 +1611,13 @@
     <t>休み。</t>
     <rPh sb="0" eb="1">
       <t>ヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォントクラス修正。</t>
+    <rPh sb="7" eb="9">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2819,8 +2826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H86" sqref="H86"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4109,8 +4116,12 @@
         <v>20</v>
       </c>
       <c r="F86" s="12"/>
-      <c r="H86" s="55"/>
-      <c r="I86" s="61"/>
+      <c r="H86" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="I86" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="39">

--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FCCC5E-5A81-450F-9790-617A87945725}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C4477F-2A48-45A7-94CC-7E63697E9B72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="124">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1618,6 +1618,34 @@
     <t>フォントクラス修正。</t>
     <rPh sb="7" eb="9">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス名修正、背景画像追加、選択肢画像変更。</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2826,8 +2854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H87" sqref="H87"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4138,8 +4166,12 @@
         <v>20</v>
       </c>
       <c r="F87" s="12"/>
-      <c r="H87" s="55"/>
-      <c r="I87" s="61"/>
+      <c r="H87" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="I87" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="39">
@@ -5849,23 +5881,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -5991,10 +6006,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6010,19 +6052,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C4477F-2A48-45A7-94CC-7E63697E9B72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306D5C85-845D-4CC1-A2B7-F5A7160429CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="125">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1645,6 +1645,22 @@
       <t>ガゾウ</t>
     </rPh>
     <rPh sb="19" eb="21">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択肢クラス修正、エンド画面変更。</t>
+    <rPh sb="0" eb="3">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
       <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2855,7 +2871,7 @@
   <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I87" sqref="I87"/>
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4186,8 +4202,12 @@
       <c r="D88" s="18"/>
       <c r="E88" s="19"/>
       <c r="F88" s="12"/>
-      <c r="H88" s="55"/>
-      <c r="I88" s="61"/>
+      <c r="H88" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="I88" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="39">
@@ -5881,6 +5901,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -6006,24 +6043,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6039,22 +6077,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306D5C85-845D-4CC1-A2B7-F5A7160429CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8115BBF-C2C3-4163-8B9A-93652112E5A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="126">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1662,6 +1662,16 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイ画面BGM追加。</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2871,7 +2881,7 @@
   <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+      <selection activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4222,8 +4232,12 @@
       <c r="D89" s="18"/>
       <c r="E89" s="19"/>
       <c r="F89" s="12"/>
-      <c r="H89" s="55"/>
-      <c r="I89" s="61"/>
+      <c r="H89" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="I89" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="39">

--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8115BBF-C2C3-4163-8B9A-93652112E5A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC7E139-555C-4A5D-880A-C870DD025594}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="127">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1672,6 +1672,22 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題作成処理修正。</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2881,7 +2897,7 @@
   <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H90" sqref="H90"/>
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4252,8 +4268,12 @@
       <c r="D90" s="18"/>
       <c r="E90" s="19"/>
       <c r="F90" s="12"/>
-      <c r="H90" s="55"/>
-      <c r="I90" s="61"/>
+      <c r="H90" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="I90" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="39">
@@ -4268,8 +4288,12 @@
       <c r="D91" s="18"/>
       <c r="E91" s="19"/>
       <c r="F91" s="12"/>
-      <c r="H91" s="55"/>
-      <c r="I91" s="61"/>
+      <c r="H91" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="I91" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="39">
@@ -4284,8 +4308,12 @@
       <c r="D92" s="18"/>
       <c r="E92" s="19"/>
       <c r="F92" s="12"/>
-      <c r="H92" s="55"/>
-      <c r="I92" s="61"/>
+      <c r="H92" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I92" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="39">
@@ -5915,23 +5943,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -6057,10 +6068,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6076,19 +6114,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC7E139-555C-4A5D-880A-C870DD025594}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BE7A4C-3968-4798-8230-5B1B5235463E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="128">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1688,6 +1688,25 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア処理修正、ゲームモード（引き算）追加。</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2896,8 +2915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I89" sqref="I89"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4328,8 +4347,12 @@
       <c r="D93" s="18"/>
       <c r="E93" s="19"/>
       <c r="F93" s="12"/>
-      <c r="H93" s="55"/>
-      <c r="I93" s="61"/>
+      <c r="H93" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="I93" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="39">
@@ -5943,6 +5966,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -6068,24 +6108,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6101,22 +6142,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BE7A4C-3968-4798-8230-5B1B5235463E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2F7002-9AC6-481F-B2D8-5A303180B854}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="129">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1707,6 +1707,13 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス修正。</t>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2915,8 +2922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H94" sqref="H94"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4367,8 +4374,12 @@
       <c r="D94" s="18"/>
       <c r="E94" s="19"/>
       <c r="F94" s="12"/>
-      <c r="H94" s="55"/>
-      <c r="I94" s="61"/>
+      <c r="H94" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="I94" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="39">
@@ -5966,23 +5977,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -6108,10 +6102,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6127,19 +6148,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2F7002-9AC6-481F-B2D8-5A303180B854}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6943752-7DBF-4F3F-9977-B312F92A3CCD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="130">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1714,6 +1714,19 @@
     <t>クラス修正。</t>
     <rPh sb="3" eb="5">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掛け算モード追加。</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2922,8 +2935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4394,8 +4407,12 @@
       <c r="D95" s="18"/>
       <c r="E95" s="19"/>
       <c r="F95" s="12"/>
-      <c r="H95" s="55"/>
-      <c r="I95" s="61"/>
+      <c r="H95" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="I95" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="39">
@@ -5977,6 +5994,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -6102,24 +6136,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6135,22 +6170,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6943752-7DBF-4F3F-9977-B312F92A3CCD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F273083B-5C2A-4A53-8DE6-FECE90FECC51}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1718,7 +1718,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>掛け算モード追加。</t>
+    <t>掛け算モード追加、スコア、問題クラス修正。</t>
     <rPh sb="0" eb="1">
       <t>カ</t>
     </rPh>
@@ -1727,6 +1727,12 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ツイカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2936,7 +2942,7 @@
   <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5994,23 +6000,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -6136,10 +6125,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6155,19 +6171,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F273083B-5C2A-4A53-8DE6-FECE90FECC51}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04173F01-C3F3-4E86-8C22-81310A60D331}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="131">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1733,6 +1733,19 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームモード(割り算)追加。</t>
+    <rPh sb="7" eb="8">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2942,7 +2955,7 @@
   <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+      <selection activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4433,8 +4446,12 @@
       <c r="D96" s="18"/>
       <c r="E96" s="19"/>
       <c r="F96" s="12"/>
-      <c r="H96" s="55"/>
-      <c r="I96" s="61"/>
+      <c r="H96" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="I96" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="39">
@@ -4449,8 +4466,12 @@
       <c r="D97" s="18"/>
       <c r="E97" s="19"/>
       <c r="F97" s="12"/>
-      <c r="H97" s="55"/>
-      <c r="I97" s="61"/>
+      <c r="H97" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="I97" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="39">
@@ -6000,6 +6021,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -6125,24 +6163,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6158,22 +6197,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04173F01-C3F3-4E86-8C22-81310A60D331}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85696BE-923E-4E62-B632-43952C7A03DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="132">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1745,6 +1745,31 @@
       <t>ザン</t>
     </rPh>
     <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題作成処理変更、選択肢の処理追加。</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
       <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2954,8 +2979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I98" sqref="I98"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4486,8 +4511,12 @@
       <c r="D98" s="18"/>
       <c r="E98" s="19"/>
       <c r="F98" s="12"/>
-      <c r="H98" s="55"/>
-      <c r="I98" s="61"/>
+      <c r="H98" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="I98" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="39">
@@ -6021,23 +6050,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -6163,10 +6175,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6182,19 +6221,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85696BE-923E-4E62-B632-43952C7A03DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844B0C45-4DEB-4FE1-8873-519670F9D78D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="133">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1771,6 +1771,19 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>細かい修正作業。</t>
+    <rPh sb="0" eb="1">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サギョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4531,8 +4544,12 @@
       <c r="D99" s="18"/>
       <c r="E99" s="19"/>
       <c r="F99" s="12"/>
-      <c r="H99" s="55"/>
-      <c r="I99" s="61"/>
+      <c r="H99" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="I99" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="100" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A100" s="42">
@@ -6050,6 +6067,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -6175,24 +6209,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6208,22 +6243,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844B0C45-4DEB-4FE1-8873-519670F9D78D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A728FC-4E9C-4E1C-A9B9-926A5A31D071}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="134">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1784,6 +1784,22 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題作成処理変更。</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2993,7 +3009,7 @@
   <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I99" sqref="I99"/>
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4568,8 +4584,12 @@
         <v>22</v>
       </c>
       <c r="F100" s="14"/>
-      <c r="H100" s="56"/>
-      <c r="I100" s="62"/>
+      <c r="H100" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="I100" s="62">
+        <v>1</v>
+      </c>
     </row>
     <row r="101" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="41">
@@ -6067,23 +6087,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -6209,10 +6212,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6228,19 +6258,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A728FC-4E9C-4E1C-A9B9-926A5A31D071}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2376B39-C61D-4850-AD45-6C01B1F7EC1D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="135">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1799,6 +1799,25 @@
       <t>ショリ</t>
     </rPh>
     <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題作成処理、スコア画面変更。</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
       <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -3008,8 +3027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H101" sqref="H101"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4606,8 +4625,12 @@
         <v>22</v>
       </c>
       <c r="F101" s="11"/>
-      <c r="H101" s="57"/>
-      <c r="I101" s="63"/>
+      <c r="H101" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="I101" s="63">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="39">
@@ -6087,6 +6110,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -6212,24 +6252,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6245,22 +6286,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2376B39-C61D-4850-AD45-6C01B1F7EC1D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406441CB-AB96-48DF-9EC6-9AC7C50644D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1804,7 +1804,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>問題作成処理、スコア画面変更。</t>
+    <t>問題作成処理、スコア画面変更。(+-,*/)モード作成。</t>
     <rPh sb="0" eb="2">
       <t>モンダイ</t>
     </rPh>
@@ -1819,6 +1819,9 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3027,8 +3030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I101" sqref="I101"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\兼子凌\Documents\授業\3年授業\前期ゲーム制作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406441CB-AB96-48DF-9EC6-9AC7C50644D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$187</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="137">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1822,6 +1821,26 @@
     </rPh>
     <rPh sb="25" eb="27">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休み。</t>
+    <rPh sb="0" eb="1">
+      <t>ヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題修正完了。</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1829,7 +1848,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;月&quot;dd&quot;日&quot;\(aaa\)"/>
   </numFmts>
@@ -3027,27 +3046,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H101" sqref="H101"/>
+    <sheetView tabSelected="1" topLeftCell="D97" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="50.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="50.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="1.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="50.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.58203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="35.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="35" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
@@ -3057,7 +3076,7 @@
       <c r="E1" s="74"/>
       <c r="F1" s="74"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="75" t="s">
         <v>1</v>
       </c>
@@ -3069,7 +3088,7 @@
       <c r="E2" s="75"/>
       <c r="F2" s="75"/>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="69" t="s">
         <v>36</v>
       </c>
@@ -3081,7 +3100,7 @@
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
     </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -3089,7 +3108,7 @@
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="70" t="s">
         <v>3</v>
       </c>
@@ -3103,7 +3122,7 @@
       </c>
       <c r="F5" s="71"/>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="69" t="s">
         <v>38</v>
       </c>
@@ -3117,7 +3136,7 @@
       </c>
       <c r="F6" s="73"/>
     </row>
-    <row r="8" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3125,7 +3144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="37"/>
       <c r="B9" s="33" t="s">
         <v>8</v>
@@ -3149,7 +3168,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="38">
         <v>43922</v>
       </c>
@@ -3161,7 +3180,7 @@
       <c r="H10" s="51"/>
       <c r="I10" s="60"/>
     </row>
-    <row r="11" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="39">
         <v>43923</v>
       </c>
@@ -3173,7 +3192,7 @@
       <c r="H11" s="51"/>
       <c r="I11" s="60"/>
     </row>
-    <row r="12" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="39">
         <v>43924</v>
       </c>
@@ -3185,7 +3204,7 @@
       <c r="H12" s="51"/>
       <c r="I12" s="60"/>
     </row>
-    <row r="13" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="39">
         <v>43925</v>
       </c>
@@ -3197,7 +3216,7 @@
       <c r="H13" s="51"/>
       <c r="I13" s="60"/>
     </row>
-    <row r="14" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="39">
         <v>43926</v>
       </c>
@@ -3209,7 +3228,7 @@
       <c r="H14" s="51"/>
       <c r="I14" s="60"/>
     </row>
-    <row r="15" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="39">
         <v>43927</v>
       </c>
@@ -3221,7 +3240,7 @@
       <c r="H15" s="51"/>
       <c r="I15" s="60"/>
     </row>
-    <row r="16" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="39">
         <v>43928</v>
       </c>
@@ -3233,7 +3252,7 @@
       <c r="H16" s="51"/>
       <c r="I16" s="60"/>
     </row>
-    <row r="17" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="39">
         <v>43929</v>
       </c>
@@ -3245,7 +3264,7 @@
       <c r="H17" s="51"/>
       <c r="I17" s="60"/>
     </row>
-    <row r="18" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="39">
         <v>43930</v>
       </c>
@@ -3257,7 +3276,7 @@
       <c r="H18" s="51"/>
       <c r="I18" s="60"/>
     </row>
-    <row r="19" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="39">
         <v>43931</v>
       </c>
@@ -3269,7 +3288,7 @@
       <c r="H19" s="51"/>
       <c r="I19" s="60"/>
     </row>
-    <row r="20" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="39">
         <v>43932</v>
       </c>
@@ -3281,7 +3300,7 @@
       <c r="H20" s="51"/>
       <c r="I20" s="60"/>
     </row>
-    <row r="21" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="39">
         <v>43933</v>
       </c>
@@ -3293,7 +3312,7 @@
       <c r="H21" s="51"/>
       <c r="I21" s="60"/>
     </row>
-    <row r="22" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="39">
         <v>43934</v>
       </c>
@@ -3305,7 +3324,7 @@
       <c r="H22" s="51"/>
       <c r="I22" s="60"/>
     </row>
-    <row r="23" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="39">
         <v>43935</v>
       </c>
@@ -3317,7 +3336,7 @@
       <c r="H23" s="51"/>
       <c r="I23" s="60"/>
     </row>
-    <row r="24" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="39">
         <v>43936</v>
       </c>
@@ -3329,7 +3348,7 @@
       <c r="H24" s="51"/>
       <c r="I24" s="60"/>
     </row>
-    <row r="25" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="39">
         <v>43937</v>
       </c>
@@ -3341,7 +3360,7 @@
       <c r="H25" s="51"/>
       <c r="I25" s="60"/>
     </row>
-    <row r="26" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="39">
         <v>43938</v>
       </c>
@@ -3353,7 +3372,7 @@
       <c r="H26" s="51"/>
       <c r="I26" s="60"/>
     </row>
-    <row r="27" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="39">
         <v>43939</v>
       </c>
@@ -3365,7 +3384,7 @@
       <c r="H27" s="51"/>
       <c r="I27" s="60"/>
     </row>
-    <row r="28" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="39">
         <v>43940</v>
       </c>
@@ -3377,7 +3396,7 @@
       <c r="H28" s="51"/>
       <c r="I28" s="60"/>
     </row>
-    <row r="29" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="39">
         <v>43941</v>
       </c>
@@ -3389,7 +3408,7 @@
       <c r="H29" s="51"/>
       <c r="I29" s="60"/>
     </row>
-    <row r="30" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="39">
         <v>43942</v>
       </c>
@@ -3401,7 +3420,7 @@
       <c r="H30" s="51"/>
       <c r="I30" s="60"/>
     </row>
-    <row r="31" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="39">
         <v>43943</v>
       </c>
@@ -3413,7 +3432,7 @@
       <c r="H31" s="51"/>
       <c r="I31" s="60"/>
     </row>
-    <row r="32" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="39">
         <v>43944</v>
       </c>
@@ -3425,7 +3444,7 @@
       <c r="H32" s="51"/>
       <c r="I32" s="60"/>
     </row>
-    <row r="33" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="39">
         <v>43945</v>
       </c>
@@ -3437,7 +3456,7 @@
       <c r="H33" s="51"/>
       <c r="I33" s="60"/>
     </row>
-    <row r="34" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="39">
         <v>43946</v>
       </c>
@@ -3449,7 +3468,7 @@
       <c r="H34" s="51"/>
       <c r="I34" s="60"/>
     </row>
-    <row r="35" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="39">
         <v>43947</v>
       </c>
@@ -3461,7 +3480,7 @@
       <c r="H35" s="51"/>
       <c r="I35" s="60"/>
     </row>
-    <row r="36" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="39">
         <v>43948</v>
       </c>
@@ -3473,7 +3492,7 @@
       <c r="H36" s="51"/>
       <c r="I36" s="60"/>
     </row>
-    <row r="37" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="39">
         <v>43949</v>
       </c>
@@ -3485,7 +3504,7 @@
       <c r="H37" s="51"/>
       <c r="I37" s="60"/>
     </row>
-    <row r="38" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="39">
         <v>43950</v>
       </c>
@@ -3497,7 +3516,7 @@
       <c r="H38" s="51"/>
       <c r="I38" s="60"/>
     </row>
-    <row r="39" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="40">
         <v>43951</v>
       </c>
@@ -3509,7 +3528,7 @@
       <c r="H39" s="51"/>
       <c r="I39" s="60"/>
     </row>
-    <row r="40" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="41">
         <v>43952</v>
       </c>
@@ -3521,7 +3540,7 @@
       <c r="H40" s="55"/>
       <c r="I40" s="61"/>
     </row>
-    <row r="41" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="39">
         <v>43953</v>
       </c>
@@ -3533,7 +3552,7 @@
       <c r="H41" s="55"/>
       <c r="I41" s="61"/>
     </row>
-    <row r="42" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="39">
         <v>43954</v>
       </c>
@@ -3545,7 +3564,7 @@
       <c r="H42" s="55"/>
       <c r="I42" s="61"/>
     </row>
-    <row r="43" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="39">
         <v>43955</v>
       </c>
@@ -3557,7 +3576,7 @@
       <c r="H43" s="55"/>
       <c r="I43" s="61"/>
     </row>
-    <row r="44" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="39">
         <v>43956</v>
       </c>
@@ -3569,7 +3588,7 @@
       <c r="H44" s="55"/>
       <c r="I44" s="61"/>
     </row>
-    <row r="45" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="39">
         <v>43957</v>
       </c>
@@ -3581,7 +3600,7 @@
       <c r="H45" s="55"/>
       <c r="I45" s="61"/>
     </row>
-    <row r="46" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="39">
         <v>43958</v>
       </c>
@@ -3593,7 +3612,7 @@
       <c r="H46" s="55"/>
       <c r="I46" s="61"/>
     </row>
-    <row r="47" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="39">
         <v>43959</v>
       </c>
@@ -3605,7 +3624,7 @@
       <c r="H47" s="55"/>
       <c r="I47" s="61"/>
     </row>
-    <row r="48" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="39">
         <v>43960</v>
       </c>
@@ -3617,7 +3636,7 @@
       <c r="H48" s="55"/>
       <c r="I48" s="61"/>
     </row>
-    <row r="49" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="39">
         <v>43961</v>
       </c>
@@ -3629,7 +3648,7 @@
       <c r="H49" s="55"/>
       <c r="I49" s="61"/>
     </row>
-    <row r="50" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="39">
         <v>43962</v>
       </c>
@@ -3641,7 +3660,7 @@
       <c r="H50" s="55"/>
       <c r="I50" s="61"/>
     </row>
-    <row r="51" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="39">
         <v>43963</v>
       </c>
@@ -3653,7 +3672,7 @@
       <c r="H51" s="55"/>
       <c r="I51" s="61"/>
     </row>
-    <row r="52" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="39">
         <v>43964</v>
       </c>
@@ -3665,7 +3684,7 @@
       <c r="H52" s="55"/>
       <c r="I52" s="61"/>
     </row>
-    <row r="53" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="39">
         <v>43965</v>
       </c>
@@ -3677,7 +3696,7 @@
       <c r="H53" s="55"/>
       <c r="I53" s="61"/>
     </row>
-    <row r="54" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="39">
         <v>43966</v>
       </c>
@@ -3689,7 +3708,7 @@
       <c r="H54" s="55"/>
       <c r="I54" s="61"/>
     </row>
-    <row r="55" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="39">
         <v>43967</v>
       </c>
@@ -3701,7 +3720,7 @@
       <c r="H55" s="55"/>
       <c r="I55" s="61"/>
     </row>
-    <row r="56" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="39">
         <v>43968</v>
       </c>
@@ -3713,7 +3732,7 @@
       <c r="H56" s="55"/>
       <c r="I56" s="61"/>
     </row>
-    <row r="57" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="39">
         <v>43969</v>
       </c>
@@ -3725,7 +3744,7 @@
       <c r="H57" s="55"/>
       <c r="I57" s="61"/>
     </row>
-    <row r="58" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="39">
         <v>43970</v>
       </c>
@@ -3749,7 +3768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="39">
         <v>43971</v>
       </c>
@@ -3769,7 +3788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="39">
         <v>43972</v>
       </c>
@@ -3789,7 +3808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="39">
         <v>43973</v>
       </c>
@@ -3809,7 +3828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="39">
         <v>43974</v>
       </c>
@@ -3829,7 +3848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="39">
         <v>43975</v>
       </c>
@@ -3849,7 +3868,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="39">
         <v>43976</v>
       </c>
@@ -3869,7 +3888,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="39">
         <v>43977</v>
       </c>
@@ -3889,7 +3908,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="39">
         <v>43978</v>
       </c>
@@ -3909,7 +3928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="39">
         <v>43979</v>
       </c>
@@ -3929,7 +3948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="39">
         <v>43980</v>
       </c>
@@ -3951,7 +3970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="39">
         <v>43981</v>
       </c>
@@ -3971,7 +3990,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A70" s="42">
         <v>43982</v>
       </c>
@@ -3991,7 +4010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="41">
         <v>43983</v>
       </c>
@@ -4013,7 +4032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="39">
         <v>43984</v>
       </c>
@@ -4035,7 +4054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="39">
         <v>43985</v>
       </c>
@@ -4057,7 +4076,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="39">
         <v>43986</v>
       </c>
@@ -4079,7 +4098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A75" s="39">
         <v>43987</v>
       </c>
@@ -4101,7 +4120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="39">
         <v>43988</v>
       </c>
@@ -4121,7 +4140,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="39">
         <v>43989</v>
       </c>
@@ -4141,7 +4160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="39">
         <v>43990</v>
       </c>
@@ -4161,7 +4180,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="39">
         <v>43991</v>
       </c>
@@ -4181,7 +4200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="39">
         <v>43992</v>
       </c>
@@ -4201,7 +4220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="39">
         <v>43993</v>
       </c>
@@ -4221,7 +4240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="39">
         <v>43994</v>
       </c>
@@ -4241,7 +4260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="39">
         <v>43995</v>
       </c>
@@ -4261,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="39">
         <v>43996</v>
       </c>
@@ -4281,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="39">
         <v>43997</v>
       </c>
@@ -4305,7 +4324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="39">
         <v>43998</v>
       </c>
@@ -4327,7 +4346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="39">
         <v>43999</v>
       </c>
@@ -4349,7 +4368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="39">
         <v>44000</v>
       </c>
@@ -4369,7 +4388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="39">
         <v>44001</v>
       </c>
@@ -4389,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="39">
         <v>44002</v>
       </c>
@@ -4409,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="39">
         <v>44003</v>
       </c>
@@ -4429,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="39">
         <v>44004</v>
       </c>
@@ -4449,7 +4468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="39">
         <v>44005</v>
       </c>
@@ -4469,7 +4488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="39">
         <v>44006</v>
       </c>
@@ -4489,7 +4508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="39">
         <v>44007</v>
       </c>
@@ -4509,7 +4528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="39">
         <v>44008</v>
       </c>
@@ -4529,7 +4548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="39">
         <v>44009</v>
       </c>
@@ -4549,7 +4568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="39">
         <v>44010</v>
       </c>
@@ -4569,7 +4588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="39">
         <v>44011</v>
       </c>
@@ -4589,7 +4608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A100" s="42">
         <v>44012</v>
       </c>
@@ -4613,7 +4632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="41">
         <v>44013</v>
       </c>
@@ -4635,7 +4654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="39">
         <v>44014</v>
       </c>
@@ -4650,10 +4669,14 @@
         <v>22</v>
       </c>
       <c r="F102" s="12"/>
-      <c r="H102" s="55"/>
-      <c r="I102" s="61"/>
-    </row>
-    <row r="103" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H102" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="I102" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="39">
         <v>44015</v>
       </c>
@@ -4666,10 +4689,14 @@
       <c r="D103" s="18"/>
       <c r="E103" s="19"/>
       <c r="F103" s="12"/>
-      <c r="H103" s="55"/>
-      <c r="I103" s="61"/>
-    </row>
-    <row r="104" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H103" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="I103" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="39">
         <v>44016</v>
       </c>
@@ -4685,7 +4712,7 @@
       <c r="H104" s="55"/>
       <c r="I104" s="61"/>
     </row>
-    <row r="105" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="39">
         <v>44017</v>
       </c>
@@ -4701,7 +4728,7 @@
       <c r="H105" s="55"/>
       <c r="I105" s="61"/>
     </row>
-    <row r="106" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="39">
         <v>44018</v>
       </c>
@@ -4717,7 +4744,7 @@
       <c r="H106" s="55"/>
       <c r="I106" s="61"/>
     </row>
-    <row r="107" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="39">
         <v>44019</v>
       </c>
@@ -4733,7 +4760,7 @@
       <c r="H107" s="55"/>
       <c r="I107" s="61"/>
     </row>
-    <row r="108" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="39">
         <v>44020</v>
       </c>
@@ -4749,7 +4776,7 @@
       <c r="H108" s="55"/>
       <c r="I108" s="61"/>
     </row>
-    <row r="109" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="39">
         <v>44021</v>
       </c>
@@ -4765,7 +4792,7 @@
       <c r="H109" s="55"/>
       <c r="I109" s="61"/>
     </row>
-    <row r="110" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="39">
         <v>44022</v>
       </c>
@@ -4781,7 +4808,7 @@
       <c r="H110" s="55"/>
       <c r="I110" s="61"/>
     </row>
-    <row r="111" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="39">
         <v>44023</v>
       </c>
@@ -4797,7 +4824,7 @@
       <c r="H111" s="55"/>
       <c r="I111" s="61"/>
     </row>
-    <row r="112" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="39">
         <v>44024</v>
       </c>
@@ -4813,7 +4840,7 @@
       <c r="H112" s="55"/>
       <c r="I112" s="61"/>
     </row>
-    <row r="113" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="39">
         <v>44025</v>
       </c>
@@ -4829,7 +4856,7 @@
       <c r="H113" s="55"/>
       <c r="I113" s="61"/>
     </row>
-    <row r="114" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="39">
         <v>44026</v>
       </c>
@@ -4845,7 +4872,7 @@
       <c r="H114" s="55"/>
       <c r="I114" s="61"/>
     </row>
-    <row r="115" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="39">
         <v>44027</v>
       </c>
@@ -4865,7 +4892,7 @@
       <c r="H115" s="55"/>
       <c r="I115" s="61"/>
     </row>
-    <row r="116" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="39">
         <v>44028</v>
       </c>
@@ -4883,7 +4910,7 @@
       <c r="H116" s="55"/>
       <c r="I116" s="61"/>
     </row>
-    <row r="117" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="39">
         <v>44029</v>
       </c>
@@ -4901,7 +4928,7 @@
       <c r="H117" s="55"/>
       <c r="I117" s="61"/>
     </row>
-    <row r="118" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="39">
         <v>44030</v>
       </c>
@@ -4917,7 +4944,7 @@
       <c r="H118" s="55"/>
       <c r="I118" s="61"/>
     </row>
-    <row r="119" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="39">
         <v>44031</v>
       </c>
@@ -4933,7 +4960,7 @@
       <c r="H119" s="55"/>
       <c r="I119" s="61"/>
     </row>
-    <row r="120" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="39">
         <v>44032</v>
       </c>
@@ -4949,7 +4976,7 @@
       <c r="H120" s="55"/>
       <c r="I120" s="61"/>
     </row>
-    <row r="121" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="39">
         <v>44033</v>
       </c>
@@ -4965,7 +4992,7 @@
       <c r="H121" s="55"/>
       <c r="I121" s="61"/>
     </row>
-    <row r="122" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="39">
         <v>44034</v>
       </c>
@@ -4981,7 +5008,7 @@
       <c r="H122" s="55"/>
       <c r="I122" s="61"/>
     </row>
-    <row r="123" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="39">
         <v>44035</v>
       </c>
@@ -4997,7 +5024,7 @@
       <c r="H123" s="55"/>
       <c r="I123" s="61"/>
     </row>
-    <row r="124" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="39">
         <v>44036</v>
       </c>
@@ -5013,7 +5040,7 @@
       <c r="H124" s="55"/>
       <c r="I124" s="61"/>
     </row>
-    <row r="125" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="39">
         <v>44037</v>
       </c>
@@ -5029,7 +5056,7 @@
       <c r="H125" s="55"/>
       <c r="I125" s="61"/>
     </row>
-    <row r="126" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="39">
         <v>44038</v>
       </c>
@@ -5045,7 +5072,7 @@
       <c r="H126" s="55"/>
       <c r="I126" s="61"/>
     </row>
-    <row r="127" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="39">
         <v>44039</v>
       </c>
@@ -5061,7 +5088,7 @@
       <c r="H127" s="55"/>
       <c r="I127" s="61"/>
     </row>
-    <row r="128" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="39">
         <v>44040</v>
       </c>
@@ -5077,7 +5104,7 @@
       <c r="H128" s="55"/>
       <c r="I128" s="61"/>
     </row>
-    <row r="129" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="39">
         <v>44041</v>
       </c>
@@ -5093,7 +5120,7 @@
       <c r="H129" s="55"/>
       <c r="I129" s="61"/>
     </row>
-    <row r="130" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="39">
         <v>44042</v>
       </c>
@@ -5109,7 +5136,7 @@
       <c r="H130" s="55"/>
       <c r="I130" s="61"/>
     </row>
-    <row r="131" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A131" s="42">
         <v>44043</v>
       </c>
@@ -5129,7 +5156,7 @@
       <c r="H131" s="56"/>
       <c r="I131" s="62"/>
     </row>
-    <row r="132" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="41">
         <v>44044</v>
       </c>
@@ -5145,7 +5172,7 @@
       <c r="H132" s="57"/>
       <c r="I132" s="63"/>
     </row>
-    <row r="133" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="39">
         <v>44045</v>
       </c>
@@ -5161,7 +5188,7 @@
       <c r="H133" s="55"/>
       <c r="I133" s="61"/>
     </row>
-    <row r="134" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="39">
         <v>44046</v>
       </c>
@@ -5179,7 +5206,7 @@
       <c r="H134" s="55"/>
       <c r="I134" s="61"/>
     </row>
-    <row r="135" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="39">
         <v>44047</v>
       </c>
@@ -5197,7 +5224,7 @@
       <c r="H135" s="55"/>
       <c r="I135" s="61"/>
     </row>
-    <row r="136" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="39">
         <v>44048</v>
       </c>
@@ -5213,7 +5240,7 @@
       <c r="H136" s="55"/>
       <c r="I136" s="61"/>
     </row>
-    <row r="137" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="39">
         <v>44049</v>
       </c>
@@ -5229,7 +5256,7 @@
       <c r="H137" s="55"/>
       <c r="I137" s="61"/>
     </row>
-    <row r="138" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="39">
         <v>44050</v>
       </c>
@@ -5245,7 +5272,7 @@
       <c r="H138" s="55"/>
       <c r="I138" s="61"/>
     </row>
-    <row r="139" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="39">
         <v>44051</v>
       </c>
@@ -5261,7 +5288,7 @@
       <c r="H139" s="55"/>
       <c r="I139" s="61"/>
     </row>
-    <row r="140" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="39">
         <v>44052</v>
       </c>
@@ -5277,7 +5304,7 @@
       <c r="H140" s="55"/>
       <c r="I140" s="61"/>
     </row>
-    <row r="141" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="39">
         <v>44053</v>
       </c>
@@ -5293,7 +5320,7 @@
       <c r="H141" s="55"/>
       <c r="I141" s="61"/>
     </row>
-    <row r="142" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="39">
         <v>44054</v>
       </c>
@@ -5309,7 +5336,7 @@
       <c r="H142" s="55"/>
       <c r="I142" s="61"/>
     </row>
-    <row r="143" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="39">
         <v>44055</v>
       </c>
@@ -5325,7 +5352,7 @@
       <c r="H143" s="55"/>
       <c r="I143" s="61"/>
     </row>
-    <row r="144" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="39">
         <v>44056</v>
       </c>
@@ -5341,7 +5368,7 @@
       <c r="H144" s="55"/>
       <c r="I144" s="61"/>
     </row>
-    <row r="145" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="39">
         <v>44057</v>
       </c>
@@ -5357,7 +5384,7 @@
       <c r="H145" s="55"/>
       <c r="I145" s="61"/>
     </row>
-    <row r="146" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="39">
         <v>44058</v>
       </c>
@@ -5373,7 +5400,7 @@
       <c r="H146" s="55"/>
       <c r="I146" s="61"/>
     </row>
-    <row r="147" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="39">
         <v>44059</v>
       </c>
@@ -5389,7 +5416,7 @@
       <c r="H147" s="55"/>
       <c r="I147" s="61"/>
     </row>
-    <row r="148" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="39">
         <v>44060</v>
       </c>
@@ -5409,7 +5436,7 @@
       <c r="H148" s="55"/>
       <c r="I148" s="61"/>
     </row>
-    <row r="149" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="39">
         <v>44061</v>
       </c>
@@ -5427,7 +5454,7 @@
       <c r="H149" s="55"/>
       <c r="I149" s="61"/>
     </row>
-    <row r="150" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="39">
         <v>44062</v>
       </c>
@@ -5445,7 +5472,7 @@
       <c r="H150" s="55"/>
       <c r="I150" s="61"/>
     </row>
-    <row r="151" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="39">
         <v>44063</v>
       </c>
@@ -5461,7 +5488,7 @@
       <c r="H151" s="55"/>
       <c r="I151" s="61"/>
     </row>
-    <row r="152" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="39">
         <v>44064</v>
       </c>
@@ -5477,7 +5504,7 @@
       <c r="H152" s="55"/>
       <c r="I152" s="61"/>
     </row>
-    <row r="153" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="39">
         <v>44065</v>
       </c>
@@ -5493,7 +5520,7 @@
       <c r="H153" s="55"/>
       <c r="I153" s="61"/>
     </row>
-    <row r="154" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="39">
         <v>44066</v>
       </c>
@@ -5509,7 +5536,7 @@
       <c r="H154" s="55"/>
       <c r="I154" s="61"/>
     </row>
-    <row r="155" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="39">
         <v>44067</v>
       </c>
@@ -5525,7 +5552,7 @@
       <c r="H155" s="55"/>
       <c r="I155" s="61"/>
     </row>
-    <row r="156" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="39">
         <v>44068</v>
       </c>
@@ -5541,7 +5568,7 @@
       <c r="H156" s="55"/>
       <c r="I156" s="61"/>
     </row>
-    <row r="157" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="39">
         <v>44069</v>
       </c>
@@ -5557,7 +5584,7 @@
       <c r="H157" s="55"/>
       <c r="I157" s="61"/>
     </row>
-    <row r="158" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="39">
         <v>44070</v>
       </c>
@@ -5573,7 +5600,7 @@
       <c r="H158" s="55"/>
       <c r="I158" s="61"/>
     </row>
-    <row r="159" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="39">
         <v>44071</v>
       </c>
@@ -5589,7 +5616,7 @@
       <c r="H159" s="55"/>
       <c r="I159" s="61"/>
     </row>
-    <row r="160" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="39">
         <v>44072</v>
       </c>
@@ -5605,7 +5632,7 @@
       <c r="H160" s="55"/>
       <c r="I160" s="61"/>
     </row>
-    <row r="161" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="39">
         <v>44073</v>
       </c>
@@ -5621,7 +5648,7 @@
       <c r="H161" s="55"/>
       <c r="I161" s="61"/>
     </row>
-    <row r="162" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A162" s="42">
         <v>44074</v>
       </c>
@@ -5641,7 +5668,7 @@
       <c r="H162" s="56"/>
       <c r="I162" s="62"/>
     </row>
-    <row r="163" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="38">
         <v>44075</v>
       </c>
@@ -5659,7 +5686,7 @@
       <c r="H163" s="58"/>
       <c r="I163" s="64"/>
     </row>
-    <row r="164" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="39">
         <v>44076</v>
       </c>
@@ -5677,7 +5704,7 @@
       <c r="H164" s="55"/>
       <c r="I164" s="61"/>
     </row>
-    <row r="165" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="39">
         <v>44077</v>
       </c>
@@ -5693,7 +5720,7 @@
       <c r="H165" s="55"/>
       <c r="I165" s="61"/>
     </row>
-    <row r="166" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="39">
         <v>44078</v>
       </c>
@@ -5709,7 +5736,7 @@
       <c r="H166" s="55"/>
       <c r="I166" s="61"/>
     </row>
-    <row r="167" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="39">
         <v>44079</v>
       </c>
@@ -5725,7 +5752,7 @@
       <c r="H167" s="55"/>
       <c r="I167" s="61"/>
     </row>
-    <row r="168" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="39">
         <v>44080</v>
       </c>
@@ -5741,7 +5768,7 @@
       <c r="H168" s="55"/>
       <c r="I168" s="61"/>
     </row>
-    <row r="169" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="39">
         <v>44081</v>
       </c>
@@ -5757,7 +5784,7 @@
       <c r="H169" s="55"/>
       <c r="I169" s="61"/>
     </row>
-    <row r="170" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="39">
         <v>44082</v>
       </c>
@@ -5773,7 +5800,7 @@
       <c r="H170" s="55"/>
       <c r="I170" s="61"/>
     </row>
-    <row r="171" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="39">
         <v>44083</v>
       </c>
@@ -5789,7 +5816,7 @@
       <c r="H171" s="55"/>
       <c r="I171" s="61"/>
     </row>
-    <row r="172" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="39">
         <v>44084</v>
       </c>
@@ -5805,7 +5832,7 @@
       <c r="H172" s="55"/>
       <c r="I172" s="61"/>
     </row>
-    <row r="173" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="39">
         <v>44085</v>
       </c>
@@ -5821,7 +5848,7 @@
       <c r="H173" s="55"/>
       <c r="I173" s="61"/>
     </row>
-    <row r="174" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="39">
         <v>44086</v>
       </c>
@@ -5837,7 +5864,7 @@
       <c r="H174" s="55"/>
       <c r="I174" s="61"/>
     </row>
-    <row r="175" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="39">
         <v>44087</v>
       </c>
@@ -5853,7 +5880,7 @@
       <c r="H175" s="55"/>
       <c r="I175" s="61"/>
     </row>
-    <row r="176" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="39">
         <v>44088</v>
       </c>
@@ -5875,7 +5902,7 @@
       <c r="H176" s="55"/>
       <c r="I176" s="61"/>
     </row>
-    <row r="177" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="39">
         <v>44089</v>
       </c>
@@ -5895,7 +5922,7 @@
       <c r="H177" s="55"/>
       <c r="I177" s="61"/>
     </row>
-    <row r="178" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="39">
         <v>44090</v>
       </c>
@@ -5915,7 +5942,7 @@
       <c r="H178" s="55"/>
       <c r="I178" s="61"/>
     </row>
-    <row r="179" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="39">
         <v>44091</v>
       </c>
@@ -5933,7 +5960,7 @@
       <c r="H179" s="55"/>
       <c r="I179" s="61"/>
     </row>
-    <row r="180" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="39">
         <v>44092</v>
       </c>
@@ -5951,7 +5978,7 @@
       <c r="H180" s="55"/>
       <c r="I180" s="61"/>
     </row>
-    <row r="181" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="39">
         <v>44093</v>
       </c>
@@ -5969,7 +5996,7 @@
       <c r="H181" s="55"/>
       <c r="I181" s="61"/>
     </row>
-    <row r="182" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="39">
         <v>44094</v>
       </c>
@@ -5987,7 +6014,7 @@
       <c r="H182" s="55"/>
       <c r="I182" s="61"/>
     </row>
-    <row r="183" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="39">
         <v>44095</v>
       </c>
@@ -6007,7 +6034,7 @@
       <c r="H183" s="55"/>
       <c r="I183" s="61"/>
     </row>
-    <row r="184" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="39">
         <v>44096</v>
       </c>
@@ -6027,7 +6054,7 @@
       <c r="H184" s="55"/>
       <c r="I184" s="61"/>
     </row>
-    <row r="185" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="39">
         <v>44097</v>
       </c>
@@ -6047,7 +6074,7 @@
       <c r="H185" s="55"/>
       <c r="I185" s="61"/>
     </row>
-    <row r="186" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="39">
         <v>44098</v>
       </c>
@@ -6067,7 +6094,7 @@
       <c r="H186" s="55"/>
       <c r="I186" s="61"/>
     </row>
-    <row r="187" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A187" s="42">
         <v>44099</v>
       </c>
@@ -6122,14 +6149,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -6255,6 +6274,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
   <ds:schemaRefs>
@@ -6264,16 +6291,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6289,4 +6306,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\兼子凌\Documents\授業\3年授業\前期ゲーム制作\SansuBattle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC6EF67-2392-4058-8371-C84172AE932E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,18 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="137">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1848,7 +1843,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;月&quot;dd&quot;日&quot;\(aaa\)"/>
   </numFmts>
@@ -3046,27 +3041,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D97" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H104" sqref="H104"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="I107" sqref="I107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="50.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="50.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="1.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="50.58203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="35" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="35.25" x14ac:dyDescent="0.4">
       <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
@@ -3076,7 +3071,7 @@
       <c r="E1" s="74"/>
       <c r="F1" s="74"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="75" t="s">
         <v>1</v>
       </c>
@@ -3088,7 +3083,7 @@
       <c r="E2" s="75"/>
       <c r="F2" s="75"/>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="69" t="s">
         <v>36</v>
       </c>
@@ -3100,7 +3095,7 @@
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
     </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -3108,7 +3103,7 @@
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="70" t="s">
         <v>3</v>
       </c>
@@ -3122,7 +3117,7 @@
       </c>
       <c r="F5" s="71"/>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="69" t="s">
         <v>38</v>
       </c>
@@ -3136,7 +3131,7 @@
       </c>
       <c r="F6" s="73"/>
     </row>
-    <row r="8" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3144,7 +3139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="37"/>
       <c r="B9" s="33" t="s">
         <v>8</v>
@@ -3168,7 +3163,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="38">
         <v>43922</v>
       </c>
@@ -3180,7 +3175,7 @@
       <c r="H10" s="51"/>
       <c r="I10" s="60"/>
     </row>
-    <row r="11" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="39">
         <v>43923</v>
       </c>
@@ -3192,7 +3187,7 @@
       <c r="H11" s="51"/>
       <c r="I11" s="60"/>
     </row>
-    <row r="12" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="39">
         <v>43924</v>
       </c>
@@ -3204,7 +3199,7 @@
       <c r="H12" s="51"/>
       <c r="I12" s="60"/>
     </row>
-    <row r="13" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="39">
         <v>43925</v>
       </c>
@@ -3216,7 +3211,7 @@
       <c r="H13" s="51"/>
       <c r="I13" s="60"/>
     </row>
-    <row r="14" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="39">
         <v>43926</v>
       </c>
@@ -3228,7 +3223,7 @@
       <c r="H14" s="51"/>
       <c r="I14" s="60"/>
     </row>
-    <row r="15" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="39">
         <v>43927</v>
       </c>
@@ -3240,7 +3235,7 @@
       <c r="H15" s="51"/>
       <c r="I15" s="60"/>
     </row>
-    <row r="16" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="39">
         <v>43928</v>
       </c>
@@ -3252,7 +3247,7 @@
       <c r="H16" s="51"/>
       <c r="I16" s="60"/>
     </row>
-    <row r="17" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="39">
         <v>43929</v>
       </c>
@@ -3264,7 +3259,7 @@
       <c r="H17" s="51"/>
       <c r="I17" s="60"/>
     </row>
-    <row r="18" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="39">
         <v>43930</v>
       </c>
@@ -3276,7 +3271,7 @@
       <c r="H18" s="51"/>
       <c r="I18" s="60"/>
     </row>
-    <row r="19" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="39">
         <v>43931</v>
       </c>
@@ -3288,7 +3283,7 @@
       <c r="H19" s="51"/>
       <c r="I19" s="60"/>
     </row>
-    <row r="20" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="39">
         <v>43932</v>
       </c>
@@ -3300,7 +3295,7 @@
       <c r="H20" s="51"/>
       <c r="I20" s="60"/>
     </row>
-    <row r="21" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="39">
         <v>43933</v>
       </c>
@@ -3312,7 +3307,7 @@
       <c r="H21" s="51"/>
       <c r="I21" s="60"/>
     </row>
-    <row r="22" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="39">
         <v>43934</v>
       </c>
@@ -3324,7 +3319,7 @@
       <c r="H22" s="51"/>
       <c r="I22" s="60"/>
     </row>
-    <row r="23" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="39">
         <v>43935</v>
       </c>
@@ -3336,7 +3331,7 @@
       <c r="H23" s="51"/>
       <c r="I23" s="60"/>
     </row>
-    <row r="24" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="39">
         <v>43936</v>
       </c>
@@ -3348,7 +3343,7 @@
       <c r="H24" s="51"/>
       <c r="I24" s="60"/>
     </row>
-    <row r="25" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="39">
         <v>43937</v>
       </c>
@@ -3360,7 +3355,7 @@
       <c r="H25" s="51"/>
       <c r="I25" s="60"/>
     </row>
-    <row r="26" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="39">
         <v>43938</v>
       </c>
@@ -3372,7 +3367,7 @@
       <c r="H26" s="51"/>
       <c r="I26" s="60"/>
     </row>
-    <row r="27" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="39">
         <v>43939</v>
       </c>
@@ -3384,7 +3379,7 @@
       <c r="H27" s="51"/>
       <c r="I27" s="60"/>
     </row>
-    <row r="28" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="39">
         <v>43940</v>
       </c>
@@ -3396,7 +3391,7 @@
       <c r="H28" s="51"/>
       <c r="I28" s="60"/>
     </row>
-    <row r="29" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="39">
         <v>43941</v>
       </c>
@@ -3408,7 +3403,7 @@
       <c r="H29" s="51"/>
       <c r="I29" s="60"/>
     </row>
-    <row r="30" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="39">
         <v>43942</v>
       </c>
@@ -3420,7 +3415,7 @@
       <c r="H30" s="51"/>
       <c r="I30" s="60"/>
     </row>
-    <row r="31" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="39">
         <v>43943</v>
       </c>
@@ -3432,7 +3427,7 @@
       <c r="H31" s="51"/>
       <c r="I31" s="60"/>
     </row>
-    <row r="32" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="39">
         <v>43944</v>
       </c>
@@ -3444,7 +3439,7 @@
       <c r="H32" s="51"/>
       <c r="I32" s="60"/>
     </row>
-    <row r="33" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="39">
         <v>43945</v>
       </c>
@@ -3456,7 +3451,7 @@
       <c r="H33" s="51"/>
       <c r="I33" s="60"/>
     </row>
-    <row r="34" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="39">
         <v>43946</v>
       </c>
@@ -3468,7 +3463,7 @@
       <c r="H34" s="51"/>
       <c r="I34" s="60"/>
     </row>
-    <row r="35" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="39">
         <v>43947</v>
       </c>
@@ -3480,7 +3475,7 @@
       <c r="H35" s="51"/>
       <c r="I35" s="60"/>
     </row>
-    <row r="36" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="39">
         <v>43948</v>
       </c>
@@ -3492,7 +3487,7 @@
       <c r="H36" s="51"/>
       <c r="I36" s="60"/>
     </row>
-    <row r="37" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="39">
         <v>43949</v>
       </c>
@@ -3504,7 +3499,7 @@
       <c r="H37" s="51"/>
       <c r="I37" s="60"/>
     </row>
-    <row r="38" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="39">
         <v>43950</v>
       </c>
@@ -3516,7 +3511,7 @@
       <c r="H38" s="51"/>
       <c r="I38" s="60"/>
     </row>
-    <row r="39" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="40">
         <v>43951</v>
       </c>
@@ -3528,7 +3523,7 @@
       <c r="H39" s="51"/>
       <c r="I39" s="60"/>
     </row>
-    <row r="40" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <v>43952</v>
       </c>
@@ -3540,7 +3535,7 @@
       <c r="H40" s="55"/>
       <c r="I40" s="61"/>
     </row>
-    <row r="41" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="39">
         <v>43953</v>
       </c>
@@ -3552,7 +3547,7 @@
       <c r="H41" s="55"/>
       <c r="I41" s="61"/>
     </row>
-    <row r="42" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="39">
         <v>43954</v>
       </c>
@@ -3564,7 +3559,7 @@
       <c r="H42" s="55"/>
       <c r="I42" s="61"/>
     </row>
-    <row r="43" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="39">
         <v>43955</v>
       </c>
@@ -3576,7 +3571,7 @@
       <c r="H43" s="55"/>
       <c r="I43" s="61"/>
     </row>
-    <row r="44" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="39">
         <v>43956</v>
       </c>
@@ -3588,7 +3583,7 @@
       <c r="H44" s="55"/>
       <c r="I44" s="61"/>
     </row>
-    <row r="45" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="39">
         <v>43957</v>
       </c>
@@ -3600,7 +3595,7 @@
       <c r="H45" s="55"/>
       <c r="I45" s="61"/>
     </row>
-    <row r="46" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="39">
         <v>43958</v>
       </c>
@@ -3612,7 +3607,7 @@
       <c r="H46" s="55"/>
       <c r="I46" s="61"/>
     </row>
-    <row r="47" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="39">
         <v>43959</v>
       </c>
@@ -3624,7 +3619,7 @@
       <c r="H47" s="55"/>
       <c r="I47" s="61"/>
     </row>
-    <row r="48" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="39">
         <v>43960</v>
       </c>
@@ -3636,7 +3631,7 @@
       <c r="H48" s="55"/>
       <c r="I48" s="61"/>
     </row>
-    <row r="49" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="39">
         <v>43961</v>
       </c>
@@ -3648,7 +3643,7 @@
       <c r="H49" s="55"/>
       <c r="I49" s="61"/>
     </row>
-    <row r="50" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="39">
         <v>43962</v>
       </c>
@@ -3660,7 +3655,7 @@
       <c r="H50" s="55"/>
       <c r="I50" s="61"/>
     </row>
-    <row r="51" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="39">
         <v>43963</v>
       </c>
@@ -3672,7 +3667,7 @@
       <c r="H51" s="55"/>
       <c r="I51" s="61"/>
     </row>
-    <row r="52" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="39">
         <v>43964</v>
       </c>
@@ -3684,7 +3679,7 @@
       <c r="H52" s="55"/>
       <c r="I52" s="61"/>
     </row>
-    <row r="53" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="39">
         <v>43965</v>
       </c>
@@ -3696,7 +3691,7 @@
       <c r="H53" s="55"/>
       <c r="I53" s="61"/>
     </row>
-    <row r="54" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="39">
         <v>43966</v>
       </c>
@@ -3708,7 +3703,7 @@
       <c r="H54" s="55"/>
       <c r="I54" s="61"/>
     </row>
-    <row r="55" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="39">
         <v>43967</v>
       </c>
@@ -3720,7 +3715,7 @@
       <c r="H55" s="55"/>
       <c r="I55" s="61"/>
     </row>
-    <row r="56" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="39">
         <v>43968</v>
       </c>
@@ -3732,7 +3727,7 @@
       <c r="H56" s="55"/>
       <c r="I56" s="61"/>
     </row>
-    <row r="57" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="39">
         <v>43969</v>
       </c>
@@ -3744,7 +3739,7 @@
       <c r="H57" s="55"/>
       <c r="I57" s="61"/>
     </row>
-    <row r="58" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="39">
         <v>43970</v>
       </c>
@@ -3768,7 +3763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="39">
         <v>43971</v>
       </c>
@@ -3788,7 +3783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="39">
         <v>43972</v>
       </c>
@@ -3808,7 +3803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="39">
         <v>43973</v>
       </c>
@@ -3828,7 +3823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="39">
         <v>43974</v>
       </c>
@@ -3848,7 +3843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="39">
         <v>43975</v>
       </c>
@@ -3868,7 +3863,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="39">
         <v>43976</v>
       </c>
@@ -3888,7 +3883,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="39">
         <v>43977</v>
       </c>
@@ -3908,7 +3903,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="39">
         <v>43978</v>
       </c>
@@ -3928,7 +3923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="39">
         <v>43979</v>
       </c>
@@ -3948,7 +3943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="39">
         <v>43980</v>
       </c>
@@ -3970,7 +3965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="39">
         <v>43981</v>
       </c>
@@ -3990,7 +3985,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="42">
         <v>43982</v>
       </c>
@@ -4010,7 +4005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="41">
         <v>43983</v>
       </c>
@@ -4032,7 +4027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="39">
         <v>43984</v>
       </c>
@@ -4054,7 +4049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="39">
         <v>43985</v>
       </c>
@@ -4076,7 +4071,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="39">
         <v>43986</v>
       </c>
@@ -4098,7 +4093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="39">
         <v>43987</v>
       </c>
@@ -4120,7 +4115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="39">
         <v>43988</v>
       </c>
@@ -4140,7 +4135,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="39">
         <v>43989</v>
       </c>
@@ -4160,7 +4155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="39">
         <v>43990</v>
       </c>
@@ -4180,7 +4175,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="39">
         <v>43991</v>
       </c>
@@ -4200,7 +4195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="39">
         <v>43992</v>
       </c>
@@ -4220,7 +4215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="39">
         <v>43993</v>
       </c>
@@ -4240,7 +4235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="39">
         <v>43994</v>
       </c>
@@ -4260,7 +4255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="39">
         <v>43995</v>
       </c>
@@ -4280,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="39">
         <v>43996</v>
       </c>
@@ -4300,7 +4295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="39">
         <v>43997</v>
       </c>
@@ -4324,7 +4319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="39">
         <v>43998</v>
       </c>
@@ -4346,7 +4341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="39">
         <v>43999</v>
       </c>
@@ -4368,7 +4363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="39">
         <v>44000</v>
       </c>
@@ -4388,7 +4383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="39">
         <v>44001</v>
       </c>
@@ -4408,7 +4403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="39">
         <v>44002</v>
       </c>
@@ -4428,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="39">
         <v>44003</v>
       </c>
@@ -4448,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="39">
         <v>44004</v>
       </c>
@@ -4468,7 +4463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="39">
         <v>44005</v>
       </c>
@@ -4488,7 +4483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="39">
         <v>44006</v>
       </c>
@@ -4508,7 +4503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="39">
         <v>44007</v>
       </c>
@@ -4528,7 +4523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="39">
         <v>44008</v>
       </c>
@@ -4548,7 +4543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="39">
         <v>44009</v>
       </c>
@@ -4568,7 +4563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="39">
         <v>44010</v>
       </c>
@@ -4588,7 +4583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="39">
         <v>44011</v>
       </c>
@@ -4608,7 +4603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A100" s="42">
         <v>44012</v>
       </c>
@@ -4632,7 +4627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="41">
         <v>44013</v>
       </c>
@@ -4654,7 +4649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="39">
         <v>44014</v>
       </c>
@@ -4676,7 +4671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="39">
         <v>44015</v>
       </c>
@@ -4696,7 +4691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="39">
         <v>44016</v>
       </c>
@@ -4709,10 +4704,14 @@
       <c r="D104" s="18"/>
       <c r="E104" s="19"/>
       <c r="F104" s="12"/>
-      <c r="H104" s="55"/>
-      <c r="I104" s="61"/>
-    </row>
-    <row r="105" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H104" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="I104" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="39">
         <v>44017</v>
       </c>
@@ -4725,10 +4724,14 @@
       <c r="D105" s="18"/>
       <c r="E105" s="19"/>
       <c r="F105" s="12"/>
-      <c r="H105" s="55"/>
-      <c r="I105" s="61"/>
-    </row>
-    <row r="106" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H105" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="I105" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="39">
         <v>44018</v>
       </c>
@@ -4741,10 +4744,14 @@
       <c r="D106" s="18"/>
       <c r="E106" s="19"/>
       <c r="F106" s="12"/>
-      <c r="H106" s="55"/>
-      <c r="I106" s="61"/>
-    </row>
-    <row r="107" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H106" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="I106" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="39">
         <v>44019</v>
       </c>
@@ -4760,7 +4767,7 @@
       <c r="H107" s="55"/>
       <c r="I107" s="61"/>
     </row>
-    <row r="108" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="39">
         <v>44020</v>
       </c>
@@ -4776,7 +4783,7 @@
       <c r="H108" s="55"/>
       <c r="I108" s="61"/>
     </row>
-    <row r="109" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="39">
         <v>44021</v>
       </c>
@@ -4792,7 +4799,7 @@
       <c r="H109" s="55"/>
       <c r="I109" s="61"/>
     </row>
-    <row r="110" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="39">
         <v>44022</v>
       </c>
@@ -4808,7 +4815,7 @@
       <c r="H110" s="55"/>
       <c r="I110" s="61"/>
     </row>
-    <row r="111" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="39">
         <v>44023</v>
       </c>
@@ -4824,7 +4831,7 @@
       <c r="H111" s="55"/>
       <c r="I111" s="61"/>
     </row>
-    <row r="112" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="39">
         <v>44024</v>
       </c>
@@ -4840,7 +4847,7 @@
       <c r="H112" s="55"/>
       <c r="I112" s="61"/>
     </row>
-    <row r="113" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="39">
         <v>44025</v>
       </c>
@@ -4856,7 +4863,7 @@
       <c r="H113" s="55"/>
       <c r="I113" s="61"/>
     </row>
-    <row r="114" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="39">
         <v>44026</v>
       </c>
@@ -4872,7 +4879,7 @@
       <c r="H114" s="55"/>
       <c r="I114" s="61"/>
     </row>
-    <row r="115" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="39">
         <v>44027</v>
       </c>
@@ -4892,7 +4899,7 @@
       <c r="H115" s="55"/>
       <c r="I115" s="61"/>
     </row>
-    <row r="116" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="39">
         <v>44028</v>
       </c>
@@ -4910,7 +4917,7 @@
       <c r="H116" s="55"/>
       <c r="I116" s="61"/>
     </row>
-    <row r="117" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="39">
         <v>44029</v>
       </c>
@@ -4928,7 +4935,7 @@
       <c r="H117" s="55"/>
       <c r="I117" s="61"/>
     </row>
-    <row r="118" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="39">
         <v>44030</v>
       </c>
@@ -4944,7 +4951,7 @@
       <c r="H118" s="55"/>
       <c r="I118" s="61"/>
     </row>
-    <row r="119" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="39">
         <v>44031</v>
       </c>
@@ -4960,7 +4967,7 @@
       <c r="H119" s="55"/>
       <c r="I119" s="61"/>
     </row>
-    <row r="120" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="39">
         <v>44032</v>
       </c>
@@ -4976,7 +4983,7 @@
       <c r="H120" s="55"/>
       <c r="I120" s="61"/>
     </row>
-    <row r="121" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="39">
         <v>44033</v>
       </c>
@@ -4992,7 +4999,7 @@
       <c r="H121" s="55"/>
       <c r="I121" s="61"/>
     </row>
-    <row r="122" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="39">
         <v>44034</v>
       </c>
@@ -5008,7 +5015,7 @@
       <c r="H122" s="55"/>
       <c r="I122" s="61"/>
     </row>
-    <row r="123" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="39">
         <v>44035</v>
       </c>
@@ -5024,7 +5031,7 @@
       <c r="H123" s="55"/>
       <c r="I123" s="61"/>
     </row>
-    <row r="124" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="39">
         <v>44036</v>
       </c>
@@ -5040,7 +5047,7 @@
       <c r="H124" s="55"/>
       <c r="I124" s="61"/>
     </row>
-    <row r="125" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="39">
         <v>44037</v>
       </c>
@@ -5056,7 +5063,7 @@
       <c r="H125" s="55"/>
       <c r="I125" s="61"/>
     </row>
-    <row r="126" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="39">
         <v>44038</v>
       </c>
@@ -5072,7 +5079,7 @@
       <c r="H126" s="55"/>
       <c r="I126" s="61"/>
     </row>
-    <row r="127" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="39">
         <v>44039</v>
       </c>
@@ -5088,7 +5095,7 @@
       <c r="H127" s="55"/>
       <c r="I127" s="61"/>
     </row>
-    <row r="128" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="39">
         <v>44040</v>
       </c>
@@ -5104,7 +5111,7 @@
       <c r="H128" s="55"/>
       <c r="I128" s="61"/>
     </row>
-    <row r="129" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="39">
         <v>44041</v>
       </c>
@@ -5120,7 +5127,7 @@
       <c r="H129" s="55"/>
       <c r="I129" s="61"/>
     </row>
-    <row r="130" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="39">
         <v>44042</v>
       </c>
@@ -5136,7 +5143,7 @@
       <c r="H130" s="55"/>
       <c r="I130" s="61"/>
     </row>
-    <row r="131" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A131" s="42">
         <v>44043</v>
       </c>
@@ -5156,7 +5163,7 @@
       <c r="H131" s="56"/>
       <c r="I131" s="62"/>
     </row>
-    <row r="132" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="41">
         <v>44044</v>
       </c>
@@ -5172,7 +5179,7 @@
       <c r="H132" s="57"/>
       <c r="I132" s="63"/>
     </row>
-    <row r="133" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="39">
         <v>44045</v>
       </c>
@@ -5188,7 +5195,7 @@
       <c r="H133" s="55"/>
       <c r="I133" s="61"/>
     </row>
-    <row r="134" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="39">
         <v>44046</v>
       </c>
@@ -5206,7 +5213,7 @@
       <c r="H134" s="55"/>
       <c r="I134" s="61"/>
     </row>
-    <row r="135" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="39">
         <v>44047</v>
       </c>
@@ -5224,7 +5231,7 @@
       <c r="H135" s="55"/>
       <c r="I135" s="61"/>
     </row>
-    <row r="136" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="39">
         <v>44048</v>
       </c>
@@ -5240,7 +5247,7 @@
       <c r="H136" s="55"/>
       <c r="I136" s="61"/>
     </row>
-    <row r="137" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="39">
         <v>44049</v>
       </c>
@@ -5256,7 +5263,7 @@
       <c r="H137" s="55"/>
       <c r="I137" s="61"/>
     </row>
-    <row r="138" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="39">
         <v>44050</v>
       </c>
@@ -5272,7 +5279,7 @@
       <c r="H138" s="55"/>
       <c r="I138" s="61"/>
     </row>
-    <row r="139" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="39">
         <v>44051</v>
       </c>
@@ -5288,7 +5295,7 @@
       <c r="H139" s="55"/>
       <c r="I139" s="61"/>
     </row>
-    <row r="140" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="39">
         <v>44052</v>
       </c>
@@ -5304,7 +5311,7 @@
       <c r="H140" s="55"/>
       <c r="I140" s="61"/>
     </row>
-    <row r="141" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="39">
         <v>44053</v>
       </c>
@@ -5320,7 +5327,7 @@
       <c r="H141" s="55"/>
       <c r="I141" s="61"/>
     </row>
-    <row r="142" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="39">
         <v>44054</v>
       </c>
@@ -5336,7 +5343,7 @@
       <c r="H142" s="55"/>
       <c r="I142" s="61"/>
     </row>
-    <row r="143" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="39">
         <v>44055</v>
       </c>
@@ -5352,7 +5359,7 @@
       <c r="H143" s="55"/>
       <c r="I143" s="61"/>
     </row>
-    <row r="144" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="39">
         <v>44056</v>
       </c>
@@ -5368,7 +5375,7 @@
       <c r="H144" s="55"/>
       <c r="I144" s="61"/>
     </row>
-    <row r="145" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="39">
         <v>44057</v>
       </c>
@@ -5384,7 +5391,7 @@
       <c r="H145" s="55"/>
       <c r="I145" s="61"/>
     </row>
-    <row r="146" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="39">
         <v>44058</v>
       </c>
@@ -5400,7 +5407,7 @@
       <c r="H146" s="55"/>
       <c r="I146" s="61"/>
     </row>
-    <row r="147" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="39">
         <v>44059</v>
       </c>
@@ -5416,7 +5423,7 @@
       <c r="H147" s="55"/>
       <c r="I147" s="61"/>
     </row>
-    <row r="148" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="39">
         <v>44060</v>
       </c>
@@ -5436,7 +5443,7 @@
       <c r="H148" s="55"/>
       <c r="I148" s="61"/>
     </row>
-    <row r="149" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="39">
         <v>44061</v>
       </c>
@@ -5454,7 +5461,7 @@
       <c r="H149" s="55"/>
       <c r="I149" s="61"/>
     </row>
-    <row r="150" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="39">
         <v>44062</v>
       </c>
@@ -5472,7 +5479,7 @@
       <c r="H150" s="55"/>
       <c r="I150" s="61"/>
     </row>
-    <row r="151" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="39">
         <v>44063</v>
       </c>
@@ -5488,7 +5495,7 @@
       <c r="H151" s="55"/>
       <c r="I151" s="61"/>
     </row>
-    <row r="152" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="39">
         <v>44064</v>
       </c>
@@ -5504,7 +5511,7 @@
       <c r="H152" s="55"/>
       <c r="I152" s="61"/>
     </row>
-    <row r="153" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="39">
         <v>44065</v>
       </c>
@@ -5520,7 +5527,7 @@
       <c r="H153" s="55"/>
       <c r="I153" s="61"/>
     </row>
-    <row r="154" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="39">
         <v>44066</v>
       </c>
@@ -5536,7 +5543,7 @@
       <c r="H154" s="55"/>
       <c r="I154" s="61"/>
     </row>
-    <row r="155" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="39">
         <v>44067</v>
       </c>
@@ -5552,7 +5559,7 @@
       <c r="H155" s="55"/>
       <c r="I155" s="61"/>
     </row>
-    <row r="156" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="39">
         <v>44068</v>
       </c>
@@ -5568,7 +5575,7 @@
       <c r="H156" s="55"/>
       <c r="I156" s="61"/>
     </row>
-    <row r="157" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="39">
         <v>44069</v>
       </c>
@@ -5584,7 +5591,7 @@
       <c r="H157" s="55"/>
       <c r="I157" s="61"/>
     </row>
-    <row r="158" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="39">
         <v>44070</v>
       </c>
@@ -5600,7 +5607,7 @@
       <c r="H158" s="55"/>
       <c r="I158" s="61"/>
     </row>
-    <row r="159" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="39">
         <v>44071</v>
       </c>
@@ -5616,7 +5623,7 @@
       <c r="H159" s="55"/>
       <c r="I159" s="61"/>
     </row>
-    <row r="160" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="39">
         <v>44072</v>
       </c>
@@ -5632,7 +5639,7 @@
       <c r="H160" s="55"/>
       <c r="I160" s="61"/>
     </row>
-    <row r="161" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="39">
         <v>44073</v>
       </c>
@@ -5648,7 +5655,7 @@
       <c r="H161" s="55"/>
       <c r="I161" s="61"/>
     </row>
-    <row r="162" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A162" s="42">
         <v>44074</v>
       </c>
@@ -5668,7 +5675,7 @@
       <c r="H162" s="56"/>
       <c r="I162" s="62"/>
     </row>
-    <row r="163" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="38">
         <v>44075</v>
       </c>
@@ -5686,7 +5693,7 @@
       <c r="H163" s="58"/>
       <c r="I163" s="64"/>
     </row>
-    <row r="164" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="39">
         <v>44076</v>
       </c>
@@ -5704,7 +5711,7 @@
       <c r="H164" s="55"/>
       <c r="I164" s="61"/>
     </row>
-    <row r="165" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="39">
         <v>44077</v>
       </c>
@@ -5720,7 +5727,7 @@
       <c r="H165" s="55"/>
       <c r="I165" s="61"/>
     </row>
-    <row r="166" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="39">
         <v>44078</v>
       </c>
@@ -5736,7 +5743,7 @@
       <c r="H166" s="55"/>
       <c r="I166" s="61"/>
     </row>
-    <row r="167" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="39">
         <v>44079</v>
       </c>
@@ -5752,7 +5759,7 @@
       <c r="H167" s="55"/>
       <c r="I167" s="61"/>
     </row>
-    <row r="168" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="39">
         <v>44080</v>
       </c>
@@ -5768,7 +5775,7 @@
       <c r="H168" s="55"/>
       <c r="I168" s="61"/>
     </row>
-    <row r="169" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="39">
         <v>44081</v>
       </c>
@@ -5784,7 +5791,7 @@
       <c r="H169" s="55"/>
       <c r="I169" s="61"/>
     </row>
-    <row r="170" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="39">
         <v>44082</v>
       </c>
@@ -5800,7 +5807,7 @@
       <c r="H170" s="55"/>
       <c r="I170" s="61"/>
     </row>
-    <row r="171" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="39">
         <v>44083</v>
       </c>
@@ -5816,7 +5823,7 @@
       <c r="H171" s="55"/>
       <c r="I171" s="61"/>
     </row>
-    <row r="172" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="39">
         <v>44084</v>
       </c>
@@ -5832,7 +5839,7 @@
       <c r="H172" s="55"/>
       <c r="I172" s="61"/>
     </row>
-    <row r="173" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="39">
         <v>44085</v>
       </c>
@@ -5848,7 +5855,7 @@
       <c r="H173" s="55"/>
       <c r="I173" s="61"/>
     </row>
-    <row r="174" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="39">
         <v>44086</v>
       </c>
@@ -5864,7 +5871,7 @@
       <c r="H174" s="55"/>
       <c r="I174" s="61"/>
     </row>
-    <row r="175" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="39">
         <v>44087</v>
       </c>
@@ -5880,7 +5887,7 @@
       <c r="H175" s="55"/>
       <c r="I175" s="61"/>
     </row>
-    <row r="176" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="39">
         <v>44088</v>
       </c>
@@ -5902,7 +5909,7 @@
       <c r="H176" s="55"/>
       <c r="I176" s="61"/>
     </row>
-    <row r="177" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="39">
         <v>44089</v>
       </c>
@@ -5922,7 +5929,7 @@
       <c r="H177" s="55"/>
       <c r="I177" s="61"/>
     </row>
-    <row r="178" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="39">
         <v>44090</v>
       </c>
@@ -5942,7 +5949,7 @@
       <c r="H178" s="55"/>
       <c r="I178" s="61"/>
     </row>
-    <row r="179" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="39">
         <v>44091</v>
       </c>
@@ -5960,7 +5967,7 @@
       <c r="H179" s="55"/>
       <c r="I179" s="61"/>
     </row>
-    <row r="180" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="39">
         <v>44092</v>
       </c>
@@ -5978,7 +5985,7 @@
       <c r="H180" s="55"/>
       <c r="I180" s="61"/>
     </row>
-    <row r="181" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="39">
         <v>44093</v>
       </c>
@@ -5996,7 +6003,7 @@
       <c r="H181" s="55"/>
       <c r="I181" s="61"/>
     </row>
-    <row r="182" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="39">
         <v>44094</v>
       </c>
@@ -6014,7 +6021,7 @@
       <c r="H182" s="55"/>
       <c r="I182" s="61"/>
     </row>
-    <row r="183" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="39">
         <v>44095</v>
       </c>
@@ -6034,7 +6041,7 @@
       <c r="H183" s="55"/>
       <c r="I183" s="61"/>
     </row>
-    <row r="184" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="39">
         <v>44096</v>
       </c>
@@ -6054,7 +6061,7 @@
       <c r="H184" s="55"/>
       <c r="I184" s="61"/>
     </row>
-    <row r="185" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="39">
         <v>44097</v>
       </c>
@@ -6074,7 +6081,7 @@
       <c r="H185" s="55"/>
       <c r="I185" s="61"/>
     </row>
-    <row r="186" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="39">
         <v>44098</v>
       </c>
@@ -6094,7 +6101,7 @@
       <c r="H186" s="55"/>
       <c r="I186" s="61"/>
     </row>
-    <row r="187" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="187" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A187" s="42">
         <v>44099</v>
       </c>
@@ -6140,12 +6147,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6275,17 +6281,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6309,11 +6318,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC6EF67-2392-4058-8371-C84172AE932E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A987AA-9DE2-4832-A524-5DEFEEA89B1F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="138">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1836,6 +1836,19 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択肢追加途中。</t>
+    <rPh sb="0" eb="3">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トチュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4764,8 +4777,12 @@
       <c r="D107" s="18"/>
       <c r="E107" s="19"/>
       <c r="F107" s="12"/>
-      <c r="H107" s="55"/>
-      <c r="I107" s="61"/>
+      <c r="H107" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="I107" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="108" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="39">
@@ -6147,11 +6164,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6281,20 +6299,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6318,9 +6333,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A987AA-9DE2-4832-A524-5DEFEEA89B1F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EC6CA6-4F71-4FC6-9393-522983C25393}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="139">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1849,6 +1849,25 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>トチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページ移動処理、矢印画像追加。</t>
+    <rPh sb="3" eb="5">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3058,7 +3077,7 @@
   <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I107" sqref="I107"/>
+      <selection activeCell="I108" sqref="I108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4797,8 +4816,12 @@
       <c r="D108" s="18"/>
       <c r="E108" s="19"/>
       <c r="F108" s="12"/>
-      <c r="H108" s="55"/>
-      <c r="I108" s="61"/>
+      <c r="H108" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="I108" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="39">
@@ -6164,12 +6187,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6299,17 +6321,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6333,11 +6358,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\兼子凌\Documents\授業\3年授業\前期ゲーム制作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EC6CA6-4F71-4FC6-9393-522983C25393}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="140">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1868,6 +1867,22 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題作成処理修正。</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1875,7 +1890,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;月&quot;dd&quot;日&quot;\(aaa\)"/>
   </numFmts>
@@ -3073,27 +3088,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I108" sqref="I108"/>
+    <sheetView tabSelected="1" topLeftCell="D97" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H110" sqref="H110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="50.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="50.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="1.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="50.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.58203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="35.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="35" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
@@ -3103,7 +3118,7 @@
       <c r="E1" s="74"/>
       <c r="F1" s="74"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="75" t="s">
         <v>1</v>
       </c>
@@ -3115,7 +3130,7 @@
       <c r="E2" s="75"/>
       <c r="F2" s="75"/>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="69" t="s">
         <v>36</v>
       </c>
@@ -3127,7 +3142,7 @@
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
     </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -3135,7 +3150,7 @@
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="70" t="s">
         <v>3</v>
       </c>
@@ -3149,7 +3164,7 @@
       </c>
       <c r="F5" s="71"/>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="69" t="s">
         <v>38</v>
       </c>
@@ -3163,7 +3178,7 @@
       </c>
       <c r="F6" s="73"/>
     </row>
-    <row r="8" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3171,7 +3186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="37"/>
       <c r="B9" s="33" t="s">
         <v>8</v>
@@ -3195,7 +3210,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="38">
         <v>43922</v>
       </c>
@@ -3207,7 +3222,7 @@
       <c r="H10" s="51"/>
       <c r="I10" s="60"/>
     </row>
-    <row r="11" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="39">
         <v>43923</v>
       </c>
@@ -3219,7 +3234,7 @@
       <c r="H11" s="51"/>
       <c r="I11" s="60"/>
     </row>
-    <row r="12" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="39">
         <v>43924</v>
       </c>
@@ -3231,7 +3246,7 @@
       <c r="H12" s="51"/>
       <c r="I12" s="60"/>
     </row>
-    <row r="13" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="39">
         <v>43925</v>
       </c>
@@ -3243,7 +3258,7 @@
       <c r="H13" s="51"/>
       <c r="I13" s="60"/>
     </row>
-    <row r="14" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="39">
         <v>43926</v>
       </c>
@@ -3255,7 +3270,7 @@
       <c r="H14" s="51"/>
       <c r="I14" s="60"/>
     </row>
-    <row r="15" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="39">
         <v>43927</v>
       </c>
@@ -3267,7 +3282,7 @@
       <c r="H15" s="51"/>
       <c r="I15" s="60"/>
     </row>
-    <row r="16" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="39">
         <v>43928</v>
       </c>
@@ -3279,7 +3294,7 @@
       <c r="H16" s="51"/>
       <c r="I16" s="60"/>
     </row>
-    <row r="17" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="39">
         <v>43929</v>
       </c>
@@ -3291,7 +3306,7 @@
       <c r="H17" s="51"/>
       <c r="I17" s="60"/>
     </row>
-    <row r="18" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="39">
         <v>43930</v>
       </c>
@@ -3303,7 +3318,7 @@
       <c r="H18" s="51"/>
       <c r="I18" s="60"/>
     </row>
-    <row r="19" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="39">
         <v>43931</v>
       </c>
@@ -3315,7 +3330,7 @@
       <c r="H19" s="51"/>
       <c r="I19" s="60"/>
     </row>
-    <row r="20" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="39">
         <v>43932</v>
       </c>
@@ -3327,7 +3342,7 @@
       <c r="H20" s="51"/>
       <c r="I20" s="60"/>
     </row>
-    <row r="21" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="39">
         <v>43933</v>
       </c>
@@ -3339,7 +3354,7 @@
       <c r="H21" s="51"/>
       <c r="I21" s="60"/>
     </row>
-    <row r="22" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="39">
         <v>43934</v>
       </c>
@@ -3351,7 +3366,7 @@
       <c r="H22" s="51"/>
       <c r="I22" s="60"/>
     </row>
-    <row r="23" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="39">
         <v>43935</v>
       </c>
@@ -3363,7 +3378,7 @@
       <c r="H23" s="51"/>
       <c r="I23" s="60"/>
     </row>
-    <row r="24" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="39">
         <v>43936</v>
       </c>
@@ -3375,7 +3390,7 @@
       <c r="H24" s="51"/>
       <c r="I24" s="60"/>
     </row>
-    <row r="25" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="39">
         <v>43937</v>
       </c>
@@ -3387,7 +3402,7 @@
       <c r="H25" s="51"/>
       <c r="I25" s="60"/>
     </row>
-    <row r="26" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="39">
         <v>43938</v>
       </c>
@@ -3399,7 +3414,7 @@
       <c r="H26" s="51"/>
       <c r="I26" s="60"/>
     </row>
-    <row r="27" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="39">
         <v>43939</v>
       </c>
@@ -3411,7 +3426,7 @@
       <c r="H27" s="51"/>
       <c r="I27" s="60"/>
     </row>
-    <row r="28" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="39">
         <v>43940</v>
       </c>
@@ -3423,7 +3438,7 @@
       <c r="H28" s="51"/>
       <c r="I28" s="60"/>
     </row>
-    <row r="29" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="39">
         <v>43941</v>
       </c>
@@ -3435,7 +3450,7 @@
       <c r="H29" s="51"/>
       <c r="I29" s="60"/>
     </row>
-    <row r="30" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="39">
         <v>43942</v>
       </c>
@@ -3447,7 +3462,7 @@
       <c r="H30" s="51"/>
       <c r="I30" s="60"/>
     </row>
-    <row r="31" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="39">
         <v>43943</v>
       </c>
@@ -3459,7 +3474,7 @@
       <c r="H31" s="51"/>
       <c r="I31" s="60"/>
     </row>
-    <row r="32" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="39">
         <v>43944</v>
       </c>
@@ -3471,7 +3486,7 @@
       <c r="H32" s="51"/>
       <c r="I32" s="60"/>
     </row>
-    <row r="33" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="39">
         <v>43945</v>
       </c>
@@ -3483,7 +3498,7 @@
       <c r="H33" s="51"/>
       <c r="I33" s="60"/>
     </row>
-    <row r="34" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="39">
         <v>43946</v>
       </c>
@@ -3495,7 +3510,7 @@
       <c r="H34" s="51"/>
       <c r="I34" s="60"/>
     </row>
-    <row r="35" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="39">
         <v>43947</v>
       </c>
@@ -3507,7 +3522,7 @@
       <c r="H35" s="51"/>
       <c r="I35" s="60"/>
     </row>
-    <row r="36" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="39">
         <v>43948</v>
       </c>
@@ -3519,7 +3534,7 @@
       <c r="H36" s="51"/>
       <c r="I36" s="60"/>
     </row>
-    <row r="37" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="39">
         <v>43949</v>
       </c>
@@ -3531,7 +3546,7 @@
       <c r="H37" s="51"/>
       <c r="I37" s="60"/>
     </row>
-    <row r="38" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="39">
         <v>43950</v>
       </c>
@@ -3543,7 +3558,7 @@
       <c r="H38" s="51"/>
       <c r="I38" s="60"/>
     </row>
-    <row r="39" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="40">
         <v>43951</v>
       </c>
@@ -3555,7 +3570,7 @@
       <c r="H39" s="51"/>
       <c r="I39" s="60"/>
     </row>
-    <row r="40" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="41">
         <v>43952</v>
       </c>
@@ -3567,7 +3582,7 @@
       <c r="H40" s="55"/>
       <c r="I40" s="61"/>
     </row>
-    <row r="41" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="39">
         <v>43953</v>
       </c>
@@ -3579,7 +3594,7 @@
       <c r="H41" s="55"/>
       <c r="I41" s="61"/>
     </row>
-    <row r="42" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="39">
         <v>43954</v>
       </c>
@@ -3591,7 +3606,7 @@
       <c r="H42" s="55"/>
       <c r="I42" s="61"/>
     </row>
-    <row r="43" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="39">
         <v>43955</v>
       </c>
@@ -3603,7 +3618,7 @@
       <c r="H43" s="55"/>
       <c r="I43" s="61"/>
     </row>
-    <row r="44" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="39">
         <v>43956</v>
       </c>
@@ -3615,7 +3630,7 @@
       <c r="H44" s="55"/>
       <c r="I44" s="61"/>
     </row>
-    <row r="45" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="39">
         <v>43957</v>
       </c>
@@ -3627,7 +3642,7 @@
       <c r="H45" s="55"/>
       <c r="I45" s="61"/>
     </row>
-    <row r="46" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="39">
         <v>43958</v>
       </c>
@@ -3639,7 +3654,7 @@
       <c r="H46" s="55"/>
       <c r="I46" s="61"/>
     </row>
-    <row r="47" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="39">
         <v>43959</v>
       </c>
@@ -3651,7 +3666,7 @@
       <c r="H47" s="55"/>
       <c r="I47" s="61"/>
     </row>
-    <row r="48" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="39">
         <v>43960</v>
       </c>
@@ -3663,7 +3678,7 @@
       <c r="H48" s="55"/>
       <c r="I48" s="61"/>
     </row>
-    <row r="49" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="39">
         <v>43961</v>
       </c>
@@ -3675,7 +3690,7 @@
       <c r="H49" s="55"/>
       <c r="I49" s="61"/>
     </row>
-    <row r="50" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="39">
         <v>43962</v>
       </c>
@@ -3687,7 +3702,7 @@
       <c r="H50" s="55"/>
       <c r="I50" s="61"/>
     </row>
-    <row r="51" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="39">
         <v>43963</v>
       </c>
@@ -3699,7 +3714,7 @@
       <c r="H51" s="55"/>
       <c r="I51" s="61"/>
     </row>
-    <row r="52" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="39">
         <v>43964</v>
       </c>
@@ -3711,7 +3726,7 @@
       <c r="H52" s="55"/>
       <c r="I52" s="61"/>
     </row>
-    <row r="53" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="39">
         <v>43965</v>
       </c>
@@ -3723,7 +3738,7 @@
       <c r="H53" s="55"/>
       <c r="I53" s="61"/>
     </row>
-    <row r="54" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="39">
         <v>43966</v>
       </c>
@@ -3735,7 +3750,7 @@
       <c r="H54" s="55"/>
       <c r="I54" s="61"/>
     </row>
-    <row r="55" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="39">
         <v>43967</v>
       </c>
@@ -3747,7 +3762,7 @@
       <c r="H55" s="55"/>
       <c r="I55" s="61"/>
     </row>
-    <row r="56" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="39">
         <v>43968</v>
       </c>
@@ -3759,7 +3774,7 @@
       <c r="H56" s="55"/>
       <c r="I56" s="61"/>
     </row>
-    <row r="57" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="39">
         <v>43969</v>
       </c>
@@ -3771,7 +3786,7 @@
       <c r="H57" s="55"/>
       <c r="I57" s="61"/>
     </row>
-    <row r="58" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="39">
         <v>43970</v>
       </c>
@@ -3795,7 +3810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="39">
         <v>43971</v>
       </c>
@@ -3815,7 +3830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="39">
         <v>43972</v>
       </c>
@@ -3835,7 +3850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="39">
         <v>43973</v>
       </c>
@@ -3855,7 +3870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="39">
         <v>43974</v>
       </c>
@@ -3875,7 +3890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="39">
         <v>43975</v>
       </c>
@@ -3895,7 +3910,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="39">
         <v>43976</v>
       </c>
@@ -3915,7 +3930,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="39">
         <v>43977</v>
       </c>
@@ -3935,7 +3950,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="39">
         <v>43978</v>
       </c>
@@ -3955,7 +3970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="39">
         <v>43979</v>
       </c>
@@ -3975,7 +3990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="39">
         <v>43980</v>
       </c>
@@ -3997,7 +4012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="39">
         <v>43981</v>
       </c>
@@ -4017,7 +4032,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A70" s="42">
         <v>43982</v>
       </c>
@@ -4037,7 +4052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="41">
         <v>43983</v>
       </c>
@@ -4059,7 +4074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="39">
         <v>43984</v>
       </c>
@@ -4081,7 +4096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="39">
         <v>43985</v>
       </c>
@@ -4103,7 +4118,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="39">
         <v>43986</v>
       </c>
@@ -4125,7 +4140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A75" s="39">
         <v>43987</v>
       </c>
@@ -4147,7 +4162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="39">
         <v>43988</v>
       </c>
@@ -4167,7 +4182,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="39">
         <v>43989</v>
       </c>
@@ -4187,7 +4202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="39">
         <v>43990</v>
       </c>
@@ -4207,7 +4222,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="39">
         <v>43991</v>
       </c>
@@ -4227,7 +4242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="39">
         <v>43992</v>
       </c>
@@ -4247,7 +4262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="39">
         <v>43993</v>
       </c>
@@ -4267,7 +4282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="39">
         <v>43994</v>
       </c>
@@ -4287,7 +4302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="39">
         <v>43995</v>
       </c>
@@ -4307,7 +4322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="39">
         <v>43996</v>
       </c>
@@ -4327,7 +4342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="39">
         <v>43997</v>
       </c>
@@ -4351,7 +4366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="39">
         <v>43998</v>
       </c>
@@ -4373,7 +4388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="39">
         <v>43999</v>
       </c>
@@ -4395,7 +4410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="39">
         <v>44000</v>
       </c>
@@ -4415,7 +4430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="39">
         <v>44001</v>
       </c>
@@ -4435,7 +4450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="39">
         <v>44002</v>
       </c>
@@ -4455,7 +4470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="39">
         <v>44003</v>
       </c>
@@ -4475,7 +4490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="39">
         <v>44004</v>
       </c>
@@ -4495,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="39">
         <v>44005</v>
       </c>
@@ -4515,7 +4530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="39">
         <v>44006</v>
       </c>
@@ -4535,7 +4550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="39">
         <v>44007</v>
       </c>
@@ -4555,7 +4570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="39">
         <v>44008</v>
       </c>
@@ -4575,7 +4590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="39">
         <v>44009</v>
       </c>
@@ -4595,7 +4610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="39">
         <v>44010</v>
       </c>
@@ -4615,7 +4630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="39">
         <v>44011</v>
       </c>
@@ -4635,7 +4650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A100" s="42">
         <v>44012</v>
       </c>
@@ -4659,7 +4674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="41">
         <v>44013</v>
       </c>
@@ -4681,7 +4696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="39">
         <v>44014</v>
       </c>
@@ -4703,7 +4718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="39">
         <v>44015</v>
       </c>
@@ -4723,7 +4738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="39">
         <v>44016</v>
       </c>
@@ -4743,7 +4758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="39">
         <v>44017</v>
       </c>
@@ -4763,7 +4778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="39">
         <v>44018</v>
       </c>
@@ -4783,7 +4798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="39">
         <v>44019</v>
       </c>
@@ -4803,7 +4818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="39">
         <v>44020</v>
       </c>
@@ -4823,7 +4838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="39">
         <v>44021</v>
       </c>
@@ -4836,10 +4851,14 @@
       <c r="D109" s="18"/>
       <c r="E109" s="19"/>
       <c r="F109" s="12"/>
-      <c r="H109" s="55"/>
-      <c r="I109" s="61"/>
-    </row>
-    <row r="110" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H109" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="I109" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="39">
         <v>44022</v>
       </c>
@@ -4855,7 +4874,7 @@
       <c r="H110" s="55"/>
       <c r="I110" s="61"/>
     </row>
-    <row r="111" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="39">
         <v>44023</v>
       </c>
@@ -4871,7 +4890,7 @@
       <c r="H111" s="55"/>
       <c r="I111" s="61"/>
     </row>
-    <row r="112" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="39">
         <v>44024</v>
       </c>
@@ -4887,7 +4906,7 @@
       <c r="H112" s="55"/>
       <c r="I112" s="61"/>
     </row>
-    <row r="113" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="39">
         <v>44025</v>
       </c>
@@ -4903,7 +4922,7 @@
       <c r="H113" s="55"/>
       <c r="I113" s="61"/>
     </row>
-    <row r="114" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="39">
         <v>44026</v>
       </c>
@@ -4919,7 +4938,7 @@
       <c r="H114" s="55"/>
       <c r="I114" s="61"/>
     </row>
-    <row r="115" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="39">
         <v>44027</v>
       </c>
@@ -4939,7 +4958,7 @@
       <c r="H115" s="55"/>
       <c r="I115" s="61"/>
     </row>
-    <row r="116" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="39">
         <v>44028</v>
       </c>
@@ -4957,7 +4976,7 @@
       <c r="H116" s="55"/>
       <c r="I116" s="61"/>
     </row>
-    <row r="117" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="39">
         <v>44029</v>
       </c>
@@ -4975,7 +4994,7 @@
       <c r="H117" s="55"/>
       <c r="I117" s="61"/>
     </row>
-    <row r="118" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="39">
         <v>44030</v>
       </c>
@@ -4991,7 +5010,7 @@
       <c r="H118" s="55"/>
       <c r="I118" s="61"/>
     </row>
-    <row r="119" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="39">
         <v>44031</v>
       </c>
@@ -5007,7 +5026,7 @@
       <c r="H119" s="55"/>
       <c r="I119" s="61"/>
     </row>
-    <row r="120" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="39">
         <v>44032</v>
       </c>
@@ -5023,7 +5042,7 @@
       <c r="H120" s="55"/>
       <c r="I120" s="61"/>
     </row>
-    <row r="121" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="39">
         <v>44033</v>
       </c>
@@ -5039,7 +5058,7 @@
       <c r="H121" s="55"/>
       <c r="I121" s="61"/>
     </row>
-    <row r="122" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="39">
         <v>44034</v>
       </c>
@@ -5055,7 +5074,7 @@
       <c r="H122" s="55"/>
       <c r="I122" s="61"/>
     </row>
-    <row r="123" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="39">
         <v>44035</v>
       </c>
@@ -5071,7 +5090,7 @@
       <c r="H123" s="55"/>
       <c r="I123" s="61"/>
     </row>
-    <row r="124" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="39">
         <v>44036</v>
       </c>
@@ -5087,7 +5106,7 @@
       <c r="H124" s="55"/>
       <c r="I124" s="61"/>
     </row>
-    <row r="125" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="39">
         <v>44037</v>
       </c>
@@ -5103,7 +5122,7 @@
       <c r="H125" s="55"/>
       <c r="I125" s="61"/>
     </row>
-    <row r="126" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="39">
         <v>44038</v>
       </c>
@@ -5119,7 +5138,7 @@
       <c r="H126" s="55"/>
       <c r="I126" s="61"/>
     </row>
-    <row r="127" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="39">
         <v>44039</v>
       </c>
@@ -5135,7 +5154,7 @@
       <c r="H127" s="55"/>
       <c r="I127" s="61"/>
     </row>
-    <row r="128" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="39">
         <v>44040</v>
       </c>
@@ -5151,7 +5170,7 @@
       <c r="H128" s="55"/>
       <c r="I128" s="61"/>
     </row>
-    <row r="129" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="39">
         <v>44041</v>
       </c>
@@ -5167,7 +5186,7 @@
       <c r="H129" s="55"/>
       <c r="I129" s="61"/>
     </row>
-    <row r="130" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="39">
         <v>44042</v>
       </c>
@@ -5183,7 +5202,7 @@
       <c r="H130" s="55"/>
       <c r="I130" s="61"/>
     </row>
-    <row r="131" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A131" s="42">
         <v>44043</v>
       </c>
@@ -5203,7 +5222,7 @@
       <c r="H131" s="56"/>
       <c r="I131" s="62"/>
     </row>
-    <row r="132" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="41">
         <v>44044</v>
       </c>
@@ -5219,7 +5238,7 @@
       <c r="H132" s="57"/>
       <c r="I132" s="63"/>
     </row>
-    <row r="133" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="39">
         <v>44045</v>
       </c>
@@ -5235,7 +5254,7 @@
       <c r="H133" s="55"/>
       <c r="I133" s="61"/>
     </row>
-    <row r="134" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="39">
         <v>44046</v>
       </c>
@@ -5253,7 +5272,7 @@
       <c r="H134" s="55"/>
       <c r="I134" s="61"/>
     </row>
-    <row r="135" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="39">
         <v>44047</v>
       </c>
@@ -5271,7 +5290,7 @@
       <c r="H135" s="55"/>
       <c r="I135" s="61"/>
     </row>
-    <row r="136" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="39">
         <v>44048</v>
       </c>
@@ -5287,7 +5306,7 @@
       <c r="H136" s="55"/>
       <c r="I136" s="61"/>
     </row>
-    <row r="137" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="39">
         <v>44049</v>
       </c>
@@ -5303,7 +5322,7 @@
       <c r="H137" s="55"/>
       <c r="I137" s="61"/>
     </row>
-    <row r="138" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="39">
         <v>44050</v>
       </c>
@@ -5319,7 +5338,7 @@
       <c r="H138" s="55"/>
       <c r="I138" s="61"/>
     </row>
-    <row r="139" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="39">
         <v>44051</v>
       </c>
@@ -5335,7 +5354,7 @@
       <c r="H139" s="55"/>
       <c r="I139" s="61"/>
     </row>
-    <row r="140" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="39">
         <v>44052</v>
       </c>
@@ -5351,7 +5370,7 @@
       <c r="H140" s="55"/>
       <c r="I140" s="61"/>
     </row>
-    <row r="141" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="39">
         <v>44053</v>
       </c>
@@ -5367,7 +5386,7 @@
       <c r="H141" s="55"/>
       <c r="I141" s="61"/>
     </row>
-    <row r="142" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="39">
         <v>44054</v>
       </c>
@@ -5383,7 +5402,7 @@
       <c r="H142" s="55"/>
       <c r="I142" s="61"/>
     </row>
-    <row r="143" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="39">
         <v>44055</v>
       </c>
@@ -5399,7 +5418,7 @@
       <c r="H143" s="55"/>
       <c r="I143" s="61"/>
     </row>
-    <row r="144" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="39">
         <v>44056</v>
       </c>
@@ -5415,7 +5434,7 @@
       <c r="H144" s="55"/>
       <c r="I144" s="61"/>
     </row>
-    <row r="145" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="39">
         <v>44057</v>
       </c>
@@ -5431,7 +5450,7 @@
       <c r="H145" s="55"/>
       <c r="I145" s="61"/>
     </row>
-    <row r="146" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="39">
         <v>44058</v>
       </c>
@@ -5447,7 +5466,7 @@
       <c r="H146" s="55"/>
       <c r="I146" s="61"/>
     </row>
-    <row r="147" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="39">
         <v>44059</v>
       </c>
@@ -5463,7 +5482,7 @@
       <c r="H147" s="55"/>
       <c r="I147" s="61"/>
     </row>
-    <row r="148" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="39">
         <v>44060</v>
       </c>
@@ -5483,7 +5502,7 @@
       <c r="H148" s="55"/>
       <c r="I148" s="61"/>
     </row>
-    <row r="149" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="39">
         <v>44061</v>
       </c>
@@ -5501,7 +5520,7 @@
       <c r="H149" s="55"/>
       <c r="I149" s="61"/>
     </row>
-    <row r="150" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="39">
         <v>44062</v>
       </c>
@@ -5519,7 +5538,7 @@
       <c r="H150" s="55"/>
       <c r="I150" s="61"/>
     </row>
-    <row r="151" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="39">
         <v>44063</v>
       </c>
@@ -5535,7 +5554,7 @@
       <c r="H151" s="55"/>
       <c r="I151" s="61"/>
     </row>
-    <row r="152" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="39">
         <v>44064</v>
       </c>
@@ -5551,7 +5570,7 @@
       <c r="H152" s="55"/>
       <c r="I152" s="61"/>
     </row>
-    <row r="153" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="39">
         <v>44065</v>
       </c>
@@ -5567,7 +5586,7 @@
       <c r="H153" s="55"/>
       <c r="I153" s="61"/>
     </row>
-    <row r="154" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="39">
         <v>44066</v>
       </c>
@@ -5583,7 +5602,7 @@
       <c r="H154" s="55"/>
       <c r="I154" s="61"/>
     </row>
-    <row r="155" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="39">
         <v>44067</v>
       </c>
@@ -5599,7 +5618,7 @@
       <c r="H155" s="55"/>
       <c r="I155" s="61"/>
     </row>
-    <row r="156" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="39">
         <v>44068</v>
       </c>
@@ -5615,7 +5634,7 @@
       <c r="H156" s="55"/>
       <c r="I156" s="61"/>
     </row>
-    <row r="157" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="39">
         <v>44069</v>
       </c>
@@ -5631,7 +5650,7 @@
       <c r="H157" s="55"/>
       <c r="I157" s="61"/>
     </row>
-    <row r="158" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="39">
         <v>44070</v>
       </c>
@@ -5647,7 +5666,7 @@
       <c r="H158" s="55"/>
       <c r="I158" s="61"/>
     </row>
-    <row r="159" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="39">
         <v>44071</v>
       </c>
@@ -5663,7 +5682,7 @@
       <c r="H159" s="55"/>
       <c r="I159" s="61"/>
     </row>
-    <row r="160" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="39">
         <v>44072</v>
       </c>
@@ -5679,7 +5698,7 @@
       <c r="H160" s="55"/>
       <c r="I160" s="61"/>
     </row>
-    <row r="161" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="39">
         <v>44073</v>
       </c>
@@ -5695,7 +5714,7 @@
       <c r="H161" s="55"/>
       <c r="I161" s="61"/>
     </row>
-    <row r="162" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A162" s="42">
         <v>44074</v>
       </c>
@@ -5715,7 +5734,7 @@
       <c r="H162" s="56"/>
       <c r="I162" s="62"/>
     </row>
-    <row r="163" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="38">
         <v>44075</v>
       </c>
@@ -5733,7 +5752,7 @@
       <c r="H163" s="58"/>
       <c r="I163" s="64"/>
     </row>
-    <row r="164" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="39">
         <v>44076</v>
       </c>
@@ -5751,7 +5770,7 @@
       <c r="H164" s="55"/>
       <c r="I164" s="61"/>
     </row>
-    <row r="165" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="39">
         <v>44077</v>
       </c>
@@ -5767,7 +5786,7 @@
       <c r="H165" s="55"/>
       <c r="I165" s="61"/>
     </row>
-    <row r="166" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="39">
         <v>44078</v>
       </c>
@@ -5783,7 +5802,7 @@
       <c r="H166" s="55"/>
       <c r="I166" s="61"/>
     </row>
-    <row r="167" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="39">
         <v>44079</v>
       </c>
@@ -5799,7 +5818,7 @@
       <c r="H167" s="55"/>
       <c r="I167" s="61"/>
     </row>
-    <row r="168" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="39">
         <v>44080</v>
       </c>
@@ -5815,7 +5834,7 @@
       <c r="H168" s="55"/>
       <c r="I168" s="61"/>
     </row>
-    <row r="169" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="39">
         <v>44081</v>
       </c>
@@ -5831,7 +5850,7 @@
       <c r="H169" s="55"/>
       <c r="I169" s="61"/>
     </row>
-    <row r="170" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="39">
         <v>44082</v>
       </c>
@@ -5847,7 +5866,7 @@
       <c r="H170" s="55"/>
       <c r="I170" s="61"/>
     </row>
-    <row r="171" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="39">
         <v>44083</v>
       </c>
@@ -5863,7 +5882,7 @@
       <c r="H171" s="55"/>
       <c r="I171" s="61"/>
     </row>
-    <row r="172" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="39">
         <v>44084</v>
       </c>
@@ -5879,7 +5898,7 @@
       <c r="H172" s="55"/>
       <c r="I172" s="61"/>
     </row>
-    <row r="173" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="39">
         <v>44085</v>
       </c>
@@ -5895,7 +5914,7 @@
       <c r="H173" s="55"/>
       <c r="I173" s="61"/>
     </row>
-    <row r="174" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="39">
         <v>44086</v>
       </c>
@@ -5911,7 +5930,7 @@
       <c r="H174" s="55"/>
       <c r="I174" s="61"/>
     </row>
-    <row r="175" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="39">
         <v>44087</v>
       </c>
@@ -5927,7 +5946,7 @@
       <c r="H175" s="55"/>
       <c r="I175" s="61"/>
     </row>
-    <row r="176" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="39">
         <v>44088</v>
       </c>
@@ -5949,7 +5968,7 @@
       <c r="H176" s="55"/>
       <c r="I176" s="61"/>
     </row>
-    <row r="177" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="39">
         <v>44089</v>
       </c>
@@ -5969,7 +5988,7 @@
       <c r="H177" s="55"/>
       <c r="I177" s="61"/>
     </row>
-    <row r="178" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="39">
         <v>44090</v>
       </c>
@@ -5989,7 +6008,7 @@
       <c r="H178" s="55"/>
       <c r="I178" s="61"/>
     </row>
-    <row r="179" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="39">
         <v>44091</v>
       </c>
@@ -6007,7 +6026,7 @@
       <c r="H179" s="55"/>
       <c r="I179" s="61"/>
     </row>
-    <row r="180" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="39">
         <v>44092</v>
       </c>
@@ -6025,7 +6044,7 @@
       <c r="H180" s="55"/>
       <c r="I180" s="61"/>
     </row>
-    <row r="181" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="39">
         <v>44093</v>
       </c>
@@ -6043,7 +6062,7 @@
       <c r="H181" s="55"/>
       <c r="I181" s="61"/>
     </row>
-    <row r="182" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="39">
         <v>44094</v>
       </c>
@@ -6061,7 +6080,7 @@
       <c r="H182" s="55"/>
       <c r="I182" s="61"/>
     </row>
-    <row r="183" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="39">
         <v>44095</v>
       </c>
@@ -6081,7 +6100,7 @@
       <c r="H183" s="55"/>
       <c r="I183" s="61"/>
     </row>
-    <row r="184" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="39">
         <v>44096</v>
       </c>
@@ -6101,7 +6120,7 @@
       <c r="H184" s="55"/>
       <c r="I184" s="61"/>
     </row>
-    <row r="185" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="39">
         <v>44097</v>
       </c>
@@ -6121,7 +6140,7 @@
       <c r="H185" s="55"/>
       <c r="I185" s="61"/>
     </row>
-    <row r="186" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="39">
         <v>44098</v>
       </c>
@@ -6141,7 +6160,7 @@
       <c r="H186" s="55"/>
       <c r="I186" s="61"/>
     </row>
-    <row r="187" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A187" s="42">
         <v>44099</v>
       </c>
@@ -6195,6 +6214,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -6320,15 +6348,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
   <ds:schemaRefs>
@@ -6340,6 +6359,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6355,12 +6382,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\兼子凌\Documents\授業\3年授業\前期ゲーム制作\SansuBattle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9539FDE-D052-4C58-9408-98CE8EBC78C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="142">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1882,6 +1883,23 @@
       <t>ショリ</t>
     </rPh>
     <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームモード(+*)追加。</t>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題クラス修正。</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
       <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1890,7 +1908,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;月&quot;dd&quot;日&quot;\(aaa\)"/>
   </numFmts>
@@ -3088,27 +3106,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D97" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H110" sqref="H110"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="50.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="50.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="1.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="50.58203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="35" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="35.25" x14ac:dyDescent="0.4">
       <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
@@ -3118,7 +3136,7 @@
       <c r="E1" s="74"/>
       <c r="F1" s="74"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="75" t="s">
         <v>1</v>
       </c>
@@ -3130,7 +3148,7 @@
       <c r="E2" s="75"/>
       <c r="F2" s="75"/>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="69" t="s">
         <v>36</v>
       </c>
@@ -3142,7 +3160,7 @@
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
     </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -3150,7 +3168,7 @@
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="70" t="s">
         <v>3</v>
       </c>
@@ -3164,7 +3182,7 @@
       </c>
       <c r="F5" s="71"/>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="69" t="s">
         <v>38</v>
       </c>
@@ -3178,7 +3196,7 @@
       </c>
       <c r="F6" s="73"/>
     </row>
-    <row r="8" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3186,7 +3204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="37"/>
       <c r="B9" s="33" t="s">
         <v>8</v>
@@ -3210,7 +3228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="38">
         <v>43922</v>
       </c>
@@ -3222,7 +3240,7 @@
       <c r="H10" s="51"/>
       <c r="I10" s="60"/>
     </row>
-    <row r="11" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="39">
         <v>43923</v>
       </c>
@@ -3234,7 +3252,7 @@
       <c r="H11" s="51"/>
       <c r="I11" s="60"/>
     </row>
-    <row r="12" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="39">
         <v>43924</v>
       </c>
@@ -3246,7 +3264,7 @@
       <c r="H12" s="51"/>
       <c r="I12" s="60"/>
     </row>
-    <row r="13" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="39">
         <v>43925</v>
       </c>
@@ -3258,7 +3276,7 @@
       <c r="H13" s="51"/>
       <c r="I13" s="60"/>
     </row>
-    <row r="14" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="39">
         <v>43926</v>
       </c>
@@ -3270,7 +3288,7 @@
       <c r="H14" s="51"/>
       <c r="I14" s="60"/>
     </row>
-    <row r="15" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="39">
         <v>43927</v>
       </c>
@@ -3282,7 +3300,7 @@
       <c r="H15" s="51"/>
       <c r="I15" s="60"/>
     </row>
-    <row r="16" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="39">
         <v>43928</v>
       </c>
@@ -3294,7 +3312,7 @@
       <c r="H16" s="51"/>
       <c r="I16" s="60"/>
     </row>
-    <row r="17" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="39">
         <v>43929</v>
       </c>
@@ -3306,7 +3324,7 @@
       <c r="H17" s="51"/>
       <c r="I17" s="60"/>
     </row>
-    <row r="18" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="39">
         <v>43930</v>
       </c>
@@ -3318,7 +3336,7 @@
       <c r="H18" s="51"/>
       <c r="I18" s="60"/>
     </row>
-    <row r="19" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="39">
         <v>43931</v>
       </c>
@@ -3330,7 +3348,7 @@
       <c r="H19" s="51"/>
       <c r="I19" s="60"/>
     </row>
-    <row r="20" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="39">
         <v>43932</v>
       </c>
@@ -3342,7 +3360,7 @@
       <c r="H20" s="51"/>
       <c r="I20" s="60"/>
     </row>
-    <row r="21" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="39">
         <v>43933</v>
       </c>
@@ -3354,7 +3372,7 @@
       <c r="H21" s="51"/>
       <c r="I21" s="60"/>
     </row>
-    <row r="22" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="39">
         <v>43934</v>
       </c>
@@ -3366,7 +3384,7 @@
       <c r="H22" s="51"/>
       <c r="I22" s="60"/>
     </row>
-    <row r="23" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="39">
         <v>43935</v>
       </c>
@@ -3378,7 +3396,7 @@
       <c r="H23" s="51"/>
       <c r="I23" s="60"/>
     </row>
-    <row r="24" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="39">
         <v>43936</v>
       </c>
@@ -3390,7 +3408,7 @@
       <c r="H24" s="51"/>
       <c r="I24" s="60"/>
     </row>
-    <row r="25" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="39">
         <v>43937</v>
       </c>
@@ -3402,7 +3420,7 @@
       <c r="H25" s="51"/>
       <c r="I25" s="60"/>
     </row>
-    <row r="26" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="39">
         <v>43938</v>
       </c>
@@ -3414,7 +3432,7 @@
       <c r="H26" s="51"/>
       <c r="I26" s="60"/>
     </row>
-    <row r="27" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="39">
         <v>43939</v>
       </c>
@@ -3426,7 +3444,7 @@
       <c r="H27" s="51"/>
       <c r="I27" s="60"/>
     </row>
-    <row r="28" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="39">
         <v>43940</v>
       </c>
@@ -3438,7 +3456,7 @@
       <c r="H28" s="51"/>
       <c r="I28" s="60"/>
     </row>
-    <row r="29" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="39">
         <v>43941</v>
       </c>
@@ -3450,7 +3468,7 @@
       <c r="H29" s="51"/>
       <c r="I29" s="60"/>
     </row>
-    <row r="30" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="39">
         <v>43942</v>
       </c>
@@ -3462,7 +3480,7 @@
       <c r="H30" s="51"/>
       <c r="I30" s="60"/>
     </row>
-    <row r="31" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="39">
         <v>43943</v>
       </c>
@@ -3474,7 +3492,7 @@
       <c r="H31" s="51"/>
       <c r="I31" s="60"/>
     </row>
-    <row r="32" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="39">
         <v>43944</v>
       </c>
@@ -3486,7 +3504,7 @@
       <c r="H32" s="51"/>
       <c r="I32" s="60"/>
     </row>
-    <row r="33" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="39">
         <v>43945</v>
       </c>
@@ -3498,7 +3516,7 @@
       <c r="H33" s="51"/>
       <c r="I33" s="60"/>
     </row>
-    <row r="34" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="39">
         <v>43946</v>
       </c>
@@ -3510,7 +3528,7 @@
       <c r="H34" s="51"/>
       <c r="I34" s="60"/>
     </row>
-    <row r="35" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="39">
         <v>43947</v>
       </c>
@@ -3522,7 +3540,7 @@
       <c r="H35" s="51"/>
       <c r="I35" s="60"/>
     </row>
-    <row r="36" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="39">
         <v>43948</v>
       </c>
@@ -3534,7 +3552,7 @@
       <c r="H36" s="51"/>
       <c r="I36" s="60"/>
     </row>
-    <row r="37" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="39">
         <v>43949</v>
       </c>
@@ -3546,7 +3564,7 @@
       <c r="H37" s="51"/>
       <c r="I37" s="60"/>
     </row>
-    <row r="38" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="39">
         <v>43950</v>
       </c>
@@ -3558,7 +3576,7 @@
       <c r="H38" s="51"/>
       <c r="I38" s="60"/>
     </row>
-    <row r="39" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="40">
         <v>43951</v>
       </c>
@@ -3570,7 +3588,7 @@
       <c r="H39" s="51"/>
       <c r="I39" s="60"/>
     </row>
-    <row r="40" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <v>43952</v>
       </c>
@@ -3582,7 +3600,7 @@
       <c r="H40" s="55"/>
       <c r="I40" s="61"/>
     </row>
-    <row r="41" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="39">
         <v>43953</v>
       </c>
@@ -3594,7 +3612,7 @@
       <c r="H41" s="55"/>
       <c r="I41" s="61"/>
     </row>
-    <row r="42" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="39">
         <v>43954</v>
       </c>
@@ -3606,7 +3624,7 @@
       <c r="H42" s="55"/>
       <c r="I42" s="61"/>
     </row>
-    <row r="43" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="39">
         <v>43955</v>
       </c>
@@ -3618,7 +3636,7 @@
       <c r="H43" s="55"/>
       <c r="I43" s="61"/>
     </row>
-    <row r="44" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="39">
         <v>43956</v>
       </c>
@@ -3630,7 +3648,7 @@
       <c r="H44" s="55"/>
       <c r="I44" s="61"/>
     </row>
-    <row r="45" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="39">
         <v>43957</v>
       </c>
@@ -3642,7 +3660,7 @@
       <c r="H45" s="55"/>
       <c r="I45" s="61"/>
     </row>
-    <row r="46" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="39">
         <v>43958</v>
       </c>
@@ -3654,7 +3672,7 @@
       <c r="H46" s="55"/>
       <c r="I46" s="61"/>
     </row>
-    <row r="47" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="39">
         <v>43959</v>
       </c>
@@ -3666,7 +3684,7 @@
       <c r="H47" s="55"/>
       <c r="I47" s="61"/>
     </row>
-    <row r="48" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="39">
         <v>43960</v>
       </c>
@@ -3678,7 +3696,7 @@
       <c r="H48" s="55"/>
       <c r="I48" s="61"/>
     </row>
-    <row r="49" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="39">
         <v>43961</v>
       </c>
@@ -3690,7 +3708,7 @@
       <c r="H49" s="55"/>
       <c r="I49" s="61"/>
     </row>
-    <row r="50" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="39">
         <v>43962</v>
       </c>
@@ -3702,7 +3720,7 @@
       <c r="H50" s="55"/>
       <c r="I50" s="61"/>
     </row>
-    <row r="51" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="39">
         <v>43963</v>
       </c>
@@ -3714,7 +3732,7 @@
       <c r="H51" s="55"/>
       <c r="I51" s="61"/>
     </row>
-    <row r="52" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="39">
         <v>43964</v>
       </c>
@@ -3726,7 +3744,7 @@
       <c r="H52" s="55"/>
       <c r="I52" s="61"/>
     </row>
-    <row r="53" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="39">
         <v>43965</v>
       </c>
@@ -3738,7 +3756,7 @@
       <c r="H53" s="55"/>
       <c r="I53" s="61"/>
     </row>
-    <row r="54" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="39">
         <v>43966</v>
       </c>
@@ -3750,7 +3768,7 @@
       <c r="H54" s="55"/>
       <c r="I54" s="61"/>
     </row>
-    <row r="55" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="39">
         <v>43967</v>
       </c>
@@ -3762,7 +3780,7 @@
       <c r="H55" s="55"/>
       <c r="I55" s="61"/>
     </row>
-    <row r="56" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="39">
         <v>43968</v>
       </c>
@@ -3774,7 +3792,7 @@
       <c r="H56" s="55"/>
       <c r="I56" s="61"/>
     </row>
-    <row r="57" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="39">
         <v>43969</v>
       </c>
@@ -3786,7 +3804,7 @@
       <c r="H57" s="55"/>
       <c r="I57" s="61"/>
     </row>
-    <row r="58" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="39">
         <v>43970</v>
       </c>
@@ -3810,7 +3828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="39">
         <v>43971</v>
       </c>
@@ -3830,7 +3848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="39">
         <v>43972</v>
       </c>
@@ -3850,7 +3868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="39">
         <v>43973</v>
       </c>
@@ -3870,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="39">
         <v>43974</v>
       </c>
@@ -3890,7 +3908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="39">
         <v>43975</v>
       </c>
@@ -3910,7 +3928,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="39">
         <v>43976</v>
       </c>
@@ -3930,7 +3948,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="39">
         <v>43977</v>
       </c>
@@ -3950,7 +3968,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="39">
         <v>43978</v>
       </c>
@@ -3970,7 +3988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="39">
         <v>43979</v>
       </c>
@@ -3990,7 +4008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="39">
         <v>43980</v>
       </c>
@@ -4012,7 +4030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="39">
         <v>43981</v>
       </c>
@@ -4032,7 +4050,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="42">
         <v>43982</v>
       </c>
@@ -4052,7 +4070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="41">
         <v>43983</v>
       </c>
@@ -4074,7 +4092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="39">
         <v>43984</v>
       </c>
@@ -4096,7 +4114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="39">
         <v>43985</v>
       </c>
@@ -4118,7 +4136,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="39">
         <v>43986</v>
       </c>
@@ -4140,7 +4158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="39">
         <v>43987</v>
       </c>
@@ -4162,7 +4180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="39">
         <v>43988</v>
       </c>
@@ -4182,7 +4200,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="39">
         <v>43989</v>
       </c>
@@ -4202,7 +4220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="39">
         <v>43990</v>
       </c>
@@ -4222,7 +4240,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="39">
         <v>43991</v>
       </c>
@@ -4242,7 +4260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="39">
         <v>43992</v>
       </c>
@@ -4262,7 +4280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="39">
         <v>43993</v>
       </c>
@@ -4282,7 +4300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="39">
         <v>43994</v>
       </c>
@@ -4302,7 +4320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="39">
         <v>43995</v>
       </c>
@@ -4322,7 +4340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="39">
         <v>43996</v>
       </c>
@@ -4342,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="39">
         <v>43997</v>
       </c>
@@ -4366,7 +4384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="39">
         <v>43998</v>
       </c>
@@ -4388,7 +4406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="39">
         <v>43999</v>
       </c>
@@ -4410,7 +4428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="39">
         <v>44000</v>
       </c>
@@ -4430,7 +4448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="39">
         <v>44001</v>
       </c>
@@ -4450,7 +4468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="39">
         <v>44002</v>
       </c>
@@ -4470,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="39">
         <v>44003</v>
       </c>
@@ -4490,7 +4508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="39">
         <v>44004</v>
       </c>
@@ -4510,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="39">
         <v>44005</v>
       </c>
@@ -4530,7 +4548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="39">
         <v>44006</v>
       </c>
@@ -4550,7 +4568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="39">
         <v>44007</v>
       </c>
@@ -4570,7 +4588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="39">
         <v>44008</v>
       </c>
@@ -4590,7 +4608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="39">
         <v>44009</v>
       </c>
@@ -4610,7 +4628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="39">
         <v>44010</v>
       </c>
@@ -4630,7 +4648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="39">
         <v>44011</v>
       </c>
@@ -4650,7 +4668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A100" s="42">
         <v>44012</v>
       </c>
@@ -4674,7 +4692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="41">
         <v>44013</v>
       </c>
@@ -4696,7 +4714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="39">
         <v>44014</v>
       </c>
@@ -4718,7 +4736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="39">
         <v>44015</v>
       </c>
@@ -4738,7 +4756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="39">
         <v>44016</v>
       </c>
@@ -4758,7 +4776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="39">
         <v>44017</v>
       </c>
@@ -4778,7 +4796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="39">
         <v>44018</v>
       </c>
@@ -4798,7 +4816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="39">
         <v>44019</v>
       </c>
@@ -4818,7 +4836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="39">
         <v>44020</v>
       </c>
@@ -4838,7 +4856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="39">
         <v>44021</v>
       </c>
@@ -4858,7 +4876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="39">
         <v>44022</v>
       </c>
@@ -4871,10 +4889,14 @@
       <c r="D110" s="18"/>
       <c r="E110" s="19"/>
       <c r="F110" s="12"/>
-      <c r="H110" s="55"/>
-      <c r="I110" s="61"/>
-    </row>
-    <row r="111" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H110" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="I110" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="39">
         <v>44023</v>
       </c>
@@ -4887,10 +4909,14 @@
       <c r="D111" s="18"/>
       <c r="E111" s="19"/>
       <c r="F111" s="12"/>
-      <c r="H111" s="55"/>
-      <c r="I111" s="61"/>
-    </row>
-    <row r="112" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H111" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="I111" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="39">
         <v>44024</v>
       </c>
@@ -4906,7 +4932,7 @@
       <c r="H112" s="55"/>
       <c r="I112" s="61"/>
     </row>
-    <row r="113" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="39">
         <v>44025</v>
       </c>
@@ -4922,7 +4948,7 @@
       <c r="H113" s="55"/>
       <c r="I113" s="61"/>
     </row>
-    <row r="114" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="39">
         <v>44026</v>
       </c>
@@ -4938,7 +4964,7 @@
       <c r="H114" s="55"/>
       <c r="I114" s="61"/>
     </row>
-    <row r="115" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="39">
         <v>44027</v>
       </c>
@@ -4958,7 +4984,7 @@
       <c r="H115" s="55"/>
       <c r="I115" s="61"/>
     </row>
-    <row r="116" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="39">
         <v>44028</v>
       </c>
@@ -4976,7 +5002,7 @@
       <c r="H116" s="55"/>
       <c r="I116" s="61"/>
     </row>
-    <row r="117" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="39">
         <v>44029</v>
       </c>
@@ -4994,7 +5020,7 @@
       <c r="H117" s="55"/>
       <c r="I117" s="61"/>
     </row>
-    <row r="118" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="39">
         <v>44030</v>
       </c>
@@ -5010,7 +5036,7 @@
       <c r="H118" s="55"/>
       <c r="I118" s="61"/>
     </row>
-    <row r="119" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="39">
         <v>44031</v>
       </c>
@@ -5026,7 +5052,7 @@
       <c r="H119" s="55"/>
       <c r="I119" s="61"/>
     </row>
-    <row r="120" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="39">
         <v>44032</v>
       </c>
@@ -5042,7 +5068,7 @@
       <c r="H120" s="55"/>
       <c r="I120" s="61"/>
     </row>
-    <row r="121" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="39">
         <v>44033</v>
       </c>
@@ -5058,7 +5084,7 @@
       <c r="H121" s="55"/>
       <c r="I121" s="61"/>
     </row>
-    <row r="122" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="39">
         <v>44034</v>
       </c>
@@ -5074,7 +5100,7 @@
       <c r="H122" s="55"/>
       <c r="I122" s="61"/>
     </row>
-    <row r="123" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="39">
         <v>44035</v>
       </c>
@@ -5090,7 +5116,7 @@
       <c r="H123" s="55"/>
       <c r="I123" s="61"/>
     </row>
-    <row r="124" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="39">
         <v>44036</v>
       </c>
@@ -5106,7 +5132,7 @@
       <c r="H124" s="55"/>
       <c r="I124" s="61"/>
     </row>
-    <row r="125" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="39">
         <v>44037</v>
       </c>
@@ -5122,7 +5148,7 @@
       <c r="H125" s="55"/>
       <c r="I125" s="61"/>
     </row>
-    <row r="126" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="39">
         <v>44038</v>
       </c>
@@ -5138,7 +5164,7 @@
       <c r="H126" s="55"/>
       <c r="I126" s="61"/>
     </row>
-    <row r="127" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="39">
         <v>44039</v>
       </c>
@@ -5154,7 +5180,7 @@
       <c r="H127" s="55"/>
       <c r="I127" s="61"/>
     </row>
-    <row r="128" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="39">
         <v>44040</v>
       </c>
@@ -5170,7 +5196,7 @@
       <c r="H128" s="55"/>
       <c r="I128" s="61"/>
     </row>
-    <row r="129" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="39">
         <v>44041</v>
       </c>
@@ -5186,7 +5212,7 @@
       <c r="H129" s="55"/>
       <c r="I129" s="61"/>
     </row>
-    <row r="130" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="39">
         <v>44042</v>
       </c>
@@ -5202,7 +5228,7 @@
       <c r="H130" s="55"/>
       <c r="I130" s="61"/>
     </row>
-    <row r="131" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A131" s="42">
         <v>44043</v>
       </c>
@@ -5222,7 +5248,7 @@
       <c r="H131" s="56"/>
       <c r="I131" s="62"/>
     </row>
-    <row r="132" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="41">
         <v>44044</v>
       </c>
@@ -5238,7 +5264,7 @@
       <c r="H132" s="57"/>
       <c r="I132" s="63"/>
     </row>
-    <row r="133" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="39">
         <v>44045</v>
       </c>
@@ -5254,7 +5280,7 @@
       <c r="H133" s="55"/>
       <c r="I133" s="61"/>
     </row>
-    <row r="134" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="39">
         <v>44046</v>
       </c>
@@ -5272,7 +5298,7 @@
       <c r="H134" s="55"/>
       <c r="I134" s="61"/>
     </row>
-    <row r="135" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="39">
         <v>44047</v>
       </c>
@@ -5290,7 +5316,7 @@
       <c r="H135" s="55"/>
       <c r="I135" s="61"/>
     </row>
-    <row r="136" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="39">
         <v>44048</v>
       </c>
@@ -5306,7 +5332,7 @@
       <c r="H136" s="55"/>
       <c r="I136" s="61"/>
     </row>
-    <row r="137" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="39">
         <v>44049</v>
       </c>
@@ -5322,7 +5348,7 @@
       <c r="H137" s="55"/>
       <c r="I137" s="61"/>
     </row>
-    <row r="138" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="39">
         <v>44050</v>
       </c>
@@ -5338,7 +5364,7 @@
       <c r="H138" s="55"/>
       <c r="I138" s="61"/>
     </row>
-    <row r="139" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="39">
         <v>44051</v>
       </c>
@@ -5354,7 +5380,7 @@
       <c r="H139" s="55"/>
       <c r="I139" s="61"/>
     </row>
-    <row r="140" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="39">
         <v>44052</v>
       </c>
@@ -5370,7 +5396,7 @@
       <c r="H140" s="55"/>
       <c r="I140" s="61"/>
     </row>
-    <row r="141" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="39">
         <v>44053</v>
       </c>
@@ -5386,7 +5412,7 @@
       <c r="H141" s="55"/>
       <c r="I141" s="61"/>
     </row>
-    <row r="142" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="39">
         <v>44054</v>
       </c>
@@ -5402,7 +5428,7 @@
       <c r="H142" s="55"/>
       <c r="I142" s="61"/>
     </row>
-    <row r="143" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="39">
         <v>44055</v>
       </c>
@@ -5418,7 +5444,7 @@
       <c r="H143" s="55"/>
       <c r="I143" s="61"/>
     </row>
-    <row r="144" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="39">
         <v>44056</v>
       </c>
@@ -5434,7 +5460,7 @@
       <c r="H144" s="55"/>
       <c r="I144" s="61"/>
     </row>
-    <row r="145" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="39">
         <v>44057</v>
       </c>
@@ -5450,7 +5476,7 @@
       <c r="H145" s="55"/>
       <c r="I145" s="61"/>
     </row>
-    <row r="146" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="39">
         <v>44058</v>
       </c>
@@ -5466,7 +5492,7 @@
       <c r="H146" s="55"/>
       <c r="I146" s="61"/>
     </row>
-    <row r="147" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="39">
         <v>44059</v>
       </c>
@@ -5482,7 +5508,7 @@
       <c r="H147" s="55"/>
       <c r="I147" s="61"/>
     </row>
-    <row r="148" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="39">
         <v>44060</v>
       </c>
@@ -5502,7 +5528,7 @@
       <c r="H148" s="55"/>
       <c r="I148" s="61"/>
     </row>
-    <row r="149" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="39">
         <v>44061</v>
       </c>
@@ -5520,7 +5546,7 @@
       <c r="H149" s="55"/>
       <c r="I149" s="61"/>
     </row>
-    <row r="150" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="39">
         <v>44062</v>
       </c>
@@ -5538,7 +5564,7 @@
       <c r="H150" s="55"/>
       <c r="I150" s="61"/>
     </row>
-    <row r="151" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="39">
         <v>44063</v>
       </c>
@@ -5554,7 +5580,7 @@
       <c r="H151" s="55"/>
       <c r="I151" s="61"/>
     </row>
-    <row r="152" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="39">
         <v>44064</v>
       </c>
@@ -5570,7 +5596,7 @@
       <c r="H152" s="55"/>
       <c r="I152" s="61"/>
     </row>
-    <row r="153" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="39">
         <v>44065</v>
       </c>
@@ -5586,7 +5612,7 @@
       <c r="H153" s="55"/>
       <c r="I153" s="61"/>
     </row>
-    <row r="154" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="39">
         <v>44066</v>
       </c>
@@ -5602,7 +5628,7 @@
       <c r="H154" s="55"/>
       <c r="I154" s="61"/>
     </row>
-    <row r="155" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="39">
         <v>44067</v>
       </c>
@@ -5618,7 +5644,7 @@
       <c r="H155" s="55"/>
       <c r="I155" s="61"/>
     </row>
-    <row r="156" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="39">
         <v>44068</v>
       </c>
@@ -5634,7 +5660,7 @@
       <c r="H156" s="55"/>
       <c r="I156" s="61"/>
     </row>
-    <row r="157" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="39">
         <v>44069</v>
       </c>
@@ -5650,7 +5676,7 @@
       <c r="H157" s="55"/>
       <c r="I157" s="61"/>
     </row>
-    <row r="158" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="39">
         <v>44070</v>
       </c>
@@ -5666,7 +5692,7 @@
       <c r="H158" s="55"/>
       <c r="I158" s="61"/>
     </row>
-    <row r="159" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="39">
         <v>44071</v>
       </c>
@@ -5682,7 +5708,7 @@
       <c r="H159" s="55"/>
       <c r="I159" s="61"/>
     </row>
-    <row r="160" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="39">
         <v>44072</v>
       </c>
@@ -5698,7 +5724,7 @@
       <c r="H160" s="55"/>
       <c r="I160" s="61"/>
     </row>
-    <row r="161" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="39">
         <v>44073</v>
       </c>
@@ -5714,7 +5740,7 @@
       <c r="H161" s="55"/>
       <c r="I161" s="61"/>
     </row>
-    <row r="162" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A162" s="42">
         <v>44074</v>
       </c>
@@ -5734,7 +5760,7 @@
       <c r="H162" s="56"/>
       <c r="I162" s="62"/>
     </row>
-    <row r="163" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="38">
         <v>44075</v>
       </c>
@@ -5752,7 +5778,7 @@
       <c r="H163" s="58"/>
       <c r="I163" s="64"/>
     </row>
-    <row r="164" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="39">
         <v>44076</v>
       </c>
@@ -5770,7 +5796,7 @@
       <c r="H164" s="55"/>
       <c r="I164" s="61"/>
     </row>
-    <row r="165" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="39">
         <v>44077</v>
       </c>
@@ -5786,7 +5812,7 @@
       <c r="H165" s="55"/>
       <c r="I165" s="61"/>
     </row>
-    <row r="166" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="39">
         <v>44078</v>
       </c>
@@ -5802,7 +5828,7 @@
       <c r="H166" s="55"/>
       <c r="I166" s="61"/>
     </row>
-    <row r="167" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="39">
         <v>44079</v>
       </c>
@@ -5818,7 +5844,7 @@
       <c r="H167" s="55"/>
       <c r="I167" s="61"/>
     </row>
-    <row r="168" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="39">
         <v>44080</v>
       </c>
@@ -5834,7 +5860,7 @@
       <c r="H168" s="55"/>
       <c r="I168" s="61"/>
     </row>
-    <row r="169" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="39">
         <v>44081</v>
       </c>
@@ -5850,7 +5876,7 @@
       <c r="H169" s="55"/>
       <c r="I169" s="61"/>
     </row>
-    <row r="170" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="39">
         <v>44082</v>
       </c>
@@ -5866,7 +5892,7 @@
       <c r="H170" s="55"/>
       <c r="I170" s="61"/>
     </row>
-    <row r="171" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="39">
         <v>44083</v>
       </c>
@@ -5882,7 +5908,7 @@
       <c r="H171" s="55"/>
       <c r="I171" s="61"/>
     </row>
-    <row r="172" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="39">
         <v>44084</v>
       </c>
@@ -5898,7 +5924,7 @@
       <c r="H172" s="55"/>
       <c r="I172" s="61"/>
     </row>
-    <row r="173" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="39">
         <v>44085</v>
       </c>
@@ -5914,7 +5940,7 @@
       <c r="H173" s="55"/>
       <c r="I173" s="61"/>
     </row>
-    <row r="174" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="39">
         <v>44086</v>
       </c>
@@ -5930,7 +5956,7 @@
       <c r="H174" s="55"/>
       <c r="I174" s="61"/>
     </row>
-    <row r="175" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="39">
         <v>44087</v>
       </c>
@@ -5946,7 +5972,7 @@
       <c r="H175" s="55"/>
       <c r="I175" s="61"/>
     </row>
-    <row r="176" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="39">
         <v>44088</v>
       </c>
@@ -5968,7 +5994,7 @@
       <c r="H176" s="55"/>
       <c r="I176" s="61"/>
     </row>
-    <row r="177" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="39">
         <v>44089</v>
       </c>
@@ -5988,7 +6014,7 @@
       <c r="H177" s="55"/>
       <c r="I177" s="61"/>
     </row>
-    <row r="178" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="39">
         <v>44090</v>
       </c>
@@ -6008,7 +6034,7 @@
       <c r="H178" s="55"/>
       <c r="I178" s="61"/>
     </row>
-    <row r="179" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="39">
         <v>44091</v>
       </c>
@@ -6026,7 +6052,7 @@
       <c r="H179" s="55"/>
       <c r="I179" s="61"/>
     </row>
-    <row r="180" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="39">
         <v>44092</v>
       </c>
@@ -6044,7 +6070,7 @@
       <c r="H180" s="55"/>
       <c r="I180" s="61"/>
     </row>
-    <row r="181" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="39">
         <v>44093</v>
       </c>
@@ -6062,7 +6088,7 @@
       <c r="H181" s="55"/>
       <c r="I181" s="61"/>
     </row>
-    <row r="182" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="39">
         <v>44094</v>
       </c>
@@ -6080,7 +6106,7 @@
       <c r="H182" s="55"/>
       <c r="I182" s="61"/>
     </row>
-    <row r="183" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="39">
         <v>44095</v>
       </c>
@@ -6100,7 +6126,7 @@
       <c r="H183" s="55"/>
       <c r="I183" s="61"/>
     </row>
-    <row r="184" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="39">
         <v>44096</v>
       </c>
@@ -6120,7 +6146,7 @@
       <c r="H184" s="55"/>
       <c r="I184" s="61"/>
     </row>
-    <row r="185" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="39">
         <v>44097</v>
       </c>
@@ -6140,7 +6166,7 @@
       <c r="H185" s="55"/>
       <c r="I185" s="61"/>
     </row>
-    <row r="186" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="39">
         <v>44098</v>
       </c>
@@ -6160,7 +6186,7 @@
       <c r="H186" s="55"/>
       <c r="I186" s="61"/>
     </row>
-    <row r="187" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="187" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A187" s="42">
         <v>44099</v>
       </c>
@@ -6206,23 +6232,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -6348,25 +6357,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6382,4 +6390,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9539FDE-D052-4C58-9408-98CE8EBC78C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4016C400-C4B1-4951-A0F5-DF656CFDB3AD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="143">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1901,6 +1901,22 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残りのゲームモード全て追加(修正点あり。)</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>シュウセイテン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3110,7 +3126,7 @@
   <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H111" sqref="H111"/>
+      <selection activeCell="I113" sqref="I113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4929,8 +4945,12 @@
       <c r="D112" s="18"/>
       <c r="E112" s="19"/>
       <c r="F112" s="12"/>
-      <c r="H112" s="55"/>
-      <c r="I112" s="61"/>
+      <c r="H112" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="I112" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="113" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="39">
@@ -6232,6 +6252,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -6357,24 +6394,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6390,22 +6428,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4016C400-C4B1-4951-A0F5-DF656CFDB3AD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B2951C-ED00-4B59-9B13-A54C09D28F9B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="143">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -3126,7 +3126,7 @@
   <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I113" sqref="I113"/>
+      <selection activeCell="I114" sqref="I114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4965,8 +4965,12 @@
       <c r="D113" s="18"/>
       <c r="E113" s="19"/>
       <c r="F113" s="12"/>
-      <c r="H113" s="55"/>
-      <c r="I113" s="61"/>
+      <c r="H113" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="I113" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="114" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="39">
@@ -6252,23 +6256,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -6394,25 +6381,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6428,4 +6414,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B2951C-ED00-4B59-9B13-A54C09D28F9B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1A976D-4480-42FC-9A24-576BE96EC690}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="144">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1917,6 +1917,19 @@
     </rPh>
     <rPh sb="14" eb="17">
       <t>シュウセイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択肢キー操作修正。</t>
+    <rPh sb="0" eb="3">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3125,8 +3138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I114" sqref="I114"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H115" sqref="H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4985,8 +4998,12 @@
       <c r="D114" s="18"/>
       <c r="E114" s="19"/>
       <c r="F114" s="12"/>
-      <c r="H114" s="55"/>
-      <c r="I114" s="61"/>
+      <c r="H114" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="I114" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="115" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="39">
@@ -6256,6 +6273,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -6381,24 +6415,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6414,22 +6449,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1A976D-4480-42FC-9A24-576BE96EC690}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42012C58-C49B-4A71-A80F-38D89F39EE78}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="145">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1930,6 +1930,19 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイナスの値を答えられるように変更。</t>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3139,7 +3152,7 @@
   <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H115" sqref="H115"/>
+      <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5022,8 +5035,12 @@
         <v>24</v>
       </c>
       <c r="F115" s="12"/>
-      <c r="H115" s="55"/>
-      <c r="I115" s="61"/>
+      <c r="H115" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="I115" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="116" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="39">
@@ -6273,23 +6290,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -6415,25 +6415,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6449,4 +6448,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42012C58-C49B-4A71-A80F-38D89F39EE78}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B378B0B2-B8B7-4448-9303-879B7204B56A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="145">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -3151,8 +3151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H116" sqref="H116"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="I120" sqref="I120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5057,8 +5057,12 @@
         <v>24</v>
       </c>
       <c r="F116" s="12"/>
-      <c r="H116" s="55"/>
-      <c r="I116" s="61"/>
+      <c r="H116" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="I116" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="39">
@@ -5075,8 +5079,12 @@
         <v>24</v>
       </c>
       <c r="F117" s="12"/>
-      <c r="H117" s="55"/>
-      <c r="I117" s="61"/>
+      <c r="H117" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="I117" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="118" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="39">
@@ -5091,8 +5099,12 @@
       <c r="D118" s="18"/>
       <c r="E118" s="19"/>
       <c r="F118" s="12"/>
-      <c r="H118" s="55"/>
-      <c r="I118" s="61"/>
+      <c r="H118" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="I118" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="119" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="39">
@@ -5107,8 +5119,12 @@
       <c r="D119" s="18"/>
       <c r="E119" s="19"/>
       <c r="F119" s="12"/>
-      <c r="H119" s="55"/>
-      <c r="I119" s="61"/>
+      <c r="H119" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="I119" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="120" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="39">
@@ -5123,7 +5139,9 @@
       <c r="D120" s="18"/>
       <c r="E120" s="19"/>
       <c r="F120" s="12"/>
-      <c r="H120" s="55"/>
+      <c r="H120" s="55" t="s">
+        <v>121</v>
+      </c>
       <c r="I120" s="61"/>
     </row>
     <row r="121" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -6290,6 +6308,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -6415,24 +6450,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6448,22 +6484,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B378B0B2-B8B7-4448-9303-879B7204B56A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5BD375-C0C9-4DF4-9553-3CEF610468A8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="146">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1943,6 +1943,31 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制限時間の処理修正、効果音の追加等。</t>
+    <rPh sb="0" eb="2">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>コウカオン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3152,7 +3177,7 @@
   <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I120" sqref="I120"/>
+      <selection activeCell="I122" sqref="I122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5142,7 +5167,9 @@
       <c r="H120" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="I120" s="61"/>
+      <c r="I120" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="121" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="39">
@@ -5157,8 +5184,12 @@
       <c r="D121" s="18"/>
       <c r="E121" s="19"/>
       <c r="F121" s="12"/>
-      <c r="H121" s="55"/>
-      <c r="I121" s="61"/>
+      <c r="H121" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="I121" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="122" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="39">
@@ -6308,23 +6339,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -6450,25 +6464,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6484,4 +6497,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5BD375-C0C9-4DF4-9553-3CEF610468A8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B590C37-7C11-4BB8-BD29-6CC2B286E426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="147">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1968,6 +1968,22 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>ナド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI追加、エンド画面削除、ゲームほぼ完成。</t>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3176,8 +3192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I122" sqref="I122"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H123" sqref="H123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5204,8 +5220,12 @@
       <c r="D122" s="18"/>
       <c r="E122" s="19"/>
       <c r="F122" s="12"/>
-      <c r="H122" s="55"/>
-      <c r="I122" s="61"/>
+      <c r="H122" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="I122" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="123" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="39">
@@ -6339,6 +6359,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -6464,15 +6493,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -6482,6 +6502,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6499,14 +6527,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
   <ds:schemaRefs>

--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B590C37-7C11-4BB8-BD29-6CC2B286E426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2469CE6A-9658-452F-944E-686AB29AE687}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="148">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1984,6 +1984,22 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休み。（別作品制作。）</t>
+    <rPh sb="0" eb="1">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイサク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3192,8 +3208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H123" sqref="H123"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H128" sqref="H128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5240,8 +5256,12 @@
       <c r="D123" s="18"/>
       <c r="E123" s="19"/>
       <c r="F123" s="12"/>
-      <c r="H123" s="55"/>
-      <c r="I123" s="61"/>
+      <c r="H123" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="I123" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="39">
@@ -5256,8 +5276,12 @@
       <c r="D124" s="18"/>
       <c r="E124" s="19"/>
       <c r="F124" s="12"/>
-      <c r="H124" s="55"/>
-      <c r="I124" s="61"/>
+      <c r="H124" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="I124" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="125" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="39">
@@ -5272,8 +5296,12 @@
       <c r="D125" s="18"/>
       <c r="E125" s="19"/>
       <c r="F125" s="12"/>
-      <c r="H125" s="55"/>
-      <c r="I125" s="61"/>
+      <c r="H125" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="I125" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="126" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="39">
@@ -5288,8 +5316,12 @@
       <c r="D126" s="18"/>
       <c r="E126" s="19"/>
       <c r="F126" s="12"/>
-      <c r="H126" s="55"/>
-      <c r="I126" s="61"/>
+      <c r="H126" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="I126" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="39">
@@ -5304,8 +5336,12 @@
       <c r="D127" s="18"/>
       <c r="E127" s="19"/>
       <c r="F127" s="12"/>
-      <c r="H127" s="55"/>
-      <c r="I127" s="61"/>
+      <c r="H127" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="I127" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="128" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="39">

--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2469CE6A-9658-452F-944E-686AB29AE687}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF6A68A-1B36-4A3F-95E7-ACED2DD316F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="149">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -2000,6 +2000,13 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコン追加。</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3208,8 +3215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H128" sqref="H128"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H129" sqref="H129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5356,8 +5363,12 @@
       <c r="D128" s="18"/>
       <c r="E128" s="19"/>
       <c r="F128" s="12"/>
-      <c r="H128" s="55"/>
-      <c r="I128" s="61"/>
+      <c r="H128" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="I128" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="129" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="39">
@@ -6395,15 +6406,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -6529,6 +6531,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -6538,14 +6549,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6563,6 +6566,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
   <ds:schemaRefs>

--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF6A68A-1B36-4A3F-95E7-ACED2DD316F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DA4866-62C9-4424-8D7C-90501B9BCA7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="150">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -2007,6 +2007,13 @@
     <t>アイコン追加。</t>
     <rPh sb="4" eb="6">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほぼ完成。</t>
+    <rPh sb="2" eb="4">
+      <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3215,8 +3222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H129" sqref="H129"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H154" sqref="H154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5383,8 +5390,12 @@
       <c r="D129" s="18"/>
       <c r="E129" s="19"/>
       <c r="F129" s="12"/>
-      <c r="H129" s="55"/>
-      <c r="I129" s="61"/>
+      <c r="H129" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="I129" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="130" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="39">
@@ -5399,8 +5410,12 @@
       <c r="D130" s="18"/>
       <c r="E130" s="19"/>
       <c r="F130" s="12"/>
-      <c r="H130" s="55"/>
-      <c r="I130" s="61"/>
+      <c r="H130" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="I130" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="131" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A131" s="42">
@@ -5419,8 +5434,12 @@
         <v>26</v>
       </c>
       <c r="F131" s="14"/>
-      <c r="H131" s="56"/>
-      <c r="I131" s="62"/>
+      <c r="H131" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="I131" s="62">
+        <v>1</v>
+      </c>
     </row>
     <row r="132" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="41">
@@ -5435,8 +5454,12 @@
       <c r="D132" s="47"/>
       <c r="E132" s="48"/>
       <c r="F132" s="11"/>
-      <c r="H132" s="57"/>
-      <c r="I132" s="63"/>
+      <c r="H132" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="I132" s="63">
+        <v>1</v>
+      </c>
     </row>
     <row r="133" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="39">
@@ -5451,8 +5474,12 @@
       <c r="D133" s="18"/>
       <c r="E133" s="19"/>
       <c r="F133" s="12"/>
-      <c r="H133" s="55"/>
-      <c r="I133" s="61"/>
+      <c r="H133" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="I133" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="134" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="39">
@@ -5469,8 +5496,12 @@
         <v>26</v>
       </c>
       <c r="F134" s="12"/>
-      <c r="H134" s="55"/>
-      <c r="I134" s="61"/>
+      <c r="H134" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="I134" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="135" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="39">
@@ -5487,8 +5518,12 @@
         <v>26</v>
       </c>
       <c r="F135" s="12"/>
-      <c r="H135" s="55"/>
-      <c r="I135" s="61"/>
+      <c r="H135" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="I135" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="136" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="39">
@@ -5503,8 +5538,12 @@
       <c r="D136" s="18"/>
       <c r="E136" s="19"/>
       <c r="F136" s="12"/>
-      <c r="H136" s="55"/>
-      <c r="I136" s="61"/>
+      <c r="H136" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="I136" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="137" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="39">
@@ -5519,8 +5558,12 @@
       <c r="D137" s="18"/>
       <c r="E137" s="19"/>
       <c r="F137" s="12"/>
-      <c r="H137" s="55"/>
-      <c r="I137" s="61"/>
+      <c r="H137" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="I137" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="138" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="39">
@@ -5535,8 +5578,12 @@
       <c r="D138" s="18"/>
       <c r="E138" s="19"/>
       <c r="F138" s="12"/>
-      <c r="H138" s="55"/>
-      <c r="I138" s="61"/>
+      <c r="H138" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="I138" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="139" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="39">
@@ -5551,8 +5598,12 @@
       <c r="D139" s="18"/>
       <c r="E139" s="19"/>
       <c r="F139" s="12"/>
-      <c r="H139" s="55"/>
-      <c r="I139" s="61"/>
+      <c r="H139" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="I139" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="140" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="39">
@@ -5567,8 +5618,12 @@
       <c r="D140" s="18"/>
       <c r="E140" s="19"/>
       <c r="F140" s="12"/>
-      <c r="H140" s="55"/>
-      <c r="I140" s="61"/>
+      <c r="H140" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="I140" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="141" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="39">
@@ -5583,8 +5638,12 @@
       <c r="D141" s="18"/>
       <c r="E141" s="19"/>
       <c r="F141" s="12"/>
-      <c r="H141" s="55"/>
-      <c r="I141" s="61"/>
+      <c r="H141" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="I141" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="142" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="39">
@@ -5599,8 +5658,12 @@
       <c r="D142" s="18"/>
       <c r="E142" s="19"/>
       <c r="F142" s="12"/>
-      <c r="H142" s="55"/>
-      <c r="I142" s="61"/>
+      <c r="H142" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="I142" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="143" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="39">
@@ -5615,8 +5678,12 @@
       <c r="D143" s="18"/>
       <c r="E143" s="19"/>
       <c r="F143" s="12"/>
-      <c r="H143" s="55"/>
-      <c r="I143" s="61"/>
+      <c r="H143" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="I143" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="144" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="39">
@@ -5631,8 +5698,12 @@
       <c r="D144" s="18"/>
       <c r="E144" s="19"/>
       <c r="F144" s="12"/>
-      <c r="H144" s="55"/>
-      <c r="I144" s="61"/>
+      <c r="H144" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="I144" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="145" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="39">
@@ -5647,8 +5718,12 @@
       <c r="D145" s="18"/>
       <c r="E145" s="19"/>
       <c r="F145" s="12"/>
-      <c r="H145" s="55"/>
-      <c r="I145" s="61"/>
+      <c r="H145" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="I145" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="146" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="39">
@@ -5663,8 +5738,12 @@
       <c r="D146" s="18"/>
       <c r="E146" s="19"/>
       <c r="F146" s="12"/>
-      <c r="H146" s="55"/>
-      <c r="I146" s="61"/>
+      <c r="H146" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="I146" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="147" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="39">
@@ -5679,8 +5758,12 @@
       <c r="D147" s="18"/>
       <c r="E147" s="19"/>
       <c r="F147" s="12"/>
-      <c r="H147" s="55"/>
-      <c r="I147" s="61"/>
+      <c r="H147" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="I147" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="148" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="39">
@@ -5699,8 +5782,12 @@
         <v>28</v>
       </c>
       <c r="F148" s="12"/>
-      <c r="H148" s="55"/>
-      <c r="I148" s="61"/>
+      <c r="H148" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="I148" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="149" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="39">
@@ -5717,8 +5804,12 @@
         <v>28</v>
       </c>
       <c r="F149" s="12"/>
-      <c r="H149" s="55"/>
-      <c r="I149" s="61"/>
+      <c r="H149" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="I149" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="150" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="39">
@@ -5735,8 +5826,12 @@
         <v>28</v>
       </c>
       <c r="F150" s="12"/>
-      <c r="H150" s="55"/>
-      <c r="I150" s="61"/>
+      <c r="H150" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="I150" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="151" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="39">
@@ -5751,8 +5846,12 @@
       <c r="D151" s="18"/>
       <c r="E151" s="19"/>
       <c r="F151" s="12"/>
-      <c r="H151" s="55"/>
-      <c r="I151" s="61"/>
+      <c r="H151" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="I151" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="152" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="39">
@@ -5767,8 +5866,12 @@
       <c r="D152" s="18"/>
       <c r="E152" s="19"/>
       <c r="F152" s="12"/>
-      <c r="H152" s="55"/>
-      <c r="I152" s="61"/>
+      <c r="H152" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="I152" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="153" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="39">
@@ -5783,8 +5886,12 @@
       <c r="D153" s="18"/>
       <c r="E153" s="19"/>
       <c r="F153" s="12"/>
-      <c r="H153" s="55"/>
-      <c r="I153" s="61"/>
+      <c r="H153" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="I153" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="154" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="39">
@@ -5799,8 +5906,12 @@
       <c r="D154" s="18"/>
       <c r="E154" s="19"/>
       <c r="F154" s="12"/>
-      <c r="H154" s="55"/>
-      <c r="I154" s="61"/>
+      <c r="H154" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="I154" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="155" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="39">

--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DA4866-62C9-4424-8D7C-90501B9BCA7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0C62CF-F46D-4DDC-A240-DDD715DB7996}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="151">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -2014,6 +2014,13 @@
     <t>ほぼ完成。</t>
     <rPh sb="2" eb="4">
       <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラム変更。</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2122,7 +2129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -2683,17 +2690,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -2710,7 +2706,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2885,15 +2881,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2901,9 +2894,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
@@ -3222,8 +3212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H154" sqref="H154"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H170" sqref="H170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3240,38 +3230,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75" t="s">
+      <c r="A2" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="16"/>
@@ -3282,32 +3272,32 @@
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="71"/>
+      <c r="F5" s="69"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="73"/>
+      <c r="F6" s="71"/>
     </row>
     <row r="8" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
@@ -3337,7 +3327,7 @@
       <c r="H9" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="58" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3351,7 +3341,7 @@
       <c r="E10" s="27"/>
       <c r="F10" s="6"/>
       <c r="H10" s="51"/>
-      <c r="I10" s="60"/>
+      <c r="I10" s="59"/>
     </row>
     <row r="11" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="39">
@@ -3363,7 +3353,7 @@
       <c r="E11" s="19"/>
       <c r="F11" s="4"/>
       <c r="H11" s="51"/>
-      <c r="I11" s="60"/>
+      <c r="I11" s="59"/>
     </row>
     <row r="12" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="39">
@@ -3375,7 +3365,7 @@
       <c r="E12" s="19"/>
       <c r="F12" s="4"/>
       <c r="H12" s="51"/>
-      <c r="I12" s="60"/>
+      <c r="I12" s="59"/>
     </row>
     <row r="13" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="39">
@@ -3387,7 +3377,7 @@
       <c r="E13" s="19"/>
       <c r="F13" s="4"/>
       <c r="H13" s="51"/>
-      <c r="I13" s="60"/>
+      <c r="I13" s="59"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="39">
@@ -3399,7 +3389,7 @@
       <c r="E14" s="19"/>
       <c r="F14" s="4"/>
       <c r="H14" s="51"/>
-      <c r="I14" s="60"/>
+      <c r="I14" s="59"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="39">
@@ -3411,7 +3401,7 @@
       <c r="E15" s="19"/>
       <c r="F15" s="4"/>
       <c r="H15" s="51"/>
-      <c r="I15" s="60"/>
+      <c r="I15" s="59"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="39">
@@ -3423,7 +3413,7 @@
       <c r="E16" s="19"/>
       <c r="F16" s="4"/>
       <c r="H16" s="51"/>
-      <c r="I16" s="60"/>
+      <c r="I16" s="59"/>
     </row>
     <row r="17" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="39">
@@ -3435,7 +3425,7 @@
       <c r="E17" s="19"/>
       <c r="F17" s="4"/>
       <c r="H17" s="51"/>
-      <c r="I17" s="60"/>
+      <c r="I17" s="59"/>
     </row>
     <row r="18" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="39">
@@ -3447,7 +3437,7 @@
       <c r="E18" s="19"/>
       <c r="F18" s="4"/>
       <c r="H18" s="51"/>
-      <c r="I18" s="60"/>
+      <c r="I18" s="59"/>
     </row>
     <row r="19" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="39">
@@ -3459,7 +3449,7 @@
       <c r="E19" s="19"/>
       <c r="F19" s="4"/>
       <c r="H19" s="51"/>
-      <c r="I19" s="60"/>
+      <c r="I19" s="59"/>
     </row>
     <row r="20" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="39">
@@ -3471,7 +3461,7 @@
       <c r="E20" s="19"/>
       <c r="F20" s="4"/>
       <c r="H20" s="51"/>
-      <c r="I20" s="60"/>
+      <c r="I20" s="59"/>
     </row>
     <row r="21" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="39">
@@ -3483,7 +3473,7 @@
       <c r="E21" s="19"/>
       <c r="F21" s="4"/>
       <c r="H21" s="51"/>
-      <c r="I21" s="60"/>
+      <c r="I21" s="59"/>
     </row>
     <row r="22" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="39">
@@ -3495,7 +3485,7 @@
       <c r="E22" s="19"/>
       <c r="F22" s="4"/>
       <c r="H22" s="51"/>
-      <c r="I22" s="60"/>
+      <c r="I22" s="59"/>
     </row>
     <row r="23" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="39">
@@ -3507,7 +3497,7 @@
       <c r="E23" s="19"/>
       <c r="F23" s="4"/>
       <c r="H23" s="51"/>
-      <c r="I23" s="60"/>
+      <c r="I23" s="59"/>
     </row>
     <row r="24" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="39">
@@ -3519,7 +3509,7 @@
       <c r="E24" s="19"/>
       <c r="F24" s="4"/>
       <c r="H24" s="51"/>
-      <c r="I24" s="60"/>
+      <c r="I24" s="59"/>
     </row>
     <row r="25" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="39">
@@ -3531,7 +3521,7 @@
       <c r="E25" s="19"/>
       <c r="F25" s="4"/>
       <c r="H25" s="51"/>
-      <c r="I25" s="60"/>
+      <c r="I25" s="59"/>
     </row>
     <row r="26" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="39">
@@ -3543,7 +3533,7 @@
       <c r="E26" s="19"/>
       <c r="F26" s="4"/>
       <c r="H26" s="51"/>
-      <c r="I26" s="60"/>
+      <c r="I26" s="59"/>
     </row>
     <row r="27" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="39">
@@ -3555,7 +3545,7 @@
       <c r="E27" s="19"/>
       <c r="F27" s="4"/>
       <c r="H27" s="51"/>
-      <c r="I27" s="60"/>
+      <c r="I27" s="59"/>
     </row>
     <row r="28" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="39">
@@ -3567,7 +3557,7 @@
       <c r="E28" s="19"/>
       <c r="F28" s="4"/>
       <c r="H28" s="51"/>
-      <c r="I28" s="60"/>
+      <c r="I28" s="59"/>
     </row>
     <row r="29" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="39">
@@ -3579,7 +3569,7 @@
       <c r="E29" s="19"/>
       <c r="F29" s="4"/>
       <c r="H29" s="51"/>
-      <c r="I29" s="60"/>
+      <c r="I29" s="59"/>
     </row>
     <row r="30" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="39">
@@ -3591,7 +3581,7 @@
       <c r="E30" s="19"/>
       <c r="F30" s="4"/>
       <c r="H30" s="51"/>
-      <c r="I30" s="60"/>
+      <c r="I30" s="59"/>
     </row>
     <row r="31" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="39">
@@ -3603,7 +3593,7 @@
       <c r="E31" s="19"/>
       <c r="F31" s="4"/>
       <c r="H31" s="51"/>
-      <c r="I31" s="60"/>
+      <c r="I31" s="59"/>
     </row>
     <row r="32" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="39">
@@ -3615,7 +3605,7 @@
       <c r="E32" s="19"/>
       <c r="F32" s="4"/>
       <c r="H32" s="51"/>
-      <c r="I32" s="60"/>
+      <c r="I32" s="59"/>
     </row>
     <row r="33" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="39">
@@ -3627,7 +3617,7 @@
       <c r="E33" s="19"/>
       <c r="F33" s="4"/>
       <c r="H33" s="51"/>
-      <c r="I33" s="60"/>
+      <c r="I33" s="59"/>
     </row>
     <row r="34" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="39">
@@ -3639,7 +3629,7 @@
       <c r="E34" s="19"/>
       <c r="F34" s="4"/>
       <c r="H34" s="51"/>
-      <c r="I34" s="60"/>
+      <c r="I34" s="59"/>
     </row>
     <row r="35" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="39">
@@ -3651,7 +3641,7 @@
       <c r="E35" s="19"/>
       <c r="F35" s="4"/>
       <c r="H35" s="51"/>
-      <c r="I35" s="60"/>
+      <c r="I35" s="59"/>
     </row>
     <row r="36" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="39">
@@ -3663,7 +3653,7 @@
       <c r="E36" s="19"/>
       <c r="F36" s="4"/>
       <c r="H36" s="51"/>
-      <c r="I36" s="60"/>
+      <c r="I36" s="59"/>
     </row>
     <row r="37" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="39">
@@ -3675,7 +3665,7 @@
       <c r="E37" s="19"/>
       <c r="F37" s="4"/>
       <c r="H37" s="51"/>
-      <c r="I37" s="60"/>
+      <c r="I37" s="59"/>
     </row>
     <row r="38" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="39">
@@ -3687,7 +3677,7 @@
       <c r="E38" s="19"/>
       <c r="F38" s="4"/>
       <c r="H38" s="51"/>
-      <c r="I38" s="60"/>
+      <c r="I38" s="59"/>
     </row>
     <row r="39" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="40">
@@ -3699,7 +3689,7 @@
       <c r="E39" s="44"/>
       <c r="F39" s="9"/>
       <c r="H39" s="51"/>
-      <c r="I39" s="60"/>
+      <c r="I39" s="59"/>
     </row>
     <row r="40" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
@@ -3711,7 +3701,7 @@
       <c r="E40" s="48"/>
       <c r="F40" s="11"/>
       <c r="H40" s="55"/>
-      <c r="I40" s="61"/>
+      <c r="I40" s="60"/>
     </row>
     <row r="41" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="39">
@@ -3723,7 +3713,7 @@
       <c r="E41" s="19"/>
       <c r="F41" s="12"/>
       <c r="H41" s="55"/>
-      <c r="I41" s="61"/>
+      <c r="I41" s="60"/>
     </row>
     <row r="42" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="39">
@@ -3735,7 +3725,7 @@
       <c r="E42" s="19"/>
       <c r="F42" s="12"/>
       <c r="H42" s="55"/>
-      <c r="I42" s="61"/>
+      <c r="I42" s="60"/>
     </row>
     <row r="43" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="39">
@@ -3747,7 +3737,7 @@
       <c r="E43" s="19"/>
       <c r="F43" s="12"/>
       <c r="H43" s="55"/>
-      <c r="I43" s="61"/>
+      <c r="I43" s="60"/>
     </row>
     <row r="44" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="39">
@@ -3759,7 +3749,7 @@
       <c r="E44" s="19"/>
       <c r="F44" s="12"/>
       <c r="H44" s="55"/>
-      <c r="I44" s="61"/>
+      <c r="I44" s="60"/>
     </row>
     <row r="45" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="39">
@@ -3771,7 +3761,7 @@
       <c r="E45" s="19"/>
       <c r="F45" s="12"/>
       <c r="H45" s="55"/>
-      <c r="I45" s="61"/>
+      <c r="I45" s="60"/>
     </row>
     <row r="46" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="39">
@@ -3783,7 +3773,7 @@
       <c r="E46" s="19"/>
       <c r="F46" s="12"/>
       <c r="H46" s="55"/>
-      <c r="I46" s="61"/>
+      <c r="I46" s="60"/>
     </row>
     <row r="47" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="39">
@@ -3795,7 +3785,7 @@
       <c r="E47" s="19"/>
       <c r="F47" s="12"/>
       <c r="H47" s="55"/>
-      <c r="I47" s="61"/>
+      <c r="I47" s="60"/>
     </row>
     <row r="48" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="39">
@@ -3807,7 +3797,7 @@
       <c r="E48" s="19"/>
       <c r="F48" s="12"/>
       <c r="H48" s="55"/>
-      <c r="I48" s="61"/>
+      <c r="I48" s="60"/>
     </row>
     <row r="49" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="39">
@@ -3819,7 +3809,7 @@
       <c r="E49" s="19"/>
       <c r="F49" s="12"/>
       <c r="H49" s="55"/>
-      <c r="I49" s="61"/>
+      <c r="I49" s="60"/>
     </row>
     <row r="50" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="39">
@@ -3831,7 +3821,7 @@
       <c r="E50" s="19"/>
       <c r="F50" s="12"/>
       <c r="H50" s="55"/>
-      <c r="I50" s="61"/>
+      <c r="I50" s="60"/>
     </row>
     <row r="51" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="39">
@@ -3843,7 +3833,7 @@
       <c r="E51" s="19"/>
       <c r="F51" s="12"/>
       <c r="H51" s="55"/>
-      <c r="I51" s="61"/>
+      <c r="I51" s="60"/>
     </row>
     <row r="52" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="39">
@@ -3855,7 +3845,7 @@
       <c r="E52" s="19"/>
       <c r="F52" s="12"/>
       <c r="H52" s="55"/>
-      <c r="I52" s="61"/>
+      <c r="I52" s="60"/>
     </row>
     <row r="53" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="39">
@@ -3867,7 +3857,7 @@
       <c r="E53" s="19"/>
       <c r="F53" s="12"/>
       <c r="H53" s="55"/>
-      <c r="I53" s="61"/>
+      <c r="I53" s="60"/>
     </row>
     <row r="54" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="39">
@@ -3879,7 +3869,7 @@
       <c r="E54" s="19"/>
       <c r="F54" s="12"/>
       <c r="H54" s="55"/>
-      <c r="I54" s="61"/>
+      <c r="I54" s="60"/>
     </row>
     <row r="55" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="39">
@@ -3891,7 +3881,7 @@
       <c r="E55" s="19"/>
       <c r="F55" s="12"/>
       <c r="H55" s="55"/>
-      <c r="I55" s="61"/>
+      <c r="I55" s="60"/>
     </row>
     <row r="56" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="39">
@@ -3903,7 +3893,7 @@
       <c r="E56" s="19"/>
       <c r="F56" s="12"/>
       <c r="H56" s="55"/>
-      <c r="I56" s="61"/>
+      <c r="I56" s="60"/>
     </row>
     <row r="57" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="39">
@@ -3915,7 +3905,7 @@
       <c r="E57" s="19"/>
       <c r="F57" s="12"/>
       <c r="H57" s="55"/>
-      <c r="I57" s="61"/>
+      <c r="I57" s="60"/>
     </row>
     <row r="58" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="39">
@@ -3937,7 +3927,7 @@
       <c r="H58" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="I58" s="61">
+      <c r="I58" s="60">
         <v>1</v>
       </c>
     </row>
@@ -3957,7 +3947,7 @@
       <c r="H59" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="I59" s="61">
+      <c r="I59" s="60">
         <v>1</v>
       </c>
     </row>
@@ -3977,7 +3967,7 @@
       <c r="H60" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="I60" s="61">
+      <c r="I60" s="60">
         <v>1</v>
       </c>
     </row>
@@ -3997,7 +3987,7 @@
       <c r="H61" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="I61" s="61">
+      <c r="I61" s="60">
         <v>1</v>
       </c>
     </row>
@@ -4017,7 +4007,7 @@
       <c r="H62" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="I62" s="61">
+      <c r="I62" s="60">
         <v>1</v>
       </c>
     </row>
@@ -4025,10 +4015,10 @@
       <c r="A63" s="39">
         <v>43975</v>
       </c>
-      <c r="B63" s="68" t="s">
+      <c r="B63" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="C63" s="67" t="s">
+      <c r="C63" s="65" t="s">
         <v>91</v>
       </c>
       <c r="D63" s="18"/>
@@ -4037,7 +4027,7 @@
       <c r="H63" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="I63" s="61">
+      <c r="I63" s="60">
         <v>0.2</v>
       </c>
     </row>
@@ -4045,10 +4035,10 @@
       <c r="A64" s="39">
         <v>43976</v>
       </c>
-      <c r="B64" s="68" t="s">
+      <c r="B64" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="67" t="s">
+      <c r="C64" s="65" t="s">
         <v>91</v>
       </c>
       <c r="D64" s="18"/>
@@ -4057,7 +4047,7 @@
       <c r="H64" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="I64" s="61">
+      <c r="I64" s="60">
         <v>0.5</v>
       </c>
     </row>
@@ -4065,10 +4055,10 @@
       <c r="A65" s="39">
         <v>43977</v>
       </c>
-      <c r="B65" s="68" t="s">
+      <c r="B65" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="C65" s="67" t="s">
+      <c r="C65" s="65" t="s">
         <v>92</v>
       </c>
       <c r="D65" s="20"/>
@@ -4077,7 +4067,7 @@
       <c r="H65" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="I65" s="61">
+      <c r="I65" s="60">
         <v>0.6</v>
       </c>
     </row>
@@ -4085,10 +4075,10 @@
       <c r="A66" s="39">
         <v>43978</v>
       </c>
-      <c r="B66" s="68" t="s">
+      <c r="B66" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="C66" s="67" t="s">
+      <c r="C66" s="65" t="s">
         <v>92</v>
       </c>
       <c r="D66" s="22"/>
@@ -4097,7 +4087,7 @@
       <c r="H66" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="I66" s="61">
+      <c r="I66" s="60">
         <v>1</v>
       </c>
     </row>
@@ -4105,10 +4095,10 @@
       <c r="A67" s="39">
         <v>43979</v>
       </c>
-      <c r="B67" s="68" t="s">
+      <c r="B67" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="C67" s="67" t="s">
+      <c r="C67" s="65" t="s">
         <v>92</v>
       </c>
       <c r="D67" s="22"/>
@@ -4117,7 +4107,7 @@
       <c r="H67" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="I67" s="61">
+      <c r="I67" s="60">
         <v>1</v>
       </c>
     </row>
@@ -4139,7 +4129,7 @@
       <c r="H68" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="I68" s="61">
+      <c r="I68" s="60">
         <v>1</v>
       </c>
     </row>
@@ -4159,7 +4149,7 @@
       <c r="H69" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="I69" s="61">
+      <c r="I69" s="60">
         <v>0.5</v>
       </c>
     </row>
@@ -4179,7 +4169,7 @@
       <c r="H70" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="I70" s="62">
+      <c r="I70" s="61">
         <v>1</v>
       </c>
     </row>
@@ -4201,7 +4191,7 @@
       <c r="H71" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="I71" s="63">
+      <c r="I71" s="62">
         <v>1</v>
       </c>
     </row>
@@ -4223,7 +4213,7 @@
       <c r="H72" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="I72" s="61">
+      <c r="I72" s="60">
         <v>1</v>
       </c>
     </row>
@@ -4245,7 +4235,7 @@
       <c r="H73" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="I73" s="61">
+      <c r="I73" s="60">
         <v>0.2</v>
       </c>
     </row>
@@ -4267,7 +4257,7 @@
       <c r="H74" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="I74" s="61">
+      <c r="I74" s="60">
         <v>1</v>
       </c>
     </row>
@@ -4289,7 +4279,7 @@
       <c r="H75" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="I75" s="61">
+      <c r="I75" s="60">
         <v>0</v>
       </c>
     </row>
@@ -4309,7 +4299,7 @@
       <c r="H76" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="I76" s="61">
+      <c r="I76" s="60">
         <v>0.2</v>
       </c>
     </row>
@@ -4329,7 +4319,7 @@
       <c r="H77" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="I77" s="61">
+      <c r="I77" s="60">
         <v>1</v>
       </c>
     </row>
@@ -4340,7 +4330,7 @@
       <c r="B78" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C78" s="65" t="s">
+      <c r="C78" s="63" t="s">
         <v>68</v>
       </c>
       <c r="D78" s="18"/>
@@ -4349,7 +4339,7 @@
       <c r="H78" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="I78" s="61">
+      <c r="I78" s="60">
         <v>0.8</v>
       </c>
     </row>
@@ -4360,7 +4350,7 @@
       <c r="B79" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C79" s="65" t="s">
+      <c r="C79" s="63" t="s">
         <v>69</v>
       </c>
       <c r="D79" s="18"/>
@@ -4369,7 +4359,7 @@
       <c r="H79" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="I79" s="61">
+      <c r="I79" s="60">
         <v>1</v>
       </c>
     </row>
@@ -4380,7 +4370,7 @@
       <c r="B80" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C80" s="66" t="s">
+      <c r="C80" s="64" t="s">
         <v>70</v>
       </c>
       <c r="D80" s="18"/>
@@ -4389,7 +4379,7 @@
       <c r="H80" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="I80" s="61">
+      <c r="I80" s="60">
         <v>1</v>
       </c>
     </row>
@@ -4400,7 +4390,7 @@
       <c r="B81" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C81" s="65" t="s">
+      <c r="C81" s="63" t="s">
         <v>71</v>
       </c>
       <c r="D81" s="18"/>
@@ -4409,7 +4399,7 @@
       <c r="H81" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="I81" s="61">
+      <c r="I81" s="60">
         <v>1</v>
       </c>
     </row>
@@ -4420,7 +4410,7 @@
       <c r="B82" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C82" s="66" t="s">
+      <c r="C82" s="64" t="s">
         <v>72</v>
       </c>
       <c r="D82" s="18"/>
@@ -4429,7 +4419,7 @@
       <c r="H82" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="I82" s="61">
+      <c r="I82" s="60">
         <v>1</v>
       </c>
     </row>
@@ -4440,7 +4430,7 @@
       <c r="B83" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C83" s="65" t="s">
+      <c r="C83" s="63" t="s">
         <v>73</v>
       </c>
       <c r="D83" s="18"/>
@@ -4449,7 +4439,7 @@
       <c r="H83" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="I83" s="61">
+      <c r="I83" s="60">
         <v>0</v>
       </c>
     </row>
@@ -4469,7 +4459,7 @@
       <c r="H84" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="I84" s="61">
+      <c r="I84" s="60">
         <v>0</v>
       </c>
     </row>
@@ -4493,7 +4483,7 @@
       <c r="H85" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="I85" s="61">
+      <c r="I85" s="60">
         <v>1</v>
       </c>
     </row>
@@ -4515,7 +4505,7 @@
       <c r="H86" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="I86" s="61">
+      <c r="I86" s="60">
         <v>1</v>
       </c>
     </row>
@@ -4537,7 +4527,7 @@
       <c r="H87" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="I87" s="61">
+      <c r="I87" s="60">
         <v>1</v>
       </c>
     </row>
@@ -4557,7 +4547,7 @@
       <c r="H88" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="I88" s="61">
+      <c r="I88" s="60">
         <v>1</v>
       </c>
     </row>
@@ -4577,7 +4567,7 @@
       <c r="H89" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="I89" s="61">
+      <c r="I89" s="60">
         <v>1</v>
       </c>
     </row>
@@ -4585,10 +4575,10 @@
       <c r="A90" s="39">
         <v>44002</v>
       </c>
-      <c r="B90" s="68" t="s">
+      <c r="B90" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="C90" s="65" t="s">
+      <c r="C90" s="63" t="s">
         <v>93</v>
       </c>
       <c r="D90" s="18"/>
@@ -4597,7 +4587,7 @@
       <c r="H90" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="I90" s="61">
+      <c r="I90" s="60">
         <v>0</v>
       </c>
     </row>
@@ -4605,10 +4595,10 @@
       <c r="A91" s="39">
         <v>44003</v>
       </c>
-      <c r="B91" s="68" t="s">
+      <c r="B91" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="C91" s="65" t="s">
+      <c r="C91" s="63" t="s">
         <v>93</v>
       </c>
       <c r="D91" s="18"/>
@@ -4617,7 +4607,7 @@
       <c r="H91" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="I91" s="61">
+      <c r="I91" s="60">
         <v>0</v>
       </c>
     </row>
@@ -4637,7 +4627,7 @@
       <c r="H92" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="I92" s="61">
+      <c r="I92" s="60">
         <v>0</v>
       </c>
     </row>
@@ -4657,7 +4647,7 @@
       <c r="H93" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="I93" s="61">
+      <c r="I93" s="60">
         <v>1</v>
       </c>
     </row>
@@ -4677,7 +4667,7 @@
       <c r="H94" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="I94" s="61">
+      <c r="I94" s="60">
         <v>1</v>
       </c>
     </row>
@@ -4697,7 +4687,7 @@
       <c r="H95" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="I95" s="61">
+      <c r="I95" s="60">
         <v>1</v>
       </c>
     </row>
@@ -4708,7 +4698,7 @@
       <c r="B96" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="C96" s="65" t="s">
+      <c r="C96" s="63" t="s">
         <v>72</v>
       </c>
       <c r="D96" s="18"/>
@@ -4717,7 +4707,7 @@
       <c r="H96" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="I96" s="61">
+      <c r="I96" s="60">
         <v>1</v>
       </c>
     </row>
@@ -4737,7 +4727,7 @@
       <c r="H97" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="I97" s="61">
+      <c r="I97" s="60">
         <v>1</v>
       </c>
     </row>
@@ -4757,7 +4747,7 @@
       <c r="H98" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="I98" s="61">
+      <c r="I98" s="60">
         <v>1</v>
       </c>
     </row>
@@ -4777,7 +4767,7 @@
       <c r="H99" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="I99" s="61">
+      <c r="I99" s="60">
         <v>1</v>
       </c>
     </row>
@@ -4801,7 +4791,7 @@
       <c r="H100" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="I100" s="62">
+      <c r="I100" s="61">
         <v>1</v>
       </c>
     </row>
@@ -4812,7 +4802,7 @@
       <c r="B101" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C101" s="65" t="s">
+      <c r="C101" s="63" t="s">
         <v>72</v>
       </c>
       <c r="D101" s="47"/>
@@ -4823,7 +4813,7 @@
       <c r="H101" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="I101" s="63">
+      <c r="I101" s="62">
         <v>1</v>
       </c>
     </row>
@@ -4845,7 +4835,7 @@
       <c r="H102" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="I102" s="61">
+      <c r="I102" s="60">
         <v>1</v>
       </c>
     </row>
@@ -4865,7 +4855,7 @@
       <c r="H103" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="I103" s="61">
+      <c r="I103" s="60">
         <v>1</v>
       </c>
     </row>
@@ -4885,7 +4875,7 @@
       <c r="H104" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="I104" s="61">
+      <c r="I104" s="60">
         <v>1</v>
       </c>
     </row>
@@ -4905,7 +4895,7 @@
       <c r="H105" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="I105" s="61">
+      <c r="I105" s="60">
         <v>1</v>
       </c>
     </row>
@@ -4916,7 +4906,7 @@
       <c r="B106" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C106" s="65" t="s">
+      <c r="C106" s="63" t="s">
         <v>72</v>
       </c>
       <c r="D106" s="18"/>
@@ -4925,7 +4915,7 @@
       <c r="H106" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="I106" s="61">
+      <c r="I106" s="60">
         <v>1</v>
       </c>
     </row>
@@ -4945,7 +4935,7 @@
       <c r="H107" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="I107" s="61">
+      <c r="I107" s="60">
         <v>1</v>
       </c>
     </row>
@@ -4965,7 +4955,7 @@
       <c r="H108" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="I108" s="61">
+      <c r="I108" s="60">
         <v>1</v>
       </c>
     </row>
@@ -4985,7 +4975,7 @@
       <c r="H109" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="I109" s="61">
+      <c r="I109" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5005,7 +4995,7 @@
       <c r="H110" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="I110" s="61">
+      <c r="I110" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5016,7 +5006,7 @@
       <c r="B111" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="C111" s="65" t="s">
+      <c r="C111" s="63" t="s">
         <v>72</v>
       </c>
       <c r="D111" s="18"/>
@@ -5025,7 +5015,7 @@
       <c r="H111" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="I111" s="61">
+      <c r="I111" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5045,7 +5035,7 @@
       <c r="H112" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="I112" s="61">
+      <c r="I112" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5065,7 +5055,7 @@
       <c r="H113" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="I113" s="61">
+      <c r="I113" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5085,7 +5075,7 @@
       <c r="H114" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="I114" s="61">
+      <c r="I114" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5109,7 +5099,7 @@
       <c r="H115" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="I115" s="61">
+      <c r="I115" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5120,7 +5110,7 @@
       <c r="B116" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="C116" s="65" t="s">
+      <c r="C116" s="63" t="s">
         <v>72</v>
       </c>
       <c r="D116" s="18"/>
@@ -5131,7 +5121,7 @@
       <c r="H116" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="I116" s="61">
+      <c r="I116" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5153,7 +5143,7 @@
       <c r="H117" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="I117" s="61">
+      <c r="I117" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5173,7 +5163,7 @@
       <c r="H118" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="I118" s="61">
+      <c r="I118" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5193,7 +5183,7 @@
       <c r="H119" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="I119" s="61">
+      <c r="I119" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5213,7 +5203,7 @@
       <c r="H120" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="I120" s="61">
+      <c r="I120" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5224,7 +5214,7 @@
       <c r="B121" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C121" s="65" t="s">
+      <c r="C121" s="63" t="s">
         <v>72</v>
       </c>
       <c r="D121" s="18"/>
@@ -5233,7 +5223,7 @@
       <c r="H121" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="I121" s="61">
+      <c r="I121" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5253,7 +5243,7 @@
       <c r="H122" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="I122" s="61">
+      <c r="I122" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5273,7 +5263,7 @@
       <c r="H123" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="I123" s="61">
+      <c r="I123" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5293,7 +5283,7 @@
       <c r="H124" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="I124" s="61">
+      <c r="I124" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5313,7 +5303,7 @@
       <c r="H125" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="I125" s="61">
+      <c r="I125" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5324,7 +5314,7 @@
       <c r="B126" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="C126" s="65" t="s">
+      <c r="C126" s="63" t="s">
         <v>72</v>
       </c>
       <c r="D126" s="18"/>
@@ -5333,7 +5323,7 @@
       <c r="H126" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="I126" s="61">
+      <c r="I126" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5353,7 +5343,7 @@
       <c r="H127" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="I127" s="61">
+      <c r="I127" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5373,7 +5363,7 @@
       <c r="H128" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="I128" s="61">
+      <c r="I128" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5393,7 +5383,7 @@
       <c r="H129" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="I129" s="61">
+      <c r="I129" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5413,7 +5403,7 @@
       <c r="H130" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="I130" s="61">
+      <c r="I130" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5424,7 +5414,7 @@
       <c r="B131" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="C131" s="65" t="s">
+      <c r="C131" s="63" t="s">
         <v>72</v>
       </c>
       <c r="D131" s="24" t="s">
@@ -5437,7 +5427,7 @@
       <c r="H131" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="I131" s="62">
+      <c r="I131" s="61">
         <v>1</v>
       </c>
     </row>
@@ -5457,7 +5447,7 @@
       <c r="H132" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="I132" s="63">
+      <c r="I132" s="62">
         <v>1</v>
       </c>
     </row>
@@ -5477,7 +5467,7 @@
       <c r="H133" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="I133" s="61">
+      <c r="I133" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5499,7 +5489,7 @@
       <c r="H134" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="I134" s="61">
+      <c r="I134" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5521,7 +5511,7 @@
       <c r="H135" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="I135" s="61">
+      <c r="I135" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5532,7 +5522,7 @@
       <c r="B136" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C136" s="65" t="s">
+      <c r="C136" s="63" t="s">
         <v>72</v>
       </c>
       <c r="D136" s="18"/>
@@ -5541,7 +5531,7 @@
       <c r="H136" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="I136" s="61">
+      <c r="I136" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5561,7 +5551,7 @@
       <c r="H137" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="I137" s="61">
+      <c r="I137" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5581,7 +5571,7 @@
       <c r="H138" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="I138" s="61">
+      <c r="I138" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5601,7 +5591,7 @@
       <c r="H139" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="I139" s="61">
+      <c r="I139" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5621,7 +5611,7 @@
       <c r="H140" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="I140" s="61">
+      <c r="I140" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5632,7 +5622,7 @@
       <c r="B141" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C141" s="65" t="s">
+      <c r="C141" s="63" t="s">
         <v>72</v>
       </c>
       <c r="D141" s="18"/>
@@ -5641,7 +5631,7 @@
       <c r="H141" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="I141" s="61">
+      <c r="I141" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5661,7 +5651,7 @@
       <c r="H142" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="I142" s="61">
+      <c r="I142" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5681,7 +5671,7 @@
       <c r="H143" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="I143" s="61">
+      <c r="I143" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5701,7 +5691,7 @@
       <c r="H144" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="I144" s="61">
+      <c r="I144" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5721,7 +5711,7 @@
       <c r="H145" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="I145" s="61">
+      <c r="I145" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5732,7 +5722,7 @@
       <c r="B146" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="C146" s="65" t="s">
+      <c r="C146" s="63" t="s">
         <v>72</v>
       </c>
       <c r="D146" s="18"/>
@@ -5741,7 +5731,7 @@
       <c r="H146" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="I146" s="61">
+      <c r="I146" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5761,7 +5751,7 @@
       <c r="H147" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="I147" s="61">
+      <c r="I147" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5785,7 +5775,7 @@
       <c r="H148" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="I148" s="61">
+      <c r="I148" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5807,7 +5797,7 @@
       <c r="H149" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="I149" s="61">
+      <c r="I149" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5829,7 +5819,7 @@
       <c r="H150" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="I150" s="61">
+      <c r="I150" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5849,7 +5839,7 @@
       <c r="H151" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="I151" s="61">
+      <c r="I151" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5869,7 +5859,7 @@
       <c r="H152" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="I152" s="61">
+      <c r="I152" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5889,7 +5879,7 @@
       <c r="H153" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="I153" s="61">
+      <c r="I153" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5909,7 +5899,7 @@
       <c r="H154" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="I154" s="61">
+      <c r="I154" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5926,8 +5916,12 @@
       <c r="D155" s="18"/>
       <c r="E155" s="19"/>
       <c r="F155" s="12"/>
-      <c r="H155" s="55"/>
-      <c r="I155" s="61"/>
+      <c r="H155" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="I155" s="60">
+        <v>1</v>
+      </c>
     </row>
     <row r="156" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="39">
@@ -5942,8 +5936,12 @@
       <c r="D156" s="18"/>
       <c r="E156" s="19"/>
       <c r="F156" s="12"/>
-      <c r="H156" s="55"/>
-      <c r="I156" s="61"/>
+      <c r="H156" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="I156" s="60">
+        <v>1</v>
+      </c>
     </row>
     <row r="157" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="39">
@@ -5958,8 +5956,12 @@
       <c r="D157" s="18"/>
       <c r="E157" s="19"/>
       <c r="F157" s="12"/>
-      <c r="H157" s="55"/>
-      <c r="I157" s="61"/>
+      <c r="H157" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="I157" s="60">
+        <v>1</v>
+      </c>
     </row>
     <row r="158" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="39">
@@ -5974,8 +5976,12 @@
       <c r="D158" s="18"/>
       <c r="E158" s="19"/>
       <c r="F158" s="12"/>
-      <c r="H158" s="55"/>
-      <c r="I158" s="61"/>
+      <c r="H158" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="I158" s="60">
+        <v>1</v>
+      </c>
     </row>
     <row r="159" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="39">
@@ -5990,8 +5996,12 @@
       <c r="D159" s="18"/>
       <c r="E159" s="19"/>
       <c r="F159" s="12"/>
-      <c r="H159" s="55"/>
-      <c r="I159" s="61"/>
+      <c r="H159" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="I159" s="60">
+        <v>1</v>
+      </c>
     </row>
     <row r="160" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="39">
@@ -6006,8 +6016,12 @@
       <c r="D160" s="18"/>
       <c r="E160" s="19"/>
       <c r="F160" s="12"/>
-      <c r="H160" s="55"/>
-      <c r="I160" s="61"/>
+      <c r="H160" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="I160" s="60">
+        <v>1</v>
+      </c>
     </row>
     <row r="161" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="39">
@@ -6022,8 +6036,12 @@
       <c r="D161" s="18"/>
       <c r="E161" s="19"/>
       <c r="F161" s="12"/>
-      <c r="H161" s="55"/>
-      <c r="I161" s="61"/>
+      <c r="H161" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="I161" s="60">
+        <v>1</v>
+      </c>
     </row>
     <row r="162" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A162" s="42">
@@ -6042,8 +6060,12 @@
         <v>30</v>
       </c>
       <c r="F162" s="14"/>
-      <c r="H162" s="56"/>
-      <c r="I162" s="62"/>
+      <c r="H162" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="I162" s="60">
+        <v>1</v>
+      </c>
     </row>
     <row r="163" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="38">
@@ -6060,8 +6082,12 @@
         <v>30</v>
       </c>
       <c r="F163" s="46"/>
-      <c r="H163" s="58"/>
-      <c r="I163" s="64"/>
+      <c r="H163" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="I163" s="60">
+        <v>1</v>
+      </c>
     </row>
     <row r="164" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="39">
@@ -6078,8 +6104,12 @@
         <v>30</v>
       </c>
       <c r="F164" s="12"/>
-      <c r="H164" s="55"/>
-      <c r="I164" s="61"/>
+      <c r="H164" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="I164" s="60">
+        <v>1</v>
+      </c>
     </row>
     <row r="165" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="39">
@@ -6094,8 +6124,12 @@
       <c r="D165" s="18"/>
       <c r="E165" s="19"/>
       <c r="F165" s="12"/>
-      <c r="H165" s="55"/>
-      <c r="I165" s="61"/>
+      <c r="H165" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="I165" s="60">
+        <v>1</v>
+      </c>
     </row>
     <row r="166" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="39">
@@ -6110,8 +6144,12 @@
       <c r="D166" s="18"/>
       <c r="E166" s="19"/>
       <c r="F166" s="12"/>
-      <c r="H166" s="55"/>
-      <c r="I166" s="61"/>
+      <c r="H166" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="I166" s="60">
+        <v>1</v>
+      </c>
     </row>
     <row r="167" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="39">
@@ -6126,8 +6164,12 @@
       <c r="D167" s="18"/>
       <c r="E167" s="19"/>
       <c r="F167" s="12"/>
-      <c r="H167" s="55"/>
-      <c r="I167" s="61"/>
+      <c r="H167" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="I167" s="60">
+        <v>1</v>
+      </c>
     </row>
     <row r="168" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="39">
@@ -6142,8 +6184,12 @@
       <c r="D168" s="18"/>
       <c r="E168" s="19"/>
       <c r="F168" s="12"/>
-      <c r="H168" s="55"/>
-      <c r="I168" s="61"/>
+      <c r="H168" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="I168" s="60">
+        <v>1</v>
+      </c>
     </row>
     <row r="169" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="39">
@@ -6158,8 +6204,12 @@
       <c r="D169" s="18"/>
       <c r="E169" s="19"/>
       <c r="F169" s="12"/>
-      <c r="H169" s="55"/>
-      <c r="I169" s="61"/>
+      <c r="H169" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="I169" s="60">
+        <v>1</v>
+      </c>
     </row>
     <row r="170" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="39">
@@ -6174,8 +6224,12 @@
       <c r="D170" s="18"/>
       <c r="E170" s="19"/>
       <c r="F170" s="12"/>
-      <c r="H170" s="55"/>
-      <c r="I170" s="61"/>
+      <c r="H170" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="I170" s="60">
+        <v>1</v>
+      </c>
     </row>
     <row r="171" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="39">
@@ -6191,7 +6245,7 @@
       <c r="E171" s="19"/>
       <c r="F171" s="12"/>
       <c r="H171" s="55"/>
-      <c r="I171" s="61"/>
+      <c r="I171" s="60"/>
     </row>
     <row r="172" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="39">
@@ -6207,7 +6261,7 @@
       <c r="E172" s="19"/>
       <c r="F172" s="12"/>
       <c r="H172" s="55"/>
-      <c r="I172" s="61"/>
+      <c r="I172" s="60"/>
     </row>
     <row r="173" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="39">
@@ -6223,7 +6277,7 @@
       <c r="E173" s="19"/>
       <c r="F173" s="12"/>
       <c r="H173" s="55"/>
-      <c r="I173" s="61"/>
+      <c r="I173" s="60"/>
     </row>
     <row r="174" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="39">
@@ -6239,7 +6293,7 @@
       <c r="E174" s="19"/>
       <c r="F174" s="12"/>
       <c r="H174" s="55"/>
-      <c r="I174" s="61"/>
+      <c r="I174" s="60"/>
     </row>
     <row r="175" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="39">
@@ -6255,7 +6309,7 @@
       <c r="E175" s="19"/>
       <c r="F175" s="12"/>
       <c r="H175" s="55"/>
-      <c r="I175" s="61"/>
+      <c r="I175" s="60"/>
     </row>
     <row r="176" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="39">
@@ -6277,7 +6331,7 @@
         <v>33</v>
       </c>
       <c r="H176" s="55"/>
-      <c r="I176" s="61"/>
+      <c r="I176" s="60"/>
     </row>
     <row r="177" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="39">
@@ -6297,7 +6351,7 @@
         <v>33</v>
       </c>
       <c r="H177" s="55"/>
-      <c r="I177" s="61"/>
+      <c r="I177" s="60"/>
     </row>
     <row r="178" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="39">
@@ -6317,7 +6371,7 @@
         <v>33</v>
       </c>
       <c r="H178" s="55"/>
-      <c r="I178" s="61"/>
+      <c r="I178" s="60"/>
     </row>
     <row r="179" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="39">
@@ -6335,7 +6389,7 @@
         <v>33</v>
       </c>
       <c r="H179" s="55"/>
-      <c r="I179" s="61"/>
+      <c r="I179" s="60"/>
     </row>
     <row r="180" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="39">
@@ -6353,7 +6407,7 @@
         <v>33</v>
       </c>
       <c r="H180" s="55"/>
-      <c r="I180" s="61"/>
+      <c r="I180" s="60"/>
     </row>
     <row r="181" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="39">
@@ -6371,7 +6425,7 @@
         <v>33</v>
       </c>
       <c r="H181" s="55"/>
-      <c r="I181" s="61"/>
+      <c r="I181" s="60"/>
     </row>
     <row r="182" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="39">
@@ -6389,7 +6443,7 @@
         <v>33</v>
       </c>
       <c r="H182" s="55"/>
-      <c r="I182" s="61"/>
+      <c r="I182" s="60"/>
     </row>
     <row r="183" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="39">
@@ -6409,7 +6463,7 @@
         <v>33</v>
       </c>
       <c r="H183" s="55"/>
-      <c r="I183" s="61"/>
+      <c r="I183" s="60"/>
     </row>
     <row r="184" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="39">
@@ -6429,7 +6483,7 @@
         <v>33</v>
       </c>
       <c r="H184" s="55"/>
-      <c r="I184" s="61"/>
+      <c r="I184" s="60"/>
     </row>
     <row r="185" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="39">
@@ -6449,7 +6503,7 @@
         <v>33</v>
       </c>
       <c r="H185" s="55"/>
-      <c r="I185" s="61"/>
+      <c r="I185" s="60"/>
     </row>
     <row r="186" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="39">
@@ -6469,7 +6523,7 @@
         <v>33</v>
       </c>
       <c r="H186" s="55"/>
-      <c r="I186" s="61"/>
+      <c r="I186" s="60"/>
     </row>
     <row r="187" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A187" s="42">
@@ -6489,7 +6543,7 @@
         <v>33</v>
       </c>
       <c r="H187" s="56"/>
-      <c r="I187" s="62"/>
+      <c r="I187" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6517,6 +6571,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010072FE26006FEF334E95511B3234F6CC9B" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="346fbc33e8814340f96ae64058256fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e82850a2c10ce5c0c49277bd69f9de6" ns2:_="">
     <xsd:import namespace="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
@@ -6642,15 +6705,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -6660,6 +6714,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0399B9-C071-4AB5-963B-DE6AE46D5C73}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6677,14 +6739,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
   <ds:schemaRefs>

--- a/G18005_兼子凌_ゲーム製作スケジュール.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0C62CF-F46D-4DDC-A240-DDD715DB7996}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89708925-4BA7-4143-AD5E-4EF60B4E4C63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="151">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -3213,7 +3213,7 @@
   <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A148" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H170" sqref="H170"/>
+      <selection activeCell="I170" sqref="I170:I171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6244,8 +6244,12 @@
       <c r="D171" s="18"/>
       <c r="E171" s="19"/>
       <c r="F171" s="12"/>
-      <c r="H171" s="55"/>
-      <c r="I171" s="60"/>
+      <c r="H171" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="I171" s="60">
+        <v>1</v>
+      </c>
     </row>
     <row r="172" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="39">
@@ -6571,12 +6575,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6706,17 +6709,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6740,11 +6746,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F3045-3837-43F2-9025-707BC0811E18}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB06AF6-8410-4F7A-AE5E-18B59554EC84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b7d6a94-3e94-43d3-8ff4-36dc5b97fc74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>